--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-9.090909090908914</v>
+      </c>
       <c r="L12" t="n">
         <v>25.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-28.5714285714285</v>
+      </c>
       <c r="L13" t="n">
         <v>25.76000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>25.71000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.5</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>25.66000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.599999999999998</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>25.60000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.699999999999996</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20.0000000000001</v>
+      </c>
       <c r="L17" t="n">
         <v>25.56000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.799999999999994</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L18" t="n">
         <v>25.52000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.799999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>25.46000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.799999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20</v>
+      </c>
       <c r="L20" t="n">
         <v>25.42000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-75.00000000000044</v>
+      </c>
       <c r="L21" t="n">
         <v>25.39000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-60.00000000000056</v>
+      </c>
       <c r="L22" t="n">
         <v>25.33000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>-18.18181818181815</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L23" t="n">
         <v>25.33000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>-18.18181818181815</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L24" t="n">
         <v>25.34000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.04347826086946</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L25" t="n">
         <v>25.36000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>2.699999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-25.92592592592591</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L26" t="n">
         <v>25.35</v>
@@ -1613,7 +1635,7 @@
         <v>2.699999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-23.07692307692312</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L27" t="n">
         <v>25.33000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>2.800000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-15.38461538461532</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>25.33</v>
@@ -1711,7 +1733,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-20</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L29" t="n">
         <v>25.34</v>
@@ -1760,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.333333333333297</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L30" t="n">
         <v>25.36</v>
@@ -1809,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L31" t="n">
         <v>25.39</v>
@@ -1860,7 +1882,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-23.8095238095238</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L32" t="n">
         <v>25.4</v>
@@ -1962,7 +1984,7 @@
         <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>10.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>25.41</v>
@@ -2013,7 +2035,7 @@
         <v>3.5</v>
       </c>
       <c r="K35" t="n">
-        <v>10.00000000000014</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L35" t="n">
         <v>25.41</v>
@@ -2064,7 +2086,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>23.8095238095238</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L36" t="n">
         <v>25.47000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>20.00000000000007</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L37" t="n">
         <v>25.53000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>26.31578947368413</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L38" t="n">
         <v>25.58000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L39" t="n">
         <v>25.60000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L40" t="n">
         <v>25.61000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>4.099999999999998</v>
       </c>
       <c r="K41" t="n">
-        <v>27.27272727272731</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L41" t="n">
         <v>25.64000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K42" t="n">
-        <v>38.46153846153844</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L42" t="n">
         <v>25.73000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>30.43478260869561</v>
+        <v>60</v>
       </c>
       <c r="L43" t="n">
         <v>25.80000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>30.43478260869561</v>
+        <v>60</v>
       </c>
       <c r="L44" t="n">
         <v>25.86000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>30.43478260869561</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L45" t="n">
         <v>25.93000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>60.00000000000008</v>
+        <v>60</v>
       </c>
       <c r="L46" t="n">
         <v>25.99</v>
@@ -2625,7 +2647,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K47" t="n">
-        <v>60.00000000000008</v>
+        <v>60</v>
       </c>
       <c r="L47" t="n">
         <v>26.05</v>
@@ -2676,7 +2698,7 @@
         <v>4.899999999999995</v>
       </c>
       <c r="K48" t="n">
-        <v>42.8571428571429</v>
+        <v>60</v>
       </c>
       <c r="L48" t="n">
         <v>26.09</v>
@@ -2727,7 +2749,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K49" t="n">
-        <v>45.45454545454554</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L49" t="n">
         <v>26.16999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K50" t="n">
-        <v>42.8571428571429</v>
+        <v>60</v>
       </c>
       <c r="L50" t="n">
         <v>26.24999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K51" t="n">
-        <v>42.8571428571429</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>26.30999999999998</v>
@@ -2880,7 +2902,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K52" t="n">
-        <v>57.8947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>26.32999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>5.599999999999994</v>
       </c>
       <c r="K53" t="n">
-        <v>18.18181818181815</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L53" t="n">
         <v>26.29999999999998</v>
@@ -2982,7 +3004,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K54" t="n">
-        <v>28.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>26.30999999999998</v>
@@ -3033,7 +3055,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K55" t="n">
-        <v>30.76923076923073</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>26.31999999999998</v>
@@ -3084,7 +3106,7 @@
         <v>6.199999999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>28.00000000000001</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L56" t="n">
         <v>26.32999999999998</v>
@@ -3135,7 +3157,7 @@
         <v>6.199999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>28.00000000000001</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L57" t="n">
         <v>26.33999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>6.199999999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>28.00000000000001</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L58" t="n">
         <v>26.36999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>6.199999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>39.13043478260868</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L59" t="n">
         <v>26.37999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>6.399999999999995</v>
       </c>
       <c r="K60" t="n">
-        <v>28.00000000000001</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L60" t="n">
         <v>26.36999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>6.599999999999994</v>
       </c>
       <c r="K61" t="n">
-        <v>28.00000000000001</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L61" t="n">
         <v>26.38</v>
@@ -3390,7 +3412,7 @@
         <v>6.599999999999994</v>
       </c>
       <c r="K62" t="n">
-        <v>14.28571428571433</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L62" t="n">
         <v>26.39</v>
@@ -3441,7 +3463,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>18.18181818181829</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L63" t="n">
         <v>26.46</v>
@@ -3492,7 +3514,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>18.18181818181829</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L64" t="n">
         <v>26.49</v>
@@ -3543,7 +3565,7 @@
         <v>6.799999999999994</v>
       </c>
       <c r="K65" t="n">
-        <v>18.18181818181815</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>26.52</v>
@@ -3594,7 +3616,7 @@
         <v>6.899999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>18.18181818181829</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L66" t="n">
         <v>26.55</v>
@@ -3645,7 +3667,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K67" t="n">
-        <v>21.73913043478263</v>
+        <v>50</v>
       </c>
       <c r="L67" t="n">
         <v>26.59</v>
@@ -3696,7 +3718,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K68" t="n">
-        <v>27.27272727272739</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L68" t="n">
         <v>26.62</v>
@@ -3747,7 +3769,7 @@
         <v>7.199999999999989</v>
       </c>
       <c r="K69" t="n">
-        <v>23.80952380952387</v>
+        <v>75.00000000000033</v>
       </c>
       <c r="L69" t="n">
         <v>26.66</v>
@@ -3798,7 +3820,7 @@
         <v>7.199999999999989</v>
       </c>
       <c r="K70" t="n">
-        <v>23.80952380952387</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L70" t="n">
         <v>26.72</v>
@@ -3849,7 +3871,7 @@
         <v>7.29999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>27.27272727272739</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L71" t="n">
         <v>26.77</v>
@@ -3900,7 +3922,7 @@
         <v>7.599999999999991</v>
       </c>
       <c r="K72" t="n">
-        <v>36.00000000000014</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L72" t="n">
         <v>26.85</v>
@@ -3951,7 +3973,7 @@
         <v>7.79999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>72.72727272727293</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L73" t="n">
         <v>26.94</v>
@@ -4002,7 +4024,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K74" t="n">
-        <v>68.42105263157916</v>
+        <v>81.81818181818217</v>
       </c>
       <c r="L74" t="n">
         <v>27.04</v>
@@ -4053,7 +4075,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K75" t="n">
-        <v>66.66666666666693</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L75" t="n">
         <v>27.13</v>
@@ -4104,7 +4126,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K76" t="n">
-        <v>47.36842105263154</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L76" t="n">
         <v>27.19</v>
@@ -4155,7 +4177,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>50</v>
+        <v>63.63636363636328</v>
       </c>
       <c r="L77" t="n">
         <v>27.25</v>
@@ -4206,7 +4228,7 @@
         <v>8.499999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>56.5217391304348</v>
+        <v>69.23076923076897</v>
       </c>
       <c r="L78" t="n">
         <v>27.35</v>
@@ -4257,7 +4279,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>61.53846153846156</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L79" t="n">
         <v>27.47000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>8.899999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>67.99999999999987</v>
+        <v>62.49999999999967</v>
       </c>
       <c r="L80" t="n">
         <v>27.58000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>8.899999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>65.2173913043477</v>
+        <v>53.84615384615346</v>
       </c>
       <c r="L81" t="n">
         <v>27.68000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>46.15384615384604</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L82" t="n">
         <v>27.72000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>9.599999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>24.13793103448272</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L83" t="n">
         <v>27.70000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>29.03225806451607</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L84" t="n">
         <v>27.69</v>
@@ -4563,7 +4585,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>26.66666666666666</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L85" t="n">
         <v>27.68</v>
@@ -4614,7 +4636,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>26.66666666666666</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L86" t="n">
         <v>27.70000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>24.13793103448281</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L87" t="n">
         <v>27.71000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>10</v>
       </c>
       <c r="K88" t="n">
-        <v>24.13793103448266</v>
+        <v>-50</v>
       </c>
       <c r="L88" t="n">
         <v>27.68000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>10.6</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-64.70588235294115</v>
       </c>
       <c r="L89" t="n">
         <v>27.56</v>
@@ -4818,7 +4840,7 @@
         <v>10.7</v>
       </c>
       <c r="K90" t="n">
-        <v>2.857142857142886</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L90" t="n">
         <v>27.46</v>
@@ -4869,7 +4891,7 @@
         <v>11.4</v>
       </c>
       <c r="K91" t="n">
-        <v>17.07317073170725</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>27.43</v>
@@ -4920,7 +4942,7 @@
         <v>11.6</v>
       </c>
       <c r="K92" t="n">
-        <v>4.999999999999969</v>
+        <v>9.999999999999947</v>
       </c>
       <c r="L92" t="n">
         <v>27.41</v>
@@ -4971,7 +4993,7 @@
         <v>11.7</v>
       </c>
       <c r="K93" t="n">
-        <v>-2.564102564102592</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L93" t="n">
         <v>27.42</v>
@@ -5022,7 +5044,7 @@
         <v>11.8</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.999999999999947</v>
       </c>
       <c r="L94" t="n">
         <v>27.4</v>
@@ -5073,7 +5095,7 @@
         <v>12.3</v>
       </c>
       <c r="K95" t="n">
-        <v>-18.18181818181816</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>27.33</v>
@@ -5124,7 +5146,7 @@
         <v>12.4</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.62790697674417</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L96" t="n">
         <v>27.26</v>
@@ -5175,7 +5197,7 @@
         <v>12.5</v>
       </c>
       <c r="K97" t="n">
-        <v>-16.27906976744184</v>
+        <v>-28.00000000000001</v>
       </c>
       <c r="L97" t="n">
         <v>27.18</v>
@@ -5226,7 +5248,7 @@
         <v>12.6</v>
       </c>
       <c r="K98" t="n">
-        <v>-26.82926829268295</v>
+        <v>-9.999999999999982</v>
       </c>
       <c r="L98" t="n">
         <v>27.09999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>12.6</v>
       </c>
       <c r="K99" t="n">
-        <v>-36.84210526315794</v>
+        <v>-15.78947368421061</v>
       </c>
       <c r="L99" t="n">
         <v>27.07999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>12.8</v>
       </c>
       <c r="K100" t="n">
-        <v>-38.46153846153847</v>
+        <v>-85.71428571428596</v>
       </c>
       <c r="L100" t="n">
         <v>27.02999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>12.8</v>
       </c>
       <c r="K101" t="n">
-        <v>-38.46153846153847</v>
+        <v>-83.33333333333363</v>
       </c>
       <c r="L101" t="n">
         <v>26.91</v>
@@ -5430,7 +5452,7 @@
         <v>13.1</v>
       </c>
       <c r="K102" t="n">
-        <v>-38.46153846153847</v>
+        <v>-85.71428571428596</v>
       </c>
       <c r="L102" t="n">
         <v>26.77999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>13.4</v>
       </c>
       <c r="K103" t="n">
-        <v>-36.84210526315794</v>
+        <v>-87.50000000000026</v>
       </c>
       <c r="L103" t="n">
         <v>26.63</v>
@@ -5532,7 +5554,7 @@
         <v>13.5</v>
       </c>
       <c r="K104" t="n">
-        <v>-45.94594594594594</v>
+        <v>-83.33333333333363</v>
       </c>
       <c r="L104" t="n">
         <v>26.48</v>
@@ -5583,7 +5605,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>-42.1052631578948</v>
+        <v>-83.33333333333363</v>
       </c>
       <c r="L105" t="n">
         <v>26.38999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>-45.94594594594608</v>
+        <v>-81.81818181818217</v>
       </c>
       <c r="L106" t="n">
         <v>26.28999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>13.7</v>
       </c>
       <c r="K107" t="n">
-        <v>-42.1052631578948</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L107" t="n">
         <v>26.20999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>13.7</v>
       </c>
       <c r="K108" t="n">
-        <v>-40.54054054054059</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L108" t="n">
         <v>26.13999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>13.9</v>
       </c>
       <c r="K109" t="n">
-        <v>-21.21212121212123</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L109" t="n">
         <v>26.08999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>13.9</v>
       </c>
       <c r="K110" t="n">
-        <v>-25.00000000000008</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L110" t="n">
         <v>26.05999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>14.29999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>-65.51724137931049</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>25.98999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>-46.66666666666673</v>
+        <v>16.66666666666696</v>
       </c>
       <c r="L112" t="n">
         <v>25.98</v>
@@ -5991,7 +6013,7 @@
         <v>14.8</v>
       </c>
       <c r="K113" t="n">
-        <v>-48.38709677419364</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L113" t="n">
         <v>25.98</v>
@@ -6042,7 +6064,7 @@
         <v>14.8</v>
       </c>
       <c r="K114" t="n">
-        <v>-46.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>25.98999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>14.8</v>
       </c>
       <c r="K115" t="n">
-        <v>-36.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>25.98999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>14.8</v>
       </c>
       <c r="K116" t="n">
-        <v>-41.66666666666669</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L116" t="n">
         <v>25.98999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>15</v>
       </c>
       <c r="K117" t="n">
-        <v>-44.00000000000006</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L117" t="n">
         <v>25.95999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>15</v>
       </c>
       <c r="K118" t="n">
-        <v>-41.66666666666669</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L118" t="n">
         <v>25.92999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>15.1</v>
       </c>
       <c r="K119" t="n">
-        <v>-35.99999999999994</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L119" t="n">
         <v>25.88999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>15.2</v>
       </c>
       <c r="K120" t="n">
-        <v>-25.00000000000007</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L120" t="n">
         <v>25.85999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>15.2</v>
       </c>
       <c r="K121" t="n">
-        <v>-25.00000000000007</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L121" t="n">
         <v>25.86999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>15.2</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.28571428571433</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>25.84999999999998</v>
@@ -6552,7 +6574,7 @@
         <v>15.3</v>
       </c>
       <c r="K124" t="n">
-        <v>11.11111111111107</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L124" t="n">
         <v>25.85999999999999</v>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>24.55166666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.9</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>24.59000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>24.62666666666668</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,19 @@
         <v>24.66333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.9</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,23 @@
         <v>24.70000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +658,23 @@
         <v>24.73666666666668</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999787</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +701,19 @@
         <v>24.77000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>25.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>25.7</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +740,23 @@
         <v>24.81166666666668</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +783,23 @@
         <v>24.84833333333335</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +826,19 @@
         <v>24.87833333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3999999999999986</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +865,23 @@
         <v>24.91333333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.099999999999998</v>
+        <v>25.7</v>
       </c>
       <c r="K12" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L12" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +908,23 @@
         <v>24.94166666666668</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.399999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="K13" t="n">
-        <v>-28.5714285714285</v>
-      </c>
-      <c r="L13" t="n">
-        <v>25.76000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +951,23 @@
         <v>24.96666666666668</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>25.5</v>
       </c>
       <c r="K14" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>25.71000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +994,23 @@
         <v>24.99000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>25.4</v>
       </c>
       <c r="K15" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>25.66000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1037,23 @@
         <v>25.01166666666668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5999999999999979</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.599999999999998</v>
+        <v>25.4</v>
       </c>
       <c r="K16" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>25.60000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1080,23 @@
         <v>25.03166666666668</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.699999999999996</v>
+        <v>25.4</v>
       </c>
       <c r="K17" t="n">
-        <v>-20.0000000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>25.56000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1123,23 @@
         <v>25.04500000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5999999999999979</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.799999999999994</v>
+        <v>25.3</v>
       </c>
       <c r="K18" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L18" t="n">
-        <v>25.52000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1166,23 @@
         <v>25.05666666666668</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5999999999999979</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.799999999999994</v>
+        <v>25.3</v>
       </c>
       <c r="K19" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>25.46000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1209,23 @@
         <v>25.06833333333335</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.5999999999999979</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.799999999999994</v>
+        <v>25.3</v>
       </c>
       <c r="K20" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L20" t="n">
-        <v>25.42000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1252,23 @@
         <v>25.08000000000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.899999999999995</v>
+        <v>25.2</v>
       </c>
       <c r="K21" t="n">
-        <v>-75.00000000000044</v>
-      </c>
-      <c r="L21" t="n">
-        <v>25.39000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1295,23 @@
         <v>25.09000000000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.899999999999995</v>
+        <v>25.2</v>
       </c>
       <c r="K22" t="n">
-        <v>-60.00000000000056</v>
-      </c>
-      <c r="L22" t="n">
-        <v>25.33000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>25.565</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1338,23 @@
         <v>25.11166666666668</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.199999999999996</v>
+        <v>25.5</v>
       </c>
       <c r="K23" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L23" t="n">
-        <v>25.33000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>25.54500000000001</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1381,23 @@
         <v>25.13666666666668</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.199999999999996</v>
+        <v>25.5</v>
       </c>
       <c r="K24" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L24" t="n">
-        <v>25.34000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>25.52500000000001</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1424,23 @@
         <v>25.16333333333335</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.299999999999997</v>
+        <v>25.6</v>
       </c>
       <c r="K25" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L25" t="n">
-        <v>25.36000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>25.51000000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1467,23 @@
         <v>25.18333333333335</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.699999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="K26" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L26" t="n">
-        <v>25.35</v>
+        <v>25.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>25.47500000000001</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1510,23 @@
         <v>25.19833333333335</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.699999999999999</v>
+        <v>25.2</v>
       </c>
       <c r="K27" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L27" t="n">
-        <v>25.33000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>25.44500000000001</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1553,23 @@
         <v>25.21833333333335</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5999999999999979</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.800000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>25.33</v>
+        <v>25.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>25.42500000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1596,23 @@
         <v>25.23666666666669</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.899999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="K29" t="n">
-        <v>9.090909090908857</v>
-      </c>
-      <c r="L29" t="n">
-        <v>25.34</v>
+        <v>25.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>25.40000000000002</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1639,23 @@
         <v>25.26166666666669</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="K30" t="n">
-        <v>27.27272727272722</v>
-      </c>
-      <c r="L30" t="n">
-        <v>25.36</v>
+        <v>25.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>25.39000000000002</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1682,23 @@
         <v>25.28333333333335</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="K31" t="n">
-        <v>27.27272727272722</v>
-      </c>
-      <c r="L31" t="n">
-        <v>25.39</v>
+        <v>25.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>25.39000000000002</v>
-      </c>
-      <c r="N31" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1725,23 @@
         <v>25.29833333333335</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.5999999999999979</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.199999999999999</v>
+        <v>25.3</v>
       </c>
       <c r="K32" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L32" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>25.36500000000002</v>
-      </c>
-      <c r="N32" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1768,23 @@
         <v>25.31666666666668</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.399999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>25.36500000000002</v>
-      </c>
-      <c r="N33" t="n">
-        <v>25.49666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1811,23 @@
         <v>25.34000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>25.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>25.41</v>
+        <v>25.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>25.37500000000002</v>
-      </c>
-      <c r="N34" t="n">
-        <v>25.48666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1854,23 @@
         <v>25.36000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>25.6</v>
       </c>
       <c r="K35" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L35" t="n">
-        <v>25.41</v>
+        <v>25.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>25.38500000000003</v>
-      </c>
-      <c r="N35" t="n">
-        <v>25.47666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1897,23 @@
         <v>25.38333333333334</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.699999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="K36" t="n">
-        <v>60.00000000000014</v>
-      </c>
-      <c r="L36" t="n">
-        <v>25.47000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>25.41000000000002</v>
-      </c>
-      <c r="N36" t="n">
-        <v>25.47333333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1940,23 @@
         <v>25.40666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.699999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="K37" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L37" t="n">
-        <v>25.53000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>25.43000000000002</v>
-      </c>
-      <c r="N37" t="n">
-        <v>25.47333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1983,23 @@
         <v>25.42166666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.699999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="K38" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L38" t="n">
-        <v>25.58000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>25.45500000000002</v>
-      </c>
-      <c r="N38" t="n">
-        <v>25.47666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +2026,23 @@
         <v>25.43166666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.899999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="K39" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L39" t="n">
-        <v>25.60000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>25.47000000000002</v>
-      </c>
-      <c r="N39" t="n">
-        <v>25.46666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +2069,23 @@
         <v>25.44333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.899999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L40" t="n">
-        <v>25.61000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>25.48500000000002</v>
-      </c>
-      <c r="N40" t="n">
-        <v>25.46333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +2112,23 @@
         <v>25.45833333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.099999999999998</v>
+        <v>25.8</v>
       </c>
       <c r="K41" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L41" t="n">
-        <v>25.64000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>25.51500000000002</v>
-      </c>
-      <c r="N41" t="n">
-        <v>25.47333333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2155,23 @@
         <v>25.48333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.499999999999996</v>
+        <v>25.8</v>
       </c>
       <c r="K42" t="n">
-        <v>63.63636363636369</v>
-      </c>
-      <c r="L42" t="n">
-        <v>25.73000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>25.56500000000002</v>
-      </c>
-      <c r="N42" t="n">
-        <v>25.48666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2198,23 @@
         <v>25.51</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.499999999999996</v>
+        <v>26.2</v>
       </c>
       <c r="K43" t="n">
-        <v>60</v>
-      </c>
-      <c r="L43" t="n">
-        <v>25.80000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>25.60000000000002</v>
-      </c>
-      <c r="N43" t="n">
-        <v>25.51000000000001</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2244,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.499999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>60</v>
-      </c>
-      <c r="L44" t="n">
-        <v>25.86000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>25.63500000000002</v>
-      </c>
-      <c r="N44" t="n">
-        <v>25.53666666666668</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2285,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.599999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L45" t="n">
-        <v>25.93000000000001</v>
+        <v>25.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>25.67000000000002</v>
-      </c>
-      <c r="N45" t="n">
-        <v>25.56666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2326,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.699999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>60</v>
-      </c>
-      <c r="L46" t="n">
-        <v>25.99</v>
+        <v>25.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>25.73000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>25.60333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2367,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4.699999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>60</v>
-      </c>
-      <c r="L47" t="n">
-        <v>26.05</v>
+        <v>25.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>25.79000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>25.63666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2408,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.899999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>60</v>
-      </c>
-      <c r="L48" t="n">
-        <v>26.09</v>
+        <v>25.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>25.83500000000002</v>
-      </c>
-      <c r="N48" t="n">
-        <v>25.66666666666668</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2449,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5.099999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L49" t="n">
-        <v>26.16999999999999</v>
+        <v>25.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>25.88500000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>25.70333333333334</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,29 +2490,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5.099999999999994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>60</v>
-      </c>
-      <c r="L50" t="n">
-        <v>26.24999999999999</v>
+        <v>25.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>25.93000000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>25.74000000000001</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
+        <v>1.030294117647059</v>
       </c>
     </row>
     <row r="51">
@@ -2845,28 +2531,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5.099999999999994</v>
-      </c>
-      <c r="K51" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L51" t="n">
-        <v>26.30999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>25.97500000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>25.78000000000001</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2566,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5.099999999999994</v>
-      </c>
-      <c r="K52" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>26.32999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>26.03000000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>25.82000000000001</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,26 +2603,10 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5.599999999999994</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-27.27272727272739</v>
-      </c>
-      <c r="L53" t="n">
-        <v>26.29999999999998</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>26.05000000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>25.83333333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2636,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.999999999999996</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>26.30999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>26.08500000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>25.86000000000001</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2671,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6.099999999999994</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>26.31999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>26.12500000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>25.88666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2706,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6.199999999999996</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L56" t="n">
-        <v>26.32999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>26.16000000000001</v>
-      </c>
-      <c r="N56" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2741,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.199999999999996</v>
-      </c>
-      <c r="K57" t="n">
-        <v>23.07692307692312</v>
-      </c>
-      <c r="L57" t="n">
-        <v>26.33999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>26.19500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>25.97333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2776,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.199999999999996</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L58" t="n">
-        <v>26.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>26.23000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>26.01333333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2811,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6.199999999999996</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L59" t="n">
-        <v>26.37999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>26.27500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2846,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6.399999999999995</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-7.692307692307525</v>
-      </c>
-      <c r="L60" t="n">
-        <v>26.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>26.31000000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>26.07666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2881,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6.599999999999994</v>
-      </c>
-      <c r="K61" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L61" t="n">
-        <v>26.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>26.34500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2916,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.599999999999994</v>
-      </c>
-      <c r="K62" t="n">
-        <v>60.00000000000014</v>
-      </c>
-      <c r="L62" t="n">
-        <v>26.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>26.36000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2951,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.699999999999996</v>
-      </c>
-      <c r="K63" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L63" t="n">
-        <v>26.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>26.38000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>26.18666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2986,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.699999999999996</v>
-      </c>
-      <c r="K64" t="n">
-        <v>33.33333333333373</v>
-      </c>
-      <c r="L64" t="n">
-        <v>26.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>26.40000000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>26.22000000000001</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3021,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J65" t="n">
-        <v>6.799999999999994</v>
-      </c>
-      <c r="K65" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L65" t="n">
-        <v>26.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>26.42000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>26.25666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3056,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6.899999999999995</v>
-      </c>
-      <c r="K66" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L66" t="n">
-        <v>26.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>26.44000000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>26.29000000000001</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3091,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6.999999999999993</v>
-      </c>
-      <c r="K67" t="n">
-        <v>50</v>
-      </c>
-      <c r="L67" t="n">
-        <v>26.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>26.46500000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>26.32666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3126,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.099999999999991</v>
-      </c>
-      <c r="K68" t="n">
-        <v>33.3333333333336</v>
-      </c>
-      <c r="L68" t="n">
-        <v>26.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>26.495</v>
-      </c>
-      <c r="N68" t="n">
-        <v>26.36000000000001</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3765,26 +3163,10 @@
       <c r="I69" t="n">
         <v>1</v>
       </c>
-      <c r="J69" t="n">
-        <v>7.199999999999989</v>
-      </c>
-      <c r="K69" t="n">
-        <v>75.00000000000033</v>
-      </c>
-      <c r="L69" t="n">
-        <v>26.66</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="N69" t="n">
-        <v>26.40333333333334</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,26 +3198,10 @@
       <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="J70" t="n">
-        <v>7.199999999999989</v>
-      </c>
-      <c r="K70" t="n">
-        <v>66.66666666666707</v>
-      </c>
-      <c r="L70" t="n">
-        <v>26.72</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>26.54500000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>26.44666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3231,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>7.29999999999999</v>
-      </c>
-      <c r="K71" t="n">
-        <v>71.42857142857186</v>
-      </c>
-      <c r="L71" t="n">
-        <v>26.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>26.57500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>26.48666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3266,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J72" t="n">
-        <v>7.599999999999991</v>
-      </c>
-      <c r="K72" t="n">
-        <v>77.77777777777813</v>
-      </c>
-      <c r="L72" t="n">
-        <v>26.85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="N72" t="n">
-        <v>26.52333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3301,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.79999999999999</v>
-      </c>
-      <c r="K73" t="n">
-        <v>81.81818181818211</v>
-      </c>
-      <c r="L73" t="n">
-        <v>26.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>26.70000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>26.56666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3336,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J74" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="K74" t="n">
-        <v>81.81818181818217</v>
-      </c>
-      <c r="L74" t="n">
-        <v>27.04</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>26.76500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>26.61333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3371,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="K75" t="n">
-        <v>80.00000000000036</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>26.82500000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>26.65666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3406,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>8.099999999999994</v>
-      </c>
-      <c r="K76" t="n">
-        <v>45.4545454545454</v>
-      </c>
-      <c r="L76" t="n">
-        <v>27.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>26.87000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3441,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8.199999999999996</v>
-      </c>
-      <c r="K77" t="n">
-        <v>63.63636363636328</v>
-      </c>
-      <c r="L77" t="n">
-        <v>27.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>26.92000000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>26.72666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3476,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1.900000000000002</v>
-      </c>
-      <c r="J78" t="n">
-        <v>8.499999999999996</v>
-      </c>
-      <c r="K78" t="n">
-        <v>69.23076923076897</v>
-      </c>
-      <c r="L78" t="n">
-        <v>27.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>26.98500000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3511,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J79" t="n">
-        <v>8.799999999999997</v>
-      </c>
-      <c r="K79" t="n">
-        <v>74.99999999999977</v>
-      </c>
-      <c r="L79" t="n">
-        <v>27.47000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>27.06500000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>26.83666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3546,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J80" t="n">
-        <v>8.899999999999999</v>
-      </c>
-      <c r="K80" t="n">
-        <v>62.49999999999967</v>
-      </c>
-      <c r="L80" t="n">
-        <v>27.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>27.15000000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3581,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8.899999999999999</v>
-      </c>
-      <c r="K81" t="n">
-        <v>53.84615384615346</v>
-      </c>
-      <c r="L81" t="n">
-        <v>27.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>27.22500000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>26.94333333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3616,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J82" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K82" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L82" t="n">
-        <v>27.72000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>27.28500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>26.98666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3651,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J83" t="n">
-        <v>9.599999999999998</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-17.64705882352939</v>
-      </c>
-      <c r="L83" t="n">
-        <v>27.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>27.32000000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>27.03333333333334</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3686,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J84" t="n">
-        <v>9.799999999999997</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-5.263157894736901</v>
-      </c>
-      <c r="L84" t="n">
-        <v>27.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>27.36500000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>27.07333333333334</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3721,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J85" t="n">
-        <v>9.799999999999997</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5.882352941176544</v>
-      </c>
-      <c r="L85" t="n">
-        <v>27.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>27.40500000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>27.11000000000001</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3756,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J86" t="n">
-        <v>9.899999999999999</v>
-      </c>
-      <c r="K86" t="n">
-        <v>5.882352941176544</v>
-      </c>
-      <c r="L86" t="n">
-        <v>27.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>27.44500000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>27.14666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3791,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J87" t="n">
-        <v>9.899999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L87" t="n">
-        <v>27.71000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>27.48000000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>27.18333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3826,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J88" t="n">
-        <v>10</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L88" t="n">
-        <v>27.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>27.51500000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>27.21666666666668</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3861,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-64.70588235294115</v>
-      </c>
-      <c r="L89" t="n">
-        <v>27.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>27.51500000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>27.23000000000001</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3896,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J90" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-55.55555555555542</v>
-      </c>
-      <c r="L90" t="n">
-        <v>27.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>27.52000000000002</v>
-      </c>
-      <c r="N90" t="n">
-        <v>27.25333333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3931,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>27.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>27.55500000000002</v>
-      </c>
-      <c r="N91" t="n">
-        <v>27.29333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3966,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K92" t="n">
-        <v>9.999999999999947</v>
-      </c>
-      <c r="L92" t="n">
-        <v>27.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>27.56500000000002</v>
-      </c>
-      <c r="N92" t="n">
-        <v>27.32666666666668</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4001,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-5.263157894736901</v>
-      </c>
-      <c r="L93" t="n">
-        <v>27.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>27.56000000000002</v>
-      </c>
-      <c r="N93" t="n">
-        <v>27.35333333333334</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4036,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-9.999999999999947</v>
-      </c>
-      <c r="L94" t="n">
-        <v>27.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>27.54500000000002</v>
-      </c>
-      <c r="N94" t="n">
-        <v>27.37666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4071,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J95" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>27.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>27.50500000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4106,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-28.00000000000011</v>
-      </c>
-      <c r="L96" t="n">
-        <v>27.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>27.48000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>27.38333333333334</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4141,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9000000000000021</v>
-      </c>
-      <c r="J97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-28.00000000000001</v>
-      </c>
-      <c r="L97" t="n">
-        <v>27.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>27.44500000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4176,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J98" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-9.999999999999982</v>
-      </c>
-      <c r="L98" t="n">
-        <v>27.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>27.39000000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>27.37666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4211,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J99" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-15.78947368421061</v>
-      </c>
-      <c r="L99" t="n">
-        <v>27.07999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>27.32000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>27.37000000000001</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4246,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J100" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-85.71428571428596</v>
-      </c>
-      <c r="L100" t="n">
-        <v>27.02999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>27.24500000000002</v>
-      </c>
-      <c r="N100" t="n">
-        <v>27.35666666666668</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4281,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J101" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-83.33333333333363</v>
-      </c>
-      <c r="L101" t="n">
-        <v>26.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>27.17000000000002</v>
-      </c>
-      <c r="N101" t="n">
-        <v>27.34000000000001</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4316,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J102" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-85.71428571428596</v>
-      </c>
-      <c r="L102" t="n">
-        <v>26.77999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>27.09500000000002</v>
-      </c>
-      <c r="N102" t="n">
-        <v>27.30333333333335</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,1097 +4353,10 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-87.50000000000026</v>
-      </c>
-      <c r="L103" t="n">
-        <v>26.63</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>27.02500000000002</v>
-      </c>
-      <c r="N103" t="n">
-        <v>27.25000000000001</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D104" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F104" t="n">
-        <v>221620.8026</v>
-      </c>
-      <c r="G104" t="n">
-        <v>26.90166666666667</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J104" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-83.33333333333363</v>
-      </c>
-      <c r="L104" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="M104" t="n">
-        <v>26.94000000000002</v>
-      </c>
-      <c r="N104" t="n">
-        <v>27.19000000000001</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C105" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D105" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E105" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>74672.425</v>
-      </c>
-      <c r="G105" t="n">
-        <v>26.89500000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>13.59999999999999</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-83.33333333333363</v>
-      </c>
-      <c r="L105" t="n">
-        <v>26.38999999999999</v>
-      </c>
-      <c r="M105" t="n">
-        <v>26.86000000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>27.13333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E106" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>75154.0756</v>
-      </c>
-      <c r="G106" t="n">
-        <v>26.88666666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>13.59999999999999</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-81.81818181818217</v>
-      </c>
-      <c r="L106" t="n">
-        <v>26.28999999999999</v>
-      </c>
-      <c r="M106" t="n">
-        <v>26.77500000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>27.08333333333334</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C107" t="n">
-        <v>26</v>
-      </c>
-      <c r="D107" t="n">
-        <v>26</v>
-      </c>
-      <c r="E107" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>196376.6532</v>
-      </c>
-      <c r="G107" t="n">
-        <v>26.88000000000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J107" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-63.63636363636369</v>
-      </c>
-      <c r="L107" t="n">
-        <v>26.20999999999999</v>
-      </c>
-      <c r="M107" t="n">
-        <v>26.69500000000001</v>
-      </c>
-      <c r="N107" t="n">
-        <v>27.03333333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>26</v>
-      </c>
-      <c r="C108" t="n">
-        <v>26</v>
-      </c>
-      <c r="D108" t="n">
-        <v>26</v>
-      </c>
-      <c r="E108" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>104700.243</v>
-      </c>
-      <c r="G108" t="n">
-        <v>26.87666666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J108" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-63.63636363636369</v>
-      </c>
-      <c r="L108" t="n">
-        <v>26.13999999999999</v>
-      </c>
-      <c r="M108" t="n">
-        <v>26.62000000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>26.97333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>26</v>
-      </c>
-      <c r="C109" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>26</v>
-      </c>
-      <c r="F109" t="n">
-        <v>320430.7782</v>
-      </c>
-      <c r="G109" t="n">
-        <v>26.87333333333334</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J109" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-27.27272727272739</v>
-      </c>
-      <c r="L109" t="n">
-        <v>26.08999999999999</v>
-      </c>
-      <c r="M109" t="n">
-        <v>26.58500000000002</v>
-      </c>
-      <c r="N109" t="n">
-        <v>26.91000000000001</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F110" t="n">
-        <v>555429.3594</v>
-      </c>
-      <c r="G110" t="n">
-        <v>26.87</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J110" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-27.27272727272739</v>
-      </c>
-      <c r="L110" t="n">
-        <v>26.05999999999999</v>
-      </c>
-      <c r="M110" t="n">
-        <v>26.54500000000002</v>
-      </c>
-      <c r="N110" t="n">
-        <v>26.85000000000001</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F111" t="n">
-        <v>87078.05869999999</v>
-      </c>
-      <c r="G111" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J111" t="n">
-        <v>14.29999999999999</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L111" t="n">
-        <v>25.98999999999999</v>
-      </c>
-      <c r="M111" t="n">
-        <v>26.45000000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>26.77666666666668</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>99457.40360000001</v>
-      </c>
-      <c r="G112" t="n">
-        <v>26.855</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J112" t="n">
-        <v>14.59999999999999</v>
-      </c>
-      <c r="K112" t="n">
-        <v>16.66666666666696</v>
-      </c>
-      <c r="L112" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="M112" t="n">
-        <v>26.38000000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>26.72333333333334</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C113" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E113" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>85394.4172</v>
-      </c>
-      <c r="G113" t="n">
-        <v>26.855</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K113" t="n">
-        <v>7.692307692307525</v>
-      </c>
-      <c r="L113" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="M113" t="n">
-        <v>26.30500000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>26.67666666666668</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F114" t="n">
-        <v>211.0587</v>
-      </c>
-      <c r="G114" t="n">
-        <v>26.84833333333334</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>25.98999999999999</v>
-      </c>
-      <c r="M114" t="n">
-        <v>26.23500000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>26.62333333333334</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F115" t="n">
-        <v>60.5211</v>
-      </c>
-      <c r="G115" t="n">
-        <v>26.84</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>25.98999999999999</v>
-      </c>
-      <c r="M115" t="n">
-        <v>26.19000000000002</v>
-      </c>
-      <c r="N115" t="n">
-        <v>26.57000000000001</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C116" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2119.6881</v>
-      </c>
-      <c r="G116" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L116" t="n">
-        <v>25.98999999999999</v>
-      </c>
-      <c r="M116" t="n">
-        <v>26.14000000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>26.51333333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C117" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E117" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>59403.5178</v>
-      </c>
-      <c r="G117" t="n">
-        <v>26.81666666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J117" t="n">
-        <v>15</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-23.07692307692312</v>
-      </c>
-      <c r="L117" t="n">
-        <v>25.95999999999999</v>
-      </c>
-      <c r="M117" t="n">
-        <v>26.08500000000002</v>
-      </c>
-      <c r="N117" t="n">
-        <v>26.45000000000001</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E118" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>125.6542</v>
-      </c>
-      <c r="G118" t="n">
-        <v>26.80333333333334</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J118" t="n">
-        <v>15</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-45.4545454545454</v>
-      </c>
-      <c r="L118" t="n">
-        <v>25.92999999999999</v>
-      </c>
-      <c r="M118" t="n">
-        <v>26.03500000000002</v>
-      </c>
-      <c r="N118" t="n">
-        <v>26.39000000000001</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>76875.73639999999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>26.79166666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J119" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L119" t="n">
-        <v>25.88999999999999</v>
-      </c>
-      <c r="M119" t="n">
-        <v>25.99000000000002</v>
-      </c>
-      <c r="N119" t="n">
-        <v>26.35333333333334</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C120" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>94118.594</v>
-      </c>
-      <c r="G120" t="n">
-        <v>26.78500000000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K120" t="n">
-        <v>11.11111111111085</v>
-      </c>
-      <c r="L120" t="n">
-        <v>25.85999999999999</v>
-      </c>
-      <c r="M120" t="n">
-        <v>25.96000000000002</v>
-      </c>
-      <c r="N120" t="n">
-        <v>26.31666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>36.9157</v>
-      </c>
-      <c r="G121" t="n">
-        <v>26.77500000000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L121" t="n">
-        <v>25.86999999999999</v>
-      </c>
-      <c r="M121" t="n">
-        <v>25.93000000000001</v>
-      </c>
-      <c r="N121" t="n">
-        <v>26.25666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2052.0689</v>
-      </c>
-      <c r="G122" t="n">
-        <v>26.76500000000001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>25.84999999999998</v>
-      </c>
-      <c r="M122" t="n">
-        <v>25.91500000000001</v>
-      </c>
-      <c r="N122" t="n">
-        <v>26.20333333333334</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E123" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3583.942</v>
-      </c>
-      <c r="G123" t="n">
-        <v>26.75333333333334</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>25.84999999999998</v>
-      </c>
-      <c r="M123" t="n">
-        <v>25.91500000000001</v>
-      </c>
-      <c r="N123" t="n">
-        <v>26.15333333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C124" t="n">
-        <v>26</v>
-      </c>
-      <c r="D124" t="n">
-        <v>26</v>
-      </c>
-      <c r="E124" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>47239.3019</v>
-      </c>
-      <c r="G124" t="n">
-        <v>26.74333333333335</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J124" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K124" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L124" t="n">
-        <v>25.85999999999999</v>
-      </c>
-      <c r="M124" t="n">
-        <v>25.92500000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>26.11000000000001</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -451,17 +451,13 @@
         <v>24.55166666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,1812 +486,1554 @@
         <v>24.59000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>25.9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="C4" t="n">
         <v>25.9</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="D4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>196.427</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24.62666666666668</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3877.2124</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24.66333333333334</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33764.3955</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24.70000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27425.4494</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24.73666666666668</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24.77000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.81166666666668</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24.84833333333335</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33764.3955</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.87833333333334</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12665.9323</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24.91333333333334</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24.94166666666668</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24.96666666666668</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1087.0166</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24.99000000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12665.9323</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25.01166666666668</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25.03166666666668</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>49800</v>
+      </c>
+      <c r="G18" t="n">
+        <v>25.04500000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2018.4217</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25.05666666666668</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25.06833333333335</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25.08000000000002</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>803.0874</v>
+      </c>
+      <c r="G22" t="n">
+        <v>25.09000000000002</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>62887.0232</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25.11166666666668</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7962.5288</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25.13666666666668</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23379.0523</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25.16333333333335</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>62887.0232</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25.18333333333335</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>92.4926</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25.19833333333335</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>212.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25.21833333333335</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>606.1598</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25.23666666666669</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8103.5106</v>
+      </c>
+      <c r="G30" t="n">
+        <v>25.26166666666669</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>803.1153</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25.28333333333335</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>45104.8687</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25.29833333333335</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>49800</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25.31666666666668</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25.34000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>196.427</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24.62666666666668</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>105272.3993</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25.36000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3877.2124</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24.66333333333334</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33764.3955</v>
-      </c>
-      <c r="G6" t="n">
-        <v>24.70000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1272.8311</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25.38333333333334</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>29901.5782</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25.40666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>25.8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C38" t="n">
         <v>25.8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D38" t="n">
         <v>25.8</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E38" t="n">
         <v>25.8</v>
       </c>
-      <c r="F7" t="n">
-        <v>27425.4494</v>
-      </c>
-      <c r="G7" t="n">
-        <v>24.73666666666668</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="F38" t="n">
+        <v>52062.0412</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25.42166666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>25.8</v>
       </c>
-      <c r="K7" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K38" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>60</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24.77000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G9" t="n">
-        <v>24.81166666666668</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1272.8311</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25.43166666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>500</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25.44333333333333</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1247.8126</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25.45833333333333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24.84833333333335</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>67696.514</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25.48333333333333</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33764.3955</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24.87833333333334</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12665.9323</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24.91333333333334</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>312.0949</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88696.405</v>
+      </c>
+      <c r="G44" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>18800</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25.55166666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>24.94166666666668</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>24.96666666666668</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1087.0166</v>
-      </c>
-      <c r="G15" t="n">
-        <v>24.99000000000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12665.9323</v>
-      </c>
-      <c r="G16" t="n">
-        <v>25.01166666666668</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>18000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>25.03166666666668</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>49800</v>
-      </c>
-      <c r="G18" t="n">
-        <v>25.04500000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2018.4217</v>
-      </c>
-      <c r="G19" t="n">
-        <v>25.05666666666668</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25.06833333333335</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>25.08000000000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>803.0874</v>
-      </c>
-      <c r="G22" t="n">
-        <v>25.09000000000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>62887.0232</v>
-      </c>
-      <c r="G23" t="n">
-        <v>25.11166666666668</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>7962.5288</v>
-      </c>
-      <c r="G24" t="n">
-        <v>25.13666666666668</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F25" t="n">
-        <v>23379.0523</v>
-      </c>
-      <c r="G25" t="n">
-        <v>25.16333333333335</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E26" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>62887.0232</v>
-      </c>
-      <c r="G26" t="n">
-        <v>25.18333333333335</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>92.4926</v>
-      </c>
-      <c r="G27" t="n">
-        <v>25.19833333333335</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>212.7</v>
-      </c>
-      <c r="G28" t="n">
-        <v>25.21833333333335</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D29" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E29" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>606.1598</v>
-      </c>
-      <c r="G29" t="n">
-        <v>25.23666666666669</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>8103.5106</v>
-      </c>
-      <c r="G30" t="n">
-        <v>25.26166666666669</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>803.1153</v>
-      </c>
-      <c r="G31" t="n">
-        <v>25.28333333333335</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>45104.8687</v>
-      </c>
-      <c r="G32" t="n">
-        <v>25.29833333333335</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>49800</v>
-      </c>
-      <c r="G33" t="n">
-        <v>25.31666666666668</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D34" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>25.34000000000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>105272.3993</v>
-      </c>
-      <c r="G35" t="n">
-        <v>25.36000000000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1272.8311</v>
-      </c>
-      <c r="G36" t="n">
-        <v>25.38333333333334</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C37" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D37" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E37" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F37" t="n">
-        <v>29901.5782</v>
-      </c>
-      <c r="G37" t="n">
-        <v>25.40666666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C38" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D38" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E38" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>52062.0412</v>
-      </c>
-      <c r="G38" t="n">
-        <v>25.42166666666667</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1272.8311</v>
-      </c>
-      <c r="G39" t="n">
-        <v>25.43166666666667</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>500</v>
-      </c>
-      <c r="G40" t="n">
-        <v>25.44333333333333</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C41" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D41" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E41" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1247.8126</v>
-      </c>
-      <c r="G41" t="n">
-        <v>25.45833333333333</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F42" t="n">
-        <v>67696.514</v>
-      </c>
-      <c r="G42" t="n">
-        <v>25.48333333333333</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>312.0949</v>
-      </c>
-      <c r="G43" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>88696.405</v>
-      </c>
-      <c r="G44" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>18800</v>
-      </c>
-      <c r="G45" t="n">
-        <v>25.55166666666667</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2330,11 +2068,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>25.5</v>
+        <v>26.2</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2370,14 +2108,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2143,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2452,14 +2178,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2490,19 +2210,13 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1.030294117647059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2566,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -3161,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3196,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3231,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3266,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3336,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3371,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3406,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3616,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3651,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,16 +445,16 @@
         <v>25.9</v>
       </c>
       <c r="F2" t="n">
-        <v>4000</v>
+        <v>9775.2271</v>
       </c>
       <c r="G2" t="n">
-        <v>24.55166666666667</v>
+        <v>24.51333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -480,16 +480,16 @@
         <v>25.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1102.8429</v>
+        <v>4000</v>
       </c>
       <c r="G3" t="n">
-        <v>24.59000000000001</v>
+        <v>24.55166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -515,16 +515,16 @@
         <v>25.9</v>
       </c>
       <c r="F4" t="n">
-        <v>196.427</v>
+        <v>1102.8429</v>
       </c>
       <c r="G4" t="n">
-        <v>24.62666666666668</v>
+        <v>24.59000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -550,16 +550,16 @@
         <v>25.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3877.2124</v>
+        <v>196.427</v>
       </c>
       <c r="G5" t="n">
-        <v>24.66333333333334</v>
+        <v>24.62666666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -585,10 +585,10 @@
         <v>25.9</v>
       </c>
       <c r="F6" t="n">
-        <v>33764.3955</v>
+        <v>3877.2124</v>
       </c>
       <c r="G6" t="n">
-        <v>24.70000000000001</v>
+        <v>24.66333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="D7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="F7" t="n">
-        <v>27425.4494</v>
+        <v>33764.3955</v>
       </c>
       <c r="G7" t="n">
-        <v>24.73666666666668</v>
+        <v>24.70000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>27425.4494</v>
       </c>
       <c r="G8" t="n">
-        <v>24.77000000000001</v>
+        <v>24.73666666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>24.81166666666668</v>
+        <v>24.77000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="D10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>24.84833333333335</v>
+        <v>24.81166666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="D11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="E11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="F11" t="n">
-        <v>33764.3955</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>24.87833333333334</v>
+        <v>24.84833333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C12" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="D12" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="E12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F12" t="n">
-        <v>12665.9323</v>
+        <v>33764.3955</v>
       </c>
       <c r="G12" t="n">
-        <v>24.91333333333334</v>
+        <v>24.87833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="E13" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>12665.9323</v>
       </c>
       <c r="G13" t="n">
-        <v>24.94166666666668</v>
+        <v>24.91333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C14" t="n">
         <v>25.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>25.4</v>
-      </c>
       <c r="D14" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E14" t="n">
         <v>25.5</v>
       </c>
-      <c r="E14" t="n">
-        <v>25.4</v>
-      </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>24.96666666666668</v>
+        <v>24.94166666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C15" t="n">
         <v>25.4</v>
       </c>
       <c r="D15" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E15" t="n">
         <v>25.4</v>
       </c>
       <c r="F15" t="n">
-        <v>1087.0166</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>24.99000000000001</v>
+        <v>24.96666666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>25.4</v>
       </c>
       <c r="C16" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D16" t="n">
         <v>25.4</v>
       </c>
       <c r="E16" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F16" t="n">
-        <v>12665.9323</v>
+        <v>1087.0166</v>
       </c>
       <c r="G16" t="n">
-        <v>25.01166666666668</v>
+        <v>24.99000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>25.4</v>
       </c>
       <c r="C17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D17" t="n">
         <v>25.4</v>
       </c>
       <c r="E17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F17" t="n">
-        <v>18000</v>
+        <v>12665.9323</v>
       </c>
       <c r="G17" t="n">
-        <v>25.03166666666668</v>
+        <v>25.01166666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F18" t="n">
-        <v>49800</v>
+        <v>18000</v>
       </c>
       <c r="G18" t="n">
-        <v>25.04500000000001</v>
+        <v>25.03166666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>25.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2018.4217</v>
+        <v>49800</v>
       </c>
       <c r="G19" t="n">
-        <v>25.05666666666668</v>
+        <v>25.04500000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>25.3</v>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>2018.4217</v>
       </c>
       <c r="G20" t="n">
-        <v>25.06833333333335</v>
+        <v>25.05666666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="F21" t="n">
-        <v>50000</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="n">
-        <v>25.08000000000002</v>
+        <v>25.06833333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>25.2</v>
       </c>
       <c r="F22" t="n">
-        <v>803.0874</v>
+        <v>50000</v>
       </c>
       <c r="G22" t="n">
-        <v>25.09000000000002</v>
+        <v>25.08000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="D23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="E23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="F23" t="n">
-        <v>62887.0232</v>
+        <v>803.0874</v>
       </c>
       <c r="G23" t="n">
-        <v>25.11166666666668</v>
+        <v>25.09000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>25.5</v>
       </c>
       <c r="F24" t="n">
-        <v>7962.5288</v>
+        <v>62887.0232</v>
       </c>
       <c r="G24" t="n">
-        <v>25.13666666666668</v>
+        <v>25.11166666666668</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F25" t="n">
-        <v>23379.0523</v>
+        <v>7962.5288</v>
       </c>
       <c r="G25" t="n">
-        <v>25.16333333333335</v>
+        <v>25.13666666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="C26" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D26" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E26" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="F26" t="n">
-        <v>62887.0232</v>
+        <v>23379.0523</v>
       </c>
       <c r="G26" t="n">
-        <v>25.18333333333335</v>
+        <v>25.16333333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C27" t="n">
         <v>25.2</v>
       </c>
       <c r="D27" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="E27" t="n">
         <v>25.2</v>
       </c>
       <c r="F27" t="n">
-        <v>92.4926</v>
+        <v>62887.0232</v>
       </c>
       <c r="G27" t="n">
-        <v>25.19833333333335</v>
+        <v>25.18333333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F28" t="n">
-        <v>212.7</v>
+        <v>92.4926</v>
       </c>
       <c r="G28" t="n">
-        <v>25.21833333333335</v>
+        <v>25.19833333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F29" t="n">
-        <v>606.1598</v>
+        <v>212.7</v>
       </c>
       <c r="G29" t="n">
-        <v>25.23666666666669</v>
+        <v>25.21833333333335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F30" t="n">
-        <v>8103.5106</v>
+        <v>606.1598</v>
       </c>
       <c r="G30" t="n">
-        <v>25.26166666666669</v>
+        <v>25.23666666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,19 +1460,23 @@
         <v>25.5</v>
       </c>
       <c r="F31" t="n">
-        <v>803.1153</v>
+        <v>8103.5106</v>
       </c>
       <c r="G31" t="n">
-        <v>25.28333333333335</v>
+        <v>25.26166666666669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>25.4</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
@@ -1483,22 +1487,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="C32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="D32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="E32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="F32" t="n">
-        <v>45104.8687</v>
+        <v>803.1153</v>
       </c>
       <c r="G32" t="n">
-        <v>25.29833333333335</v>
+        <v>25.28333333333335</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,36 +1528,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="D33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="E33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="F33" t="n">
-        <v>49800</v>
+        <v>45104.8687</v>
       </c>
       <c r="G33" t="n">
-        <v>25.31666666666668</v>
+        <v>25.29833333333335</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>25.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1560,37 +1572,29 @@
         <v>25.5</v>
       </c>
       <c r="C34" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D34" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E34" t="n">
         <v>25.5</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>49800</v>
       </c>
       <c r="G34" t="n">
-        <v>25.34000000000001</v>
+        <v>25.31666666666668</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C35" t="n">
         <v>25.6</v>
@@ -1609,31 +1613,23 @@
         <v>25.6</v>
       </c>
       <c r="E35" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F35" t="n">
-        <v>105272.3993</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="n">
-        <v>25.36000000000001</v>
+        <v>25.34000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1643,35 +1639,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="F36" t="n">
-        <v>1272.8311</v>
+        <v>105272.3993</v>
       </c>
       <c r="G36" t="n">
-        <v>25.38333333333334</v>
+        <v>25.36000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1694,28 +1686,20 @@
         <v>25.8</v>
       </c>
       <c r="F37" t="n">
-        <v>29901.5782</v>
+        <v>1272.8311</v>
       </c>
       <c r="G37" t="n">
-        <v>25.40666666666667</v>
+        <v>25.38333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1737,28 +1721,20 @@
         <v>25.8</v>
       </c>
       <c r="F38" t="n">
-        <v>52062.0412</v>
+        <v>29901.5782</v>
       </c>
       <c r="G38" t="n">
-        <v>25.42166666666667</v>
+        <v>25.40666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1768,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="C39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="E39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="F39" t="n">
-        <v>1272.8311</v>
+        <v>52062.0412</v>
       </c>
       <c r="G39" t="n">
-        <v>25.43166666666667</v>
+        <v>25.42166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1815,23 +1791,19 @@
         <v>25.6</v>
       </c>
       <c r="F40" t="n">
-        <v>500</v>
+        <v>1272.8311</v>
       </c>
       <c r="G40" t="n">
-        <v>25.44333333333333</v>
+        <v>25.43166666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
@@ -1842,40 +1814,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="F41" t="n">
-        <v>1247.8126</v>
+        <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>25.45833333333333</v>
+        <v>25.44333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1888,37 +1852,29 @@
         <v>25.8</v>
       </c>
       <c r="C42" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D42" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E42" t="n">
         <v>25.8</v>
       </c>
       <c r="F42" t="n">
-        <v>67696.514</v>
+        <v>1247.8126</v>
       </c>
       <c r="G42" t="n">
-        <v>25.48333333333333</v>
+        <v>25.45833333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C43" t="n">
         <v>26.2</v>
@@ -1937,13 +1893,13 @@
         <v>26.2</v>
       </c>
       <c r="E43" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F43" t="n">
-        <v>312.0949</v>
+        <v>67696.514</v>
       </c>
       <c r="G43" t="n">
-        <v>25.51</v>
+        <v>25.48333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1975,23 +1931,19 @@
         <v>26.2</v>
       </c>
       <c r="F44" t="n">
-        <v>88696.405</v>
+        <v>312.0949</v>
       </c>
       <c r="G44" t="n">
-        <v>25.53</v>
+        <v>25.51</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -2002,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F45" t="n">
-        <v>18800</v>
+        <v>88696.405</v>
       </c>
       <c r="G45" t="n">
-        <v>25.55166666666667</v>
+        <v>25.53</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2026,14 +1978,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F46" t="n">
-        <v>45.7564</v>
+        <v>18800</v>
       </c>
       <c r="G46" t="n">
-        <v>25.57333333333333</v>
+        <v>25.55166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2067,14 +2013,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2096,10 +2036,10 @@
         <v>26.4</v>
       </c>
       <c r="F47" t="n">
-        <v>15491.574</v>
+        <v>45.7564</v>
       </c>
       <c r="G47" t="n">
-        <v>25.59333333333334</v>
+        <v>25.57333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2122,19 +2062,19 @@
         <v>26.4</v>
       </c>
       <c r="C48" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D48" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E48" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F48" t="n">
-        <v>144887.4058</v>
+        <v>15491.574</v>
       </c>
       <c r="G48" t="n">
-        <v>25.61333333333334</v>
+        <v>25.59333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2154,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C49" t="n">
         <v>26.2</v>
       </c>
-      <c r="C49" t="n">
-        <v>26.4</v>
-      </c>
       <c r="D49" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E49" t="n">
         <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>15612.1884</v>
+        <v>144887.4058</v>
       </c>
       <c r="G49" t="n">
-        <v>25.63333333333334</v>
+        <v>25.61333333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2189,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C50" t="n">
         <v>26.4</v>
@@ -2198,13 +2138,13 @@
         <v>26.4</v>
       </c>
       <c r="E50" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F50" t="n">
-        <v>60893.0661</v>
+        <v>15612.1884</v>
       </c>
       <c r="G50" t="n">
-        <v>25.65166666666667</v>
+        <v>25.63333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2236,10 +2176,10 @@
         <v>26.4</v>
       </c>
       <c r="F51" t="n">
-        <v>4844.5439</v>
+        <v>60893.0661</v>
       </c>
       <c r="G51" t="n">
-        <v>25.67333333333334</v>
+        <v>25.65166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2271,10 +2211,10 @@
         <v>26.4</v>
       </c>
       <c r="F52" t="n">
-        <v>3182.5989</v>
+        <v>4844.5439</v>
       </c>
       <c r="G52" t="n">
-        <v>25.69500000000001</v>
+        <v>25.67333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2294,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C53" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="D53" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E53" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="F53" t="n">
-        <v>140822.6085</v>
+        <v>3182.5989</v>
       </c>
       <c r="G53" t="n">
-        <v>25.70833333333335</v>
+        <v>25.69500000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2332,19 +2272,19 @@
         <v>26.3</v>
       </c>
       <c r="C54" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="D54" t="n">
         <v>26.3</v>
       </c>
       <c r="E54" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="F54" t="n">
-        <v>1374.7464</v>
+        <v>140822.6085</v>
       </c>
       <c r="G54" t="n">
-        <v>25.72500000000002</v>
+        <v>25.70833333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F55" t="n">
-        <v>44.938</v>
+        <v>1374.7464</v>
       </c>
       <c r="G55" t="n">
-        <v>25.74166666666668</v>
+        <v>25.72500000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,19 +2342,19 @@
         <v>26.4</v>
       </c>
       <c r="C56" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D56" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E56" t="n">
         <v>26.4</v>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>44.938</v>
       </c>
       <c r="G56" t="n">
-        <v>25.76000000000001</v>
+        <v>25.74166666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2434,7 +2374,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C57" t="n">
         <v>26.5</v>
@@ -2443,13 +2383,13 @@
         <v>26.5</v>
       </c>
       <c r="E57" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F57" t="n">
-        <v>6940.395</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="n">
-        <v>25.77666666666668</v>
+        <v>25.76000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2481,10 +2421,10 @@
         <v>26.5</v>
       </c>
       <c r="F58" t="n">
-        <v>695.4748</v>
+        <v>6940.395</v>
       </c>
       <c r="G58" t="n">
-        <v>25.79166666666668</v>
+        <v>25.77666666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2516,10 +2456,10 @@
         <v>26.5</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>695.4748</v>
       </c>
       <c r="G59" t="n">
-        <v>25.80333333333335</v>
+        <v>25.79166666666668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2539,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="C60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="D60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="E60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="F60" t="n">
-        <v>3090.6944</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>25.81000000000001</v>
+        <v>25.80333333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="C61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="D61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="E61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="F61" t="n">
-        <v>54564.3521</v>
+        <v>3090.6944</v>
       </c>
       <c r="G61" t="n">
-        <v>25.82000000000001</v>
+        <v>25.81000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2621,10 +2561,10 @@
         <v>26.5</v>
       </c>
       <c r="F62" t="n">
-        <v>84588.0019</v>
+        <v>54564.3521</v>
       </c>
       <c r="G62" t="n">
-        <v>25.83000000000001</v>
+        <v>25.82000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2644,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="D63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="E63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F63" t="n">
-        <v>45909.96454285715</v>
+        <v>84588.0019</v>
       </c>
       <c r="G63" t="n">
-        <v>25.84166666666668</v>
+        <v>25.83000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2685,16 +2625,16 @@
         <v>26.6</v>
       </c>
       <c r="D64" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E64" t="n">
         <v>26.6</v>
       </c>
       <c r="F64" t="n">
-        <v>182592.9552348315</v>
+        <v>45909.96454285715</v>
       </c>
       <c r="G64" t="n">
-        <v>25.85333333333334</v>
+        <v>25.84166666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2714,10 +2654,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C65" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D65" t="n">
         <v>26.7</v>
@@ -2726,10 +2666,10 @@
         <v>26.6</v>
       </c>
       <c r="F65" t="n">
-        <v>95669.00716516854</v>
+        <v>182592.9552348315</v>
       </c>
       <c r="G65" t="n">
-        <v>25.86666666666667</v>
+        <v>25.85333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2749,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C66" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D66" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E66" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="F66" t="n">
-        <v>10129.8701</v>
+        <v>95669.00716516854</v>
       </c>
       <c r="G66" t="n">
-        <v>25.88166666666667</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2784,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C67" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D67" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E67" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F67" t="n">
-        <v>68360.66710000001</v>
+        <v>10129.8701</v>
       </c>
       <c r="G67" t="n">
-        <v>25.9</v>
+        <v>25.88166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2819,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C68" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D68" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E68" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="F68" t="n">
-        <v>22022.6135</v>
+        <v>68360.66710000001</v>
       </c>
       <c r="G68" t="n">
-        <v>25.91833333333334</v>
+        <v>25.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2854,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="C69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F69" t="n">
-        <v>40000</v>
+        <v>22022.6135</v>
       </c>
       <c r="G69" t="n">
-        <v>25.935</v>
+        <v>25.91833333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2901,10 +2841,10 @@
         <v>26.9</v>
       </c>
       <c r="F70" t="n">
-        <v>48090.4541</v>
+        <v>40000</v>
       </c>
       <c r="G70" t="n">
-        <v>25.955</v>
+        <v>25.935</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2927,19 +2867,19 @@
         <v>26.9</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E71" t="n">
         <v>26.9</v>
       </c>
       <c r="F71" t="n">
-        <v>176186.1855</v>
+        <v>48090.4541</v>
       </c>
       <c r="G71" t="n">
-        <v>25.98</v>
+        <v>25.955</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2959,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C72" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="F72" t="n">
-        <v>86177.1131</v>
+        <v>176186.1855</v>
       </c>
       <c r="G72" t="n">
-        <v>26.005</v>
+        <v>25.98</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E73" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>169623.9086058394</v>
+        <v>86177.1131</v>
       </c>
       <c r="G73" t="n">
-        <v>26.03833333333334</v>
+        <v>26.005</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3029,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C74" t="n">
         <v>27.5</v>
       </c>
-      <c r="C74" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D74" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E74" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F74" t="n">
-        <v>58886.8515</v>
+        <v>169623.9086058394</v>
       </c>
       <c r="G74" t="n">
-        <v>26.075</v>
+        <v>26.03833333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3064,7 +3004,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C75" t="n">
         <v>27.6</v>
@@ -3073,13 +3013,13 @@
         <v>27.6</v>
       </c>
       <c r="E75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F75" t="n">
-        <v>39330.8242</v>
+        <v>58886.8515</v>
       </c>
       <c r="G75" t="n">
-        <v>26.11166666666666</v>
+        <v>26.075</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,19 +3042,19 @@
         <v>27.6</v>
       </c>
       <c r="C76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D76" t="n">
         <v>27.6</v>
       </c>
       <c r="E76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F76" t="n">
-        <v>27344.3093</v>
+        <v>39330.8242</v>
       </c>
       <c r="G76" t="n">
-        <v>26.14666666666666</v>
+        <v>26.11166666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3134,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C77" t="n">
         <v>27.4</v>
       </c>
-      <c r="C77" t="n">
-        <v>27.5</v>
-      </c>
       <c r="D77" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E77" t="n">
         <v>27.4</v>
       </c>
       <c r="F77" t="n">
-        <v>66841.0012</v>
+        <v>27344.3093</v>
       </c>
       <c r="G77" t="n">
-        <v>26.18166666666666</v>
+        <v>26.14666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3169,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C78" t="n">
         <v>27.5</v>
       </c>
-      <c r="C78" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D78" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E78" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F78" t="n">
-        <v>198171.8585</v>
+        <v>66841.0012</v>
       </c>
       <c r="G78" t="n">
-        <v>26.22333333333333</v>
+        <v>26.18166666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3204,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C79" t="n">
         <v>27.8</v>
       </c>
-      <c r="C79" t="n">
-        <v>28.1</v>
-      </c>
       <c r="D79" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E79" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F79" t="n">
-        <v>104022.6504</v>
+        <v>198171.8585</v>
       </c>
       <c r="G79" t="n">
-        <v>26.27</v>
+        <v>26.22333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3239,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C80" t="n">
         <v>28.1</v>
       </c>
-      <c r="C80" t="n">
-        <v>28</v>
-      </c>
       <c r="D80" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E80" t="n">
         <v>27.7</v>
       </c>
       <c r="F80" t="n">
-        <v>209221.5673</v>
+        <v>104022.6504</v>
       </c>
       <c r="G80" t="n">
-        <v>26.315</v>
+        <v>26.27</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3274,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C81" t="n">
         <v>28</v>
       </c>
       <c r="D81" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E81" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="F81" t="n">
-        <v>493243.7988</v>
+        <v>209221.5673</v>
       </c>
       <c r="G81" t="n">
-        <v>26.36166666666666</v>
+        <v>26.315</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3312,25 +3252,25 @@
         <v>28</v>
       </c>
       <c r="C82" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
         <v>28</v>
       </c>
       <c r="E82" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F82" t="n">
-        <v>192148.3723</v>
+        <v>493243.7988</v>
       </c>
       <c r="G82" t="n">
-        <v>26.40333333333333</v>
+        <v>26.36166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3344,28 +3284,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>28</v>
+      </c>
+      <c r="C83" t="n">
         <v>27.7</v>
       </c>
-      <c r="C83" t="n">
-        <v>27.3</v>
-      </c>
       <c r="D83" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E83" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F83" t="n">
-        <v>105027.5005</v>
+        <v>192148.3723</v>
       </c>
       <c r="G83" t="n">
-        <v>26.43333333333333</v>
+        <v>26.40333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3379,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C84" t="n">
         <v>27.3</v>
       </c>
-      <c r="C84" t="n">
-        <v>27.5</v>
-      </c>
       <c r="D84" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E84" t="n">
         <v>27.3</v>
       </c>
       <c r="F84" t="n">
-        <v>166468.7267</v>
+        <v>105027.5005</v>
       </c>
       <c r="G84" t="n">
-        <v>26.46666666666666</v>
+        <v>26.43333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3414,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C85" t="n">
         <v>27.5</v>
       </c>
       <c r="D85" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E85" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F85" t="n">
-        <v>9236.759099999999</v>
+        <v>166468.7267</v>
       </c>
       <c r="G85" t="n">
-        <v>26.49833333333333</v>
+        <v>26.46666666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3449,10 +3389,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C86" t="n">
         <v>27.5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>27.6</v>
       </c>
       <c r="D86" t="n">
         <v>27.6</v>
@@ -3461,10 +3401,10 @@
         <v>27.5</v>
       </c>
       <c r="F86" t="n">
-        <v>37938.2087</v>
+        <v>9236.759099999999</v>
       </c>
       <c r="G86" t="n">
-        <v>26.53833333333333</v>
+        <v>26.49833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3484,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C87" t="n">
         <v>27.6</v>
       </c>
       <c r="D87" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E87" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F87" t="n">
-        <v>87021.2583</v>
+        <v>37938.2087</v>
       </c>
       <c r="G87" t="n">
-        <v>26.57833333333333</v>
+        <v>26.53833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3519,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C88" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D88" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E88" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F88" t="n">
-        <v>4211.3366</v>
+        <v>87021.2583</v>
       </c>
       <c r="G88" t="n">
-        <v>26.61499999999999</v>
+        <v>26.57833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3557,19 +3497,19 @@
         <v>27.5</v>
       </c>
       <c r="C89" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D89" t="n">
         <v>27.5</v>
       </c>
       <c r="E89" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F89" t="n">
-        <v>29193.9967</v>
+        <v>4211.3366</v>
       </c>
       <c r="G89" t="n">
-        <v>26.63999999999999</v>
+        <v>26.61499999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3589,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D90" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E90" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="F90" t="n">
-        <v>13655.0632</v>
+        <v>29193.9967</v>
       </c>
       <c r="G90" t="n">
-        <v>26.665</v>
+        <v>26.63999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3624,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C91" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="D91" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E91" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F91" t="n">
-        <v>110968.1933</v>
+        <v>13655.0632</v>
       </c>
       <c r="G91" t="n">
-        <v>26.70166666666666</v>
+        <v>26.665</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3659,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C92" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D92" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E92" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F92" t="n">
-        <v>21203.8696</v>
+        <v>110968.1933</v>
       </c>
       <c r="G92" t="n">
-        <v>26.73833333333333</v>
+        <v>26.70166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3694,10 +3634,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C93" t="n">
         <v>27.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>27.4</v>
       </c>
       <c r="D93" t="n">
         <v>27.5</v>
@@ -3706,10 +3646,10 @@
         <v>27.3</v>
       </c>
       <c r="F93" t="n">
-        <v>38224.9275</v>
+        <v>21203.8696</v>
       </c>
       <c r="G93" t="n">
-        <v>26.77</v>
+        <v>26.73833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3729,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C94" t="n">
         <v>27.4</v>
-      </c>
-      <c r="C94" t="n">
-        <v>27.3</v>
       </c>
       <c r="D94" t="n">
         <v>27.5</v>
       </c>
       <c r="E94" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F94" t="n">
-        <v>26425.4738</v>
+        <v>38224.9275</v>
       </c>
       <c r="G94" t="n">
-        <v>26.79833333333333</v>
+        <v>26.77</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3764,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C95" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="D95" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E95" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="F95" t="n">
-        <v>411811.9223</v>
+        <v>26425.4738</v>
       </c>
       <c r="G95" t="n">
-        <v>26.81833333333333</v>
+        <v>26.79833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3799,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C96" t="n">
         <v>26.8</v>
       </c>
-      <c r="C96" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D96" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E96" t="n">
         <v>26.8</v>
       </c>
       <c r="F96" t="n">
-        <v>23326.5074</v>
+        <v>411811.9223</v>
       </c>
       <c r="G96" t="n">
-        <v>26.83666666666667</v>
+        <v>26.81833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3834,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C97" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D97" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E97" t="n">
         <v>26.8</v>
       </c>
       <c r="F97" t="n">
-        <v>40.6214</v>
+        <v>23326.5074</v>
       </c>
       <c r="G97" t="n">
-        <v>26.85333333333334</v>
+        <v>26.83666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3869,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>27</v>
+      </c>
+      <c r="C98" t="n">
         <v>26.8</v>
       </c>
-      <c r="C98" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D98" t="n">
+        <v>27</v>
+      </c>
+      <c r="E98" t="n">
         <v>26.8</v>
       </c>
-      <c r="E98" t="n">
-        <v>26.7</v>
-      </c>
       <c r="F98" t="n">
-        <v>167729.1756</v>
+        <v>40.6214</v>
       </c>
       <c r="G98" t="n">
-        <v>26.86833333333334</v>
+        <v>26.85333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3904,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C99" t="n">
         <v>26.7</v>
       </c>
       <c r="D99" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E99" t="n">
         <v>26.7</v>
       </c>
       <c r="F99" t="n">
-        <v>68508.31623483147</v>
+        <v>167729.1756</v>
       </c>
       <c r="G99" t="n">
-        <v>26.88666666666667</v>
+        <v>26.86833333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3939,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F100" t="n">
-        <v>158182.946</v>
+        <v>68508.31623483147</v>
       </c>
       <c r="G100" t="n">
-        <v>26.90166666666667</v>
+        <v>26.88666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3986,10 +3926,10 @@
         <v>26.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2046.1067</v>
+        <v>158182.946</v>
       </c>
       <c r="G101" t="n">
-        <v>26.91333333333334</v>
+        <v>26.90166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4009,31 +3949,35 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D102" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F102" t="n">
-        <v>208494.5103</v>
+        <v>2046.1067</v>
       </c>
       <c r="G102" t="n">
         <v>26.91333333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>26.5</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4044,33 +3988,84 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C103" t="n">
         <v>26.2</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>208494.5103</v>
+      </c>
+      <c r="G103" t="n">
+        <v>26.91333333333334</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C104" t="n">
         <v>25.9</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D104" t="n">
         <v>26.3</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E104" t="n">
         <v>25.9</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F104" t="n">
         <v>263070.7756</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G104" t="n">
         <v>26.90833333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9775.2271</v>
       </c>
       <c r="G2" t="n">
+        <v>25.38666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>24.51333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4000</v>
       </c>
       <c r="G3" t="n">
+        <v>25.43333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>24.55166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1102.8429</v>
       </c>
       <c r="G4" t="n">
+        <v>25.49333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>24.59000000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>196.427</v>
       </c>
       <c r="G5" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="H5" t="n">
         <v>24.62666666666668</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3877.2124</v>
       </c>
       <c r="G6" t="n">
+        <v>25.57999999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>24.66333333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>33764.3955</v>
       </c>
       <c r="G7" t="n">
+        <v>25.63333333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>24.70000000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>27425.4494</v>
       </c>
       <c r="G8" t="n">
+        <v>25.67999999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>24.73666666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>60</v>
       </c>
       <c r="G9" t="n">
+        <v>25.71999999999998</v>
+      </c>
+      <c r="H9" t="n">
         <v>24.77000000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
+        <v>25.75999999999998</v>
+      </c>
+      <c r="H10" t="n">
         <v>24.81166666666668</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
+        <v>25.77999999999998</v>
+      </c>
+      <c r="H11" t="n">
         <v>24.84833333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>33764.3955</v>
       </c>
       <c r="G12" t="n">
+        <v>25.78666666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>24.87833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>12665.9323</v>
       </c>
       <c r="G13" t="n">
+        <v>25.80666666666665</v>
+      </c>
+      <c r="H13" t="n">
         <v>24.91333333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>10000</v>
       </c>
       <c r="G14" t="n">
+        <v>25.79999999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>24.94166666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>20000</v>
       </c>
       <c r="G15" t="n">
+        <v>25.77333333333332</v>
+      </c>
+      <c r="H15" t="n">
         <v>24.96666666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1087.0166</v>
       </c>
       <c r="G16" t="n">
+        <v>25.73999999999998</v>
+      </c>
+      <c r="H16" t="n">
         <v>24.99000000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>12665.9323</v>
       </c>
       <c r="G17" t="n">
+        <v>25.69999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>25.01166666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>18000</v>
       </c>
       <c r="G18" t="n">
+        <v>25.66666666666665</v>
+      </c>
+      <c r="H18" t="n">
         <v>25.03166666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>49800</v>
       </c>
       <c r="G19" t="n">
+        <v>25.62666666666665</v>
+      </c>
+      <c r="H19" t="n">
         <v>25.04500000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2018.4217</v>
       </c>
       <c r="G20" t="n">
+        <v>25.58666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>25.05666666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4000</v>
       </c>
       <c r="G21" t="n">
+        <v>25.54666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>25.06833333333335</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>50000</v>
       </c>
       <c r="G22" t="n">
+        <v>25.49999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>25.08000000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,25 @@
         <v>803.0874</v>
       </c>
       <c r="G23" t="n">
+        <v>25.45999999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>25.09000000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1293,29 @@
         <v>62887.0232</v>
       </c>
       <c r="G24" t="n">
+        <v>25.44666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>25.11166666666668</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1339,29 @@
         <v>7962.5288</v>
       </c>
       <c r="G25" t="n">
+        <v>25.41999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>25.13666666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1385,25 @@
         <v>23379.0523</v>
       </c>
       <c r="G26" t="n">
+        <v>25.41333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>25.16333333333335</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1427,29 @@
         <v>62887.0232</v>
       </c>
       <c r="G27" t="n">
+        <v>25.39333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>25.18333333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1473,29 @@
         <v>92.4926</v>
       </c>
       <c r="G28" t="n">
+        <v>25.35333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>25.19833333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1519,29 @@
         <v>212.7</v>
       </c>
       <c r="G29" t="n">
+        <v>25.33999999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>25.21833333333335</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1565,29 @@
         <v>606.1598</v>
       </c>
       <c r="G30" t="n">
+        <v>25.33999999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>25.23666666666669</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,22 +1611,29 @@
         <v>8103.5106</v>
       </c>
       <c r="G31" t="n">
+        <v>25.34666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>25.26166666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>25.4</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>25.4</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,24 +1657,29 @@
         <v>803.1153</v>
       </c>
       <c r="G32" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="H32" t="n">
         <v>25.28333333333335</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,24 +1703,29 @@
         <v>45104.8687</v>
       </c>
       <c r="G33" t="n">
+        <v>25.35333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>25.29833333333335</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1749,29 @@
         <v>49800</v>
       </c>
       <c r="G34" t="n">
+        <v>25.36666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>25.31666666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1795,29 @@
         <v>20000</v>
       </c>
       <c r="G35" t="n">
+        <v>25.38666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>25.34000000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1841,29 @@
         <v>105272.3993</v>
       </c>
       <c r="G36" t="n">
+        <v>25.40666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>25.36000000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1887,29 @@
         <v>1272.8311</v>
       </c>
       <c r="G37" t="n">
+        <v>25.44666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>25.38333333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1933,29 @@
         <v>29901.5782</v>
       </c>
       <c r="G38" t="n">
+        <v>25.48666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>25.40666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1979,29 @@
         <v>52062.0412</v>
       </c>
       <c r="G39" t="n">
+        <v>25.50666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>25.42166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2025,29 @@
         <v>1272.8311</v>
       </c>
       <c r="G40" t="n">
+        <v>25.51333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>25.43166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L40" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2071,29 @@
         <v>500</v>
       </c>
       <c r="G41" t="n">
+        <v>25.51333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>25.44333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2117,29 @@
         <v>1247.8126</v>
       </c>
       <c r="G42" t="n">
+        <v>25.55333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>25.45833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2163,29 @@
         <v>67696.514</v>
       </c>
       <c r="G43" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="H43" t="n">
         <v>25.48333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2209,29 @@
         <v>312.0949</v>
       </c>
       <c r="G44" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="H44" t="n">
         <v>25.51</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2255,27 @@
         <v>88696.405</v>
       </c>
       <c r="G45" t="n">
+        <v>25.73333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>25.53</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2299,27 @@
         <v>18800</v>
       </c>
       <c r="G46" t="n">
+        <v>25.78666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>25.55166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2343,27 @@
         <v>45.7564</v>
       </c>
       <c r="G47" t="n">
+        <v>25.84666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>25.57333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2387,27 @@
         <v>15491.574</v>
       </c>
       <c r="G48" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="H48" t="n">
         <v>25.59333333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2431,27 @@
         <v>144887.4058</v>
       </c>
       <c r="G49" t="n">
+        <v>25.96666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>25.61333333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2475,27 @@
         <v>15612.1884</v>
       </c>
       <c r="G50" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="H50" t="n">
         <v>25.63333333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2519,27 @@
         <v>60893.0661</v>
       </c>
       <c r="G51" t="n">
+        <v>26.07333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>25.65166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2563,27 @@
         <v>4844.5439</v>
       </c>
       <c r="G52" t="n">
+        <v>26.11333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>25.67333333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2607,27 @@
         <v>3182.5989</v>
       </c>
       <c r="G53" t="n">
+        <v>26.15333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>25.69500000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2651,27 @@
         <v>140822.6085</v>
       </c>
       <c r="G54" t="n">
+        <v>26.15999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>25.70833333333335</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2695,27 @@
         <v>1374.7464</v>
       </c>
       <c r="G55" t="n">
+        <v>26.20666666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>25.72500000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2739,27 @@
         <v>44.938</v>
       </c>
       <c r="G56" t="n">
+        <v>26.25999999999998</v>
+      </c>
+      <c r="H56" t="n">
         <v>25.74166666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2783,27 @@
         <v>4000</v>
       </c>
       <c r="G57" t="n">
+        <v>26.30666666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>25.76000000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2827,27 @@
         <v>6940.395</v>
       </c>
       <c r="G58" t="n">
+        <v>26.32666666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>25.77666666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2871,27 @@
         <v>695.4748</v>
       </c>
       <c r="G59" t="n">
+        <v>26.34666666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>25.79166666666668</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2915,27 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
+        <v>26.36666666666665</v>
+      </c>
+      <c r="H60" t="n">
         <v>25.80333333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2959,27 @@
         <v>3090.6944</v>
       </c>
       <c r="G61" t="n">
+        <v>26.36666666666665</v>
+      </c>
+      <c r="H61" t="n">
         <v>25.81000000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +3003,27 @@
         <v>54564.3521</v>
       </c>
       <c r="G62" t="n">
+        <v>26.37333333333332</v>
+      </c>
+      <c r="H62" t="n">
         <v>25.82000000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +3047,27 @@
         <v>84588.0019</v>
       </c>
       <c r="G63" t="n">
+        <v>26.37999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>25.83000000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3091,27 @@
         <v>45909.96454285715</v>
       </c>
       <c r="G64" t="n">
+        <v>26.40666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>25.84166666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3135,27 @@
         <v>182592.9552348315</v>
       </c>
       <c r="G65" t="n">
+        <v>26.41999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>25.85333333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3179,27 @@
         <v>95669.00716516854</v>
       </c>
       <c r="G66" t="n">
+        <v>26.43999999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>25.86666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3223,27 @@
         <v>10129.8701</v>
       </c>
       <c r="G67" t="n">
+        <v>26.46666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>25.88166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3267,27 @@
         <v>68360.66710000001</v>
       </c>
       <c r="G68" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H68" t="n">
         <v>25.9</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3311,27 @@
         <v>22022.6135</v>
       </c>
       <c r="G69" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="H69" t="n">
         <v>25.91833333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3355,27 @@
         <v>40000</v>
       </c>
       <c r="G70" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H70" t="n">
         <v>25.935</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3399,27 @@
         <v>48090.4541</v>
       </c>
       <c r="G71" t="n">
+        <v>26.63333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>25.955</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3443,27 @@
         <v>176186.1855</v>
       </c>
       <c r="G72" t="n">
+        <v>26.66666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>25.98</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3487,27 @@
         <v>86177.1131</v>
       </c>
       <c r="G73" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="H73" t="n">
         <v>26.005</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3531,27 @@
         <v>169623.9086058394</v>
       </c>
       <c r="G74" t="n">
+        <v>26.78666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>26.03833333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3575,27 @@
         <v>58886.8515</v>
       </c>
       <c r="G75" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="H75" t="n">
         <v>26.075</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3619,27 @@
         <v>39330.8242</v>
       </c>
       <c r="G76" t="n">
+        <v>26.94666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>26.11166666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3663,27 @@
         <v>27344.3093</v>
       </c>
       <c r="G77" t="n">
+        <v>27.00666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>26.14666666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3707,27 @@
         <v>66841.0012</v>
       </c>
       <c r="G78" t="n">
+        <v>27.07333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>26.18166666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3751,27 @@
         <v>198171.8585</v>
       </c>
       <c r="G79" t="n">
+        <v>27.15333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>26.22333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,19 +3795,28 @@
         <v>104022.6504</v>
       </c>
       <c r="G80" t="n">
+        <v>27.25333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>26.27</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
+      <c r="L80" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>1.096960784313726</v>
       </c>
     </row>
     <row r="81">
@@ -3229,18 +3839,21 @@
         <v>209221.5673</v>
       </c>
       <c r="G81" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="H81" t="n">
         <v>26.315</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3877,21 @@
         <v>493243.7988</v>
       </c>
       <c r="G82" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="H82" t="n">
         <v>26.36166666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3915,21 @@
         <v>192148.3723</v>
       </c>
       <c r="G83" t="n">
+        <v>27.47333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>26.40333333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3953,21 @@
         <v>105027.5005</v>
       </c>
       <c r="G84" t="n">
+        <v>27.50666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>26.43333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3991,21 @@
         <v>166468.7267</v>
       </c>
       <c r="G85" t="n">
+        <v>27.54666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>26.46666666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +4029,21 @@
         <v>9236.759099999999</v>
       </c>
       <c r="G86" t="n">
+        <v>27.58666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>26.49833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +4067,21 @@
         <v>37938.2087</v>
       </c>
       <c r="G87" t="n">
+        <v>27.62666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>26.53833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4105,21 @@
         <v>87021.2583</v>
       </c>
       <c r="G88" t="n">
+        <v>27.64666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>26.57833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4143,21 @@
         <v>4211.3366</v>
       </c>
       <c r="G89" t="n">
+        <v>27.64666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>26.61499999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4181,21 @@
         <v>29193.9967</v>
       </c>
       <c r="G90" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="H90" t="n">
         <v>26.63999999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4219,21 @@
         <v>13655.0632</v>
       </c>
       <c r="G91" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="H91" t="n">
         <v>26.665</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4257,21 @@
         <v>110968.1933</v>
       </c>
       <c r="G92" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="H92" t="n">
         <v>26.70166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4295,21 @@
         <v>21203.8696</v>
       </c>
       <c r="G93" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="H93" t="n">
         <v>26.73833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4333,21 @@
         <v>38224.9275</v>
       </c>
       <c r="G94" t="n">
+        <v>27.55333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>26.77</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4371,21 @@
         <v>26425.4738</v>
       </c>
       <c r="G95" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H95" t="n">
         <v>26.79833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4409,21 @@
         <v>411811.9223</v>
       </c>
       <c r="G96" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="H96" t="n">
         <v>26.81833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4447,21 @@
         <v>23326.5074</v>
       </c>
       <c r="G97" t="n">
+        <v>27.34666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>26.83666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4485,21 @@
         <v>40.6214</v>
       </c>
       <c r="G98" t="n">
+        <v>27.28666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>26.85333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4523,21 @@
         <v>167729.1756</v>
       </c>
       <c r="G99" t="n">
+        <v>27.24666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>26.86833333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4561,21 @@
         <v>68508.31623483147</v>
       </c>
       <c r="G100" t="n">
+        <v>27.19333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>26.88666666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4599,21 @@
         <v>158182.946</v>
       </c>
       <c r="G101" t="n">
+        <v>27.12666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>26.90166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,22 +4637,21 @@
         <v>2046.1067</v>
       </c>
       <c r="G102" t="n">
+        <v>27.05333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>26.91333333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,26 +4675,21 @@
         <v>208494.5103</v>
       </c>
       <c r="G103" t="n">
+        <v>26.95999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>26.91333333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,26 +4713,401 @@
         <v>263070.7756</v>
       </c>
       <c r="G104" t="n">
+        <v>26.85333333333332</v>
+      </c>
+      <c r="H104" t="n">
         <v>26.90833333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C105" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>221620.8026</v>
+      </c>
+      <c r="G105" t="n">
+        <v>26.77999999999999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>26.90166666666667</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>74672.425</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26.70666666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>26.89500000000001</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>75154.0756</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26.58666666666666</v>
+      </c>
+      <c r="H107" t="n">
+        <v>26.88666666666667</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26</v>
+      </c>
+      <c r="D108" t="n">
+        <v>26</v>
+      </c>
+      <c r="E108" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>196376.6532</v>
+      </c>
+      <c r="G108" t="n">
+        <v>26.48666666666666</v>
+      </c>
+      <c r="H108" t="n">
+        <v>26.88000000000001</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>26</v>
+      </c>
+      <c r="C109" t="n">
+        <v>26</v>
+      </c>
+      <c r="D109" t="n">
+        <v>26</v>
+      </c>
+      <c r="E109" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>104700.243</v>
+      </c>
+      <c r="G109" t="n">
+        <v>26.39333333333332</v>
+      </c>
+      <c r="H109" t="n">
+        <v>26.87666666666667</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26</v>
+      </c>
+      <c r="C110" t="n">
         <v>26.2</v>
       </c>
-      <c r="K104" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="D110" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>26</v>
+      </c>
+      <c r="F110" t="n">
+        <v>320430.7782</v>
+      </c>
+      <c r="G110" t="n">
+        <v>26.31999999999999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>26.87333333333334</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>555429.3594</v>
+      </c>
+      <c r="G111" t="n">
+        <v>26.27999999999999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>87078.05869999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>26.20666666666666</v>
+      </c>
+      <c r="H112" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>99457.40360000001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>26.15999999999999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>26.855</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>85394.4172</v>
+      </c>
+      <c r="G114" t="n">
+        <v>26.10666666666666</v>
+      </c>
+      <c r="H114" t="n">
+        <v>26.855</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.9</v>
+        <v>24.3</v>
       </c>
       <c r="C2" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D2" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E2" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="F2" t="n">
-        <v>9775.2271</v>
+        <v>121600</v>
       </c>
       <c r="G2" t="n">
-        <v>25.38666666666666</v>
+        <v>249449.2491136752</v>
       </c>
       <c r="H2" t="n">
-        <v>24.51333333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="C3" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9</v>
+        <v>24.5</v>
       </c>
       <c r="E3" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>4000</v>
+        <v>168544.4928</v>
       </c>
       <c r="G3" t="n">
-        <v>25.43333333333333</v>
+        <v>249449.2491136752</v>
       </c>
       <c r="H3" t="n">
-        <v>24.55166666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="C4" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="E4" t="n">
-        <v>25.9</v>
+        <v>24.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1102.8429</v>
+        <v>90000</v>
       </c>
       <c r="G4" t="n">
-        <v>25.49333333333333</v>
+        <v>159449.2491136752</v>
       </c>
       <c r="H4" t="n">
-        <v>24.59000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="C5" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D5" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E5" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="F5" t="n">
-        <v>196.427</v>
+        <v>6893.6553</v>
       </c>
       <c r="G5" t="n">
-        <v>25.54</v>
+        <v>166342.9044136752</v>
       </c>
       <c r="H5" t="n">
-        <v>24.62666666666668</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="C6" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D6" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E6" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="F6" t="n">
-        <v>3877.2124</v>
+        <v>15163.9344</v>
       </c>
       <c r="G6" t="n">
-        <v>25.57999999999999</v>
+        <v>166342.9044136752</v>
       </c>
       <c r="H6" t="n">
-        <v>24.66333333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="C7" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D7" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E7" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="F7" t="n">
-        <v>33764.3955</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="n">
-        <v>25.63333333333332</v>
+        <v>166342.9044136752</v>
       </c>
       <c r="H7" t="n">
-        <v>24.70000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="D8" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="F8" t="n">
-        <v>27425.4494</v>
+        <v>9672.380800000001</v>
       </c>
       <c r="G8" t="n">
-        <v>25.67999999999999</v>
+        <v>176015.2852136752</v>
       </c>
       <c r="H8" t="n">
-        <v>24.73666666666668</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>2974</v>
       </c>
       <c r="G9" t="n">
-        <v>25.71999999999998</v>
+        <v>178989.2852136752</v>
       </c>
       <c r="H9" t="n">
-        <v>24.77000000000001</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="C10" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="D10" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="E10" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>40011.8234</v>
       </c>
       <c r="G10" t="n">
-        <v>25.75999999999998</v>
+        <v>138977.4618136752</v>
       </c>
       <c r="H10" t="n">
-        <v>24.81166666666668</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="D11" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="E11" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>40160.65</v>
       </c>
       <c r="G11" t="n">
-        <v>25.77999999999998</v>
+        <v>138977.4618136752</v>
       </c>
       <c r="H11" t="n">
-        <v>24.84833333333335</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="D12" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="E12" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="F12" t="n">
-        <v>33764.3955</v>
+        <v>395.8661</v>
       </c>
       <c r="G12" t="n">
-        <v>25.78666666666665</v>
+        <v>138581.5957136752</v>
       </c>
       <c r="H12" t="n">
-        <v>24.87833333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="C13" t="n">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="D13" t="n">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="E13" t="n">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="F13" t="n">
-        <v>12665.9323</v>
+        <v>40011.8234</v>
       </c>
       <c r="G13" t="n">
-        <v>25.80666666666665</v>
+        <v>98569.77231367523</v>
       </c>
       <c r="H13" t="n">
-        <v>24.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.6</v>
+        <v>24.7</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>90495.8661</v>
       </c>
       <c r="G14" t="n">
-        <v>25.79999999999999</v>
+        <v>189065.6384136752</v>
       </c>
       <c r="H14" t="n">
-        <v>24.94166666666668</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>20000</v>
+        <v>29637.1339</v>
       </c>
       <c r="G15" t="n">
-        <v>25.77333333333332</v>
+        <v>189065.6384136752</v>
       </c>
       <c r="H15" t="n">
-        <v>24.96666666666668</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E16" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>1087.0166</v>
+        <v>44900</v>
       </c>
       <c r="G16" t="n">
-        <v>25.73999999999998</v>
+        <v>233965.6384136752</v>
       </c>
       <c r="H16" t="n">
-        <v>24.99000000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D17" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E17" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F17" t="n">
-        <v>12665.9323</v>
+        <v>40000</v>
       </c>
       <c r="G17" t="n">
-        <v>25.69999999999999</v>
+        <v>273965.6384136752</v>
       </c>
       <c r="H17" t="n">
-        <v>25.01166666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>18000</v>
+        <v>6223.6082</v>
       </c>
       <c r="G18" t="n">
-        <v>25.66666666666665</v>
+        <v>267742.0302136752</v>
       </c>
       <c r="H18" t="n">
-        <v>25.03166666666668</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C19" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D19" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E19" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F19" t="n">
-        <v>49800</v>
+        <v>43828.024</v>
       </c>
       <c r="G19" t="n">
-        <v>25.62666666666665</v>
+        <v>311570.0542136752</v>
       </c>
       <c r="H19" t="n">
-        <v>25.04500000000001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1134,24 +1075,21 @@
         <v>25.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2018.4217</v>
+        <v>21600</v>
       </c>
       <c r="G20" t="n">
-        <v>25.58666666666666</v>
+        <v>333170.0542136752</v>
       </c>
       <c r="H20" t="n">
-        <v>25.05666666666668</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C21" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="D21" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="E21" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>1462.5499</v>
       </c>
       <c r="G21" t="n">
-        <v>25.54666666666666</v>
+        <v>331707.5043136752</v>
       </c>
       <c r="H21" t="n">
-        <v>25.06833333333335</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D22" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E22" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>50000</v>
+        <v>10788.0599</v>
       </c>
       <c r="G22" t="n">
-        <v>25.49999999999999</v>
+        <v>331707.5043136752</v>
       </c>
       <c r="H22" t="n">
-        <v>25.08000000000002</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C23" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D23" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E23" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F23" t="n">
-        <v>803.0874</v>
+        <v>7080.875</v>
       </c>
       <c r="G23" t="n">
-        <v>25.45999999999999</v>
+        <v>331707.5043136752</v>
       </c>
       <c r="H23" t="n">
-        <v>25.09000000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1278,44 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C24" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="D24" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="E24" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="F24" t="n">
-        <v>62887.0232</v>
+        <v>97001.82826047431</v>
       </c>
       <c r="G24" t="n">
-        <v>25.44666666666666</v>
+        <v>428709.3325741495</v>
       </c>
       <c r="H24" t="n">
-        <v>25.11166666666668</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,44 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C25" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D25" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E25" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="F25" t="n">
-        <v>7962.5288</v>
+        <v>5195.041039525691</v>
       </c>
       <c r="G25" t="n">
-        <v>25.41999999999999</v>
+        <v>433904.3736136752</v>
       </c>
       <c r="H25" t="n">
-        <v>25.13666666666668</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1370,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="C26" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D26" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="E26" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="F26" t="n">
-        <v>23379.0523</v>
+        <v>44870.6078</v>
       </c>
       <c r="G26" t="n">
-        <v>25.41333333333333</v>
+        <v>433904.3736136752</v>
       </c>
       <c r="H26" t="n">
-        <v>25.16333333333335</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,44 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C27" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="D27" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E27" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="F27" t="n">
-        <v>62887.0232</v>
+        <v>8787.000099999999</v>
       </c>
       <c r="G27" t="n">
-        <v>25.39333333333333</v>
+        <v>442691.3737136752</v>
       </c>
       <c r="H27" t="n">
-        <v>25.18333333333335</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1458,44 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="C28" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D28" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E28" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="F28" t="n">
-        <v>92.4926</v>
+        <v>11766.8588</v>
       </c>
       <c r="G28" t="n">
-        <v>25.35333333333333</v>
+        <v>454458.2325136752</v>
       </c>
       <c r="H28" t="n">
-        <v>25.19833333333335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1504,44 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="C29" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="D29" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="E29" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="F29" t="n">
-        <v>212.7</v>
+        <v>1357.4453</v>
       </c>
       <c r="G29" t="n">
-        <v>25.33999999999999</v>
+        <v>455815.6778136753</v>
       </c>
       <c r="H29" t="n">
-        <v>25.21833333333335</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1550,44 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="C30" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="D30" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="E30" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="F30" t="n">
-        <v>606.1598</v>
+        <v>19950</v>
       </c>
       <c r="G30" t="n">
-        <v>25.33999999999999</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H30" t="n">
-        <v>25.23666666666669</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,44 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C31" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D31" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="E31" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F31" t="n">
-        <v>8103.5106</v>
+        <v>9775.2271</v>
       </c>
       <c r="G31" t="n">
-        <v>25.34666666666666</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H31" t="n">
-        <v>25.26166666666669</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,44 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C32" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D32" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="E32" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F32" t="n">
-        <v>803.1153</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="n">
-        <v>25.36</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H32" t="n">
-        <v>25.28333333333335</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,44 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="C33" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="D33" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="E33" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="F33" t="n">
-        <v>45104.8687</v>
+        <v>1102.8429</v>
       </c>
       <c r="G33" t="n">
-        <v>25.35333333333333</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H33" t="n">
-        <v>25.29833333333335</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,44 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C34" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D34" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="E34" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F34" t="n">
-        <v>49800</v>
+        <v>196.427</v>
       </c>
       <c r="G34" t="n">
-        <v>25.36666666666666</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H34" t="n">
-        <v>25.31666666666668</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1780,44 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C35" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="D35" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="E35" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>3877.2124</v>
       </c>
       <c r="G35" t="n">
-        <v>25.38666666666666</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H35" t="n">
-        <v>25.34000000000001</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,44 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="C36" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="D36" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="E36" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="F36" t="n">
-        <v>105272.3993</v>
+        <v>33764.3955</v>
       </c>
       <c r="G36" t="n">
-        <v>25.40666666666666</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H36" t="n">
-        <v>25.36000000000001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,32 +1670,21 @@
         <v>25.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1272.8311</v>
+        <v>27425.4494</v>
       </c>
       <c r="G37" t="n">
-        <v>25.44666666666667</v>
+        <v>448340.2284136753</v>
       </c>
       <c r="H37" t="n">
-        <v>25.38333333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,44 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C38" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="D38" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="E38" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F38" t="n">
-        <v>29901.5782</v>
+        <v>60</v>
       </c>
       <c r="G38" t="n">
-        <v>25.48666666666667</v>
+        <v>448280.2284136753</v>
       </c>
       <c r="H38" t="n">
-        <v>25.40666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L38" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1964,44 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C39" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="D39" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E39" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="F39" t="n">
-        <v>52062.0412</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>25.50666666666667</v>
+        <v>448300.2284136753</v>
       </c>
       <c r="H39" t="n">
-        <v>25.42166666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L39" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,44 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C40" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="D40" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E40" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="F40" t="n">
-        <v>1272.8311</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>25.51333333333334</v>
+        <v>448280.2284136753</v>
       </c>
       <c r="H40" t="n">
-        <v>25.43166666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L40" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2056,44 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C41" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D41" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E41" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>33764.3955</v>
       </c>
       <c r="G41" t="n">
-        <v>25.51333333333334</v>
+        <v>414515.8329136753</v>
       </c>
       <c r="H41" t="n">
-        <v>25.44333333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2102,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C42" t="n">
         <v>25.8</v>
@@ -2111,35 +1842,24 @@
         <v>25.8</v>
       </c>
       <c r="E42" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F42" t="n">
-        <v>1247.8126</v>
+        <v>12665.9323</v>
       </c>
       <c r="G42" t="n">
-        <v>25.55333333333334</v>
+        <v>427181.7652136753</v>
       </c>
       <c r="H42" t="n">
-        <v>25.45833333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,44 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C43" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="D43" t="n">
-        <v>26.2</v>
+        <v>25.6</v>
       </c>
       <c r="E43" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="F43" t="n">
-        <v>67696.514</v>
+        <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>25.62</v>
+        <v>417181.7652136753</v>
       </c>
       <c r="H43" t="n">
-        <v>25.48333333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L43" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,44 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="C44" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="D44" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="E44" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="F44" t="n">
-        <v>312.0949</v>
+        <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>25.68</v>
+        <v>397181.7652136753</v>
       </c>
       <c r="H44" t="n">
-        <v>25.51</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L44" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,42 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="C45" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="D45" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="E45" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="F45" t="n">
-        <v>88696.405</v>
+        <v>1087.0166</v>
       </c>
       <c r="G45" t="n">
-        <v>25.73333333333334</v>
+        <v>397181.7652136753</v>
       </c>
       <c r="H45" t="n">
-        <v>25.53</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,42 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="C46" t="n">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="D46" t="n">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="E46" t="n">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="F46" t="n">
-        <v>18800</v>
+        <v>12665.9323</v>
       </c>
       <c r="G46" t="n">
-        <v>25.78666666666667</v>
+        <v>384515.8329136753</v>
       </c>
       <c r="H46" t="n">
-        <v>25.55166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2328,42 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="C47" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="D47" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="E47" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="F47" t="n">
-        <v>45.7564</v>
+        <v>18000</v>
       </c>
       <c r="G47" t="n">
-        <v>25.84666666666667</v>
+        <v>402515.8329136753</v>
       </c>
       <c r="H47" t="n">
-        <v>25.57333333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,42 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="C48" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="D48" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="E48" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="F48" t="n">
-        <v>15491.574</v>
+        <v>49800</v>
       </c>
       <c r="G48" t="n">
-        <v>25.92</v>
+        <v>352715.8329136753</v>
       </c>
       <c r="H48" t="n">
-        <v>25.59333333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,42 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="C49" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="D49" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="E49" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="F49" t="n">
-        <v>144887.4058</v>
+        <v>2018.4217</v>
       </c>
       <c r="G49" t="n">
-        <v>25.96666666666667</v>
+        <v>352715.8329136753</v>
       </c>
       <c r="H49" t="n">
-        <v>25.61333333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,42 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="C50" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="D50" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="E50" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="F50" t="n">
-        <v>15612.1884</v>
+        <v>4000</v>
       </c>
       <c r="G50" t="n">
-        <v>26.02</v>
+        <v>352715.8329136753</v>
       </c>
       <c r="H50" t="n">
-        <v>25.63333333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,42 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="C51" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="D51" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="E51" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F51" t="n">
-        <v>60893.0661</v>
+        <v>50000</v>
       </c>
       <c r="G51" t="n">
-        <v>26.07333333333333</v>
+        <v>302715.8329136753</v>
       </c>
       <c r="H51" t="n">
-        <v>25.65166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,42 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="C52" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="D52" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="E52" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F52" t="n">
-        <v>4844.5439</v>
+        <v>803.0874</v>
       </c>
       <c r="G52" t="n">
-        <v>26.11333333333333</v>
+        <v>302715.8329136753</v>
       </c>
       <c r="H52" t="n">
-        <v>25.67333333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,42 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="C53" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="D53" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="E53" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="F53" t="n">
-        <v>3182.5989</v>
+        <v>62887.0232</v>
       </c>
       <c r="G53" t="n">
-        <v>26.15333333333332</v>
+        <v>365602.8561136753</v>
       </c>
       <c r="H53" t="n">
-        <v>25.69500000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,42 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="C54" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="D54" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="E54" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="F54" t="n">
-        <v>140822.6085</v>
+        <v>7962.5288</v>
       </c>
       <c r="G54" t="n">
-        <v>26.15999999999999</v>
+        <v>365602.8561136753</v>
       </c>
       <c r="H54" t="n">
-        <v>25.70833333333335</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,42 +2288,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="C55" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="D55" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="E55" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="F55" t="n">
-        <v>1374.7464</v>
+        <v>23379.0523</v>
       </c>
       <c r="G55" t="n">
-        <v>26.20666666666665</v>
+        <v>388981.9084136753</v>
       </c>
       <c r="H55" t="n">
-        <v>25.72500000000002</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,42 +2327,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="C56" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="D56" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="E56" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F56" t="n">
-        <v>44.938</v>
+        <v>62887.0232</v>
       </c>
       <c r="G56" t="n">
-        <v>26.25999999999998</v>
+        <v>326094.8852136753</v>
       </c>
       <c r="H56" t="n">
-        <v>25.74166666666668</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,42 +2370,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="C57" t="n">
-        <v>26.5</v>
+        <v>25.2</v>
       </c>
       <c r="D57" t="n">
-        <v>26.5</v>
+        <v>25.2</v>
       </c>
       <c r="E57" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>92.4926</v>
       </c>
       <c r="G57" t="n">
-        <v>26.30666666666665</v>
+        <v>326094.8852136753</v>
       </c>
       <c r="H57" t="n">
-        <v>25.76000000000001</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M57" t="inlineStr">
+        <v>25.2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,42 +2413,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="C58" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="D58" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="E58" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="F58" t="n">
-        <v>6940.395</v>
+        <v>212.7</v>
       </c>
       <c r="G58" t="n">
-        <v>26.32666666666665</v>
+        <v>326307.5852136753</v>
       </c>
       <c r="H58" t="n">
-        <v>25.77666666666668</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M58" t="inlineStr">
+        <v>25.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,42 +2456,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="C59" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="D59" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="E59" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="F59" t="n">
-        <v>695.4748</v>
+        <v>606.1598</v>
       </c>
       <c r="G59" t="n">
-        <v>26.34666666666665</v>
+        <v>326913.7450136753</v>
       </c>
       <c r="H59" t="n">
-        <v>25.79166666666668</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M59" t="inlineStr">
+        <v>25.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,42 +2499,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="C60" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D60" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="E60" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>8103.5106</v>
       </c>
       <c r="G60" t="n">
-        <v>26.36666666666665</v>
+        <v>335017.2556136753</v>
       </c>
       <c r="H60" t="n">
-        <v>25.80333333333335</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M60" t="inlineStr">
+        <v>25.4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,42 +2542,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="C61" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="D61" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="E61" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3090.6944</v>
+        <v>803.1153</v>
       </c>
       <c r="G61" t="n">
-        <v>26.36666666666665</v>
+        <v>335017.2556136753</v>
       </c>
       <c r="H61" t="n">
-        <v>25.81000000000001</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M61" t="inlineStr">
+        <v>25.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,42 +2585,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="C62" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="D62" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="E62" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="F62" t="n">
-        <v>54564.3521</v>
+        <v>45104.8687</v>
       </c>
       <c r="G62" t="n">
-        <v>26.37333333333332</v>
+        <v>289912.3869136753</v>
       </c>
       <c r="H62" t="n">
-        <v>25.82000000000001</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M62" t="inlineStr">
+        <v>25.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3032,42 +2628,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="C63" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D63" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="E63" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="F63" t="n">
-        <v>84588.0019</v>
+        <v>49800</v>
       </c>
       <c r="G63" t="n">
-        <v>26.37999999999999</v>
+        <v>339712.3869136753</v>
       </c>
       <c r="H63" t="n">
-        <v>25.83000000000001</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M63" t="inlineStr">
+        <v>25.3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,42 +2671,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.6</v>
+        <v>25.5</v>
       </c>
       <c r="C64" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="D64" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="E64" t="n">
-        <v>26.6</v>
+        <v>25.5</v>
       </c>
       <c r="F64" t="n">
-        <v>45909.96454285715</v>
+        <v>20000</v>
       </c>
       <c r="G64" t="n">
-        <v>26.40666666666666</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H64" t="n">
-        <v>25.84166666666668</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M64" t="inlineStr">
+        <v>25.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,42 +2714,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="C65" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="D65" t="n">
-        <v>26.7</v>
+        <v>25.6</v>
       </c>
       <c r="E65" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="F65" t="n">
-        <v>182592.9552348315</v>
+        <v>105272.3993</v>
       </c>
       <c r="G65" t="n">
-        <v>26.41999999999999</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H65" t="n">
-        <v>25.85333333333334</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M65" t="inlineStr">
+        <v>25.6</v>
+      </c>
+      <c r="K65" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,42 +2757,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="C66" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="D66" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="E66" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="F66" t="n">
-        <v>95669.00716516854</v>
+        <v>1272.8311</v>
       </c>
       <c r="G66" t="n">
-        <v>26.43999999999999</v>
+        <v>360985.2180136753</v>
       </c>
       <c r="H66" t="n">
-        <v>25.86666666666667</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M66" t="inlineStr">
+        <v>25.6</v>
+      </c>
+      <c r="K66" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,42 +2800,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="C67" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="D67" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="E67" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="F67" t="n">
-        <v>10129.8701</v>
+        <v>29901.5782</v>
       </c>
       <c r="G67" t="n">
-        <v>26.46666666666666</v>
+        <v>360985.2180136753</v>
       </c>
       <c r="H67" t="n">
-        <v>25.88166666666667</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M67" t="inlineStr">
+        <v>25.8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3252,42 +2843,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="C68" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="D68" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="E68" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="F68" t="n">
-        <v>68360.66710000001</v>
+        <v>52062.0412</v>
       </c>
       <c r="G68" t="n">
-        <v>26.5</v>
+        <v>360985.2180136753</v>
       </c>
       <c r="H68" t="n">
-        <v>25.9</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M68" t="inlineStr">
+        <v>25.8</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,42 +2886,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="C69" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="D69" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="E69" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="F69" t="n">
-        <v>22022.6135</v>
+        <v>1272.8311</v>
       </c>
       <c r="G69" t="n">
-        <v>26.56</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H69" t="n">
-        <v>25.91833333333334</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M69" t="inlineStr">
+        <v>25.8</v>
+      </c>
+      <c r="K69" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3340,42 +2929,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="C70" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="D70" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="E70" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="F70" t="n">
-        <v>40000</v>
+        <v>500</v>
       </c>
       <c r="G70" t="n">
-        <v>26.6</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H70" t="n">
-        <v>25.935</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M70" t="inlineStr">
+        <v>25.6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,42 +2972,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="C71" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="D71" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="E71" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="F71" t="n">
-        <v>48090.4541</v>
+        <v>1247.8126</v>
       </c>
       <c r="G71" t="n">
-        <v>26.63333333333333</v>
+        <v>360960.1995136753</v>
       </c>
       <c r="H71" t="n">
-        <v>25.955</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M71" t="inlineStr">
+        <v>25.6</v>
+      </c>
+      <c r="K71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3428,42 +3015,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="D72" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="E72" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="F72" t="n">
-        <v>176186.1855</v>
+        <v>67696.514</v>
       </c>
       <c r="G72" t="n">
-        <v>26.66666666666666</v>
+        <v>428656.7135136753</v>
       </c>
       <c r="H72" t="n">
-        <v>25.98</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M72" t="inlineStr">
+        <v>25.8</v>
+      </c>
+      <c r="K72" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,42 +3058,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="C73" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="D73" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="E73" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="F73" t="n">
-        <v>86177.1131</v>
+        <v>312.0949</v>
       </c>
       <c r="G73" t="n">
-        <v>26.72</v>
+        <v>428656.7135136753</v>
       </c>
       <c r="H73" t="n">
-        <v>26.005</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M73" t="inlineStr">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,42 +3099,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C74" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D74" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E74" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="F74" t="n">
-        <v>169623.9086058394</v>
+        <v>88696.405</v>
       </c>
       <c r="G74" t="n">
-        <v>26.78666666666667</v>
+        <v>428656.7135136753</v>
       </c>
       <c r="H74" t="n">
-        <v>26.03833333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M74" t="inlineStr">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,42 +3140,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="C75" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="D75" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E75" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="F75" t="n">
-        <v>58886.8515</v>
+        <v>18800</v>
       </c>
       <c r="G75" t="n">
-        <v>26.86</v>
+        <v>447456.7135136753</v>
       </c>
       <c r="H75" t="n">
-        <v>26.075</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M75" t="inlineStr">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,42 +3181,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C76" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="D76" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E76" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="F76" t="n">
-        <v>39330.8242</v>
+        <v>45.7564</v>
       </c>
       <c r="G76" t="n">
-        <v>26.94666666666667</v>
+        <v>447502.4699136753</v>
       </c>
       <c r="H76" t="n">
-        <v>26.11166666666666</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M76" t="inlineStr">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,42 +3222,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C77" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="D77" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E77" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="F77" t="n">
-        <v>27344.3093</v>
+        <v>15491.574</v>
       </c>
       <c r="G77" t="n">
-        <v>27.00666666666666</v>
+        <v>447502.4699136753</v>
       </c>
       <c r="H77" t="n">
-        <v>26.14666666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M77" t="inlineStr">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,42 +3263,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C78" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D78" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="E78" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F78" t="n">
-        <v>66841.0012</v>
+        <v>144887.4058</v>
       </c>
       <c r="G78" t="n">
-        <v>27.07333333333333</v>
+        <v>302615.0641136753</v>
       </c>
       <c r="H78" t="n">
-        <v>26.18166666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M78" t="inlineStr">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3736,42 +3304,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C79" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="E79" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F79" t="n">
-        <v>198171.8585</v>
+        <v>15612.1884</v>
       </c>
       <c r="G79" t="n">
-        <v>27.15333333333333</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H79" t="n">
-        <v>26.22333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M79" t="inlineStr">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,43 +3345,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C80" t="n">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="D80" t="n">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="E80" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="F80" t="n">
-        <v>104022.6504</v>
+        <v>60893.0661</v>
       </c>
       <c r="G80" t="n">
-        <v>27.25333333333333</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H80" t="n">
-        <v>26.27</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>1.096960784313726</v>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3824,36 +3386,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="D81" t="n">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="E81" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="F81" t="n">
-        <v>209221.5673</v>
+        <v>4844.5439</v>
       </c>
       <c r="G81" t="n">
-        <v>27.34</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H81" t="n">
-        <v>26.315</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,36 +3427,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="C82" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="D82" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="E82" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="F82" t="n">
-        <v>493243.7988</v>
+        <v>3182.5989</v>
       </c>
       <c r="G82" t="n">
-        <v>27.42</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H82" t="n">
-        <v>26.36166666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,36 +3468,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28</v>
+        <v>26.3</v>
       </c>
       <c r="C83" t="n">
-        <v>27.7</v>
+        <v>25.9</v>
       </c>
       <c r="D83" t="n">
-        <v>28</v>
+        <v>26.3</v>
       </c>
       <c r="E83" t="n">
-        <v>27.6</v>
+        <v>25.9</v>
       </c>
       <c r="F83" t="n">
-        <v>192148.3723</v>
+        <v>140822.6085</v>
       </c>
       <c r="G83" t="n">
-        <v>27.47333333333333</v>
+        <v>177404.6440136752</v>
       </c>
       <c r="H83" t="n">
-        <v>26.40333333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,36 +3509,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="C84" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="D84" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="E84" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="F84" t="n">
-        <v>105027.5005</v>
+        <v>1374.7464</v>
       </c>
       <c r="G84" t="n">
-        <v>27.50666666666666</v>
+        <v>178779.3904136753</v>
       </c>
       <c r="H84" t="n">
-        <v>26.43333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,36 +3550,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="C85" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="D85" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="E85" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="F85" t="n">
-        <v>166468.7267</v>
+        <v>44.938</v>
       </c>
       <c r="G85" t="n">
-        <v>27.54666666666667</v>
+        <v>178824.3284136752</v>
       </c>
       <c r="H85" t="n">
-        <v>26.46666666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,36 +3591,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C86" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="D86" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="E86" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="F86" t="n">
-        <v>9236.759099999999</v>
+        <v>4000</v>
       </c>
       <c r="G86" t="n">
-        <v>27.58666666666667</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H86" t="n">
-        <v>26.49833333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,36 +3632,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C87" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D87" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="E87" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="F87" t="n">
-        <v>37938.2087</v>
+        <v>6940.395</v>
       </c>
       <c r="G87" t="n">
-        <v>27.62666666666667</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H87" t="n">
-        <v>26.53833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,36 +3673,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="C88" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D88" t="n">
-        <v>27.7</v>
+        <v>26.5</v>
       </c>
       <c r="E88" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="F88" t="n">
-        <v>87021.2583</v>
+        <v>695.4748</v>
       </c>
       <c r="G88" t="n">
-        <v>27.64666666666667</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H88" t="n">
-        <v>26.57833333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,36 +3714,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C89" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="D89" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="E89" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="F89" t="n">
-        <v>4211.3366</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>27.64666666666667</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H89" t="n">
-        <v>26.61499999999999</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,36 +3755,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="C90" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="D90" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="E90" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F90" t="n">
-        <v>29193.9967</v>
+        <v>3090.6944</v>
       </c>
       <c r="G90" t="n">
-        <v>27.6</v>
+        <v>179733.6340136752</v>
       </c>
       <c r="H90" t="n">
-        <v>26.63999999999999</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,36 +3796,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="D91" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="E91" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F91" t="n">
-        <v>13655.0632</v>
+        <v>54564.3521</v>
       </c>
       <c r="G91" t="n">
-        <v>27.56</v>
+        <v>234297.9861136752</v>
       </c>
       <c r="H91" t="n">
-        <v>26.665</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,36 +3837,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="C92" t="n">
-        <v>27.7</v>
+        <v>26.5</v>
       </c>
       <c r="D92" t="n">
-        <v>27.7</v>
+        <v>26.5</v>
       </c>
       <c r="E92" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="F92" t="n">
-        <v>110968.1933</v>
+        <v>84588.0019</v>
       </c>
       <c r="G92" t="n">
-        <v>27.58</v>
+        <v>234297.9861136752</v>
       </c>
       <c r="H92" t="n">
-        <v>26.70166666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,36 +3878,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="C93" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="D93" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="E93" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="F93" t="n">
-        <v>21203.8696</v>
+        <v>45909.96454285715</v>
       </c>
       <c r="G93" t="n">
-        <v>27.58</v>
+        <v>280207.9506565324</v>
       </c>
       <c r="H93" t="n">
-        <v>26.73833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,36 +3919,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="C94" t="n">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="D94" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E94" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="F94" t="n">
-        <v>38224.9275</v>
+        <v>182592.9552348315</v>
       </c>
       <c r="G94" t="n">
-        <v>27.55333333333333</v>
+        <v>280207.9506565324</v>
       </c>
       <c r="H94" t="n">
-        <v>26.77</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,36 +3960,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="C95" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D95" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E95" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F95" t="n">
-        <v>26425.4738</v>
+        <v>95669.00716516854</v>
       </c>
       <c r="G95" t="n">
-        <v>27.5</v>
+        <v>375876.9578217009</v>
       </c>
       <c r="H95" t="n">
-        <v>26.79833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,36 +4001,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="C96" t="n">
         <v>26.8</v>
       </c>
       <c r="D96" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="E96" t="n">
         <v>26.8</v>
       </c>
       <c r="F96" t="n">
-        <v>411811.9223</v>
+        <v>10129.8701</v>
       </c>
       <c r="G96" t="n">
-        <v>27.42</v>
+        <v>386006.8279217009</v>
       </c>
       <c r="H96" t="n">
-        <v>26.81833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,36 +4042,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C97" t="n">
         <v>26.9</v>
       </c>
       <c r="D97" t="n">
+        <v>27</v>
+      </c>
+      <c r="E97" t="n">
         <v>26.9</v>
       </c>
-      <c r="E97" t="n">
-        <v>26.8</v>
-      </c>
       <c r="F97" t="n">
-        <v>23326.5074</v>
+        <v>68360.66710000001</v>
       </c>
       <c r="G97" t="n">
-        <v>27.34666666666666</v>
+        <v>454367.4950217009</v>
       </c>
       <c r="H97" t="n">
-        <v>26.83666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,36 +4083,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C98" t="n">
         <v>26.8</v>
       </c>
       <c r="D98" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E98" t="n">
         <v>26.8</v>
       </c>
       <c r="F98" t="n">
-        <v>40.6214</v>
+        <v>22022.6135</v>
       </c>
       <c r="G98" t="n">
-        <v>27.28666666666667</v>
+        <v>432344.8815217009</v>
       </c>
       <c r="H98" t="n">
-        <v>26.85333333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,36 +4124,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="C99" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D99" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E99" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F99" t="n">
-        <v>167729.1756</v>
+        <v>40000</v>
       </c>
       <c r="G99" t="n">
-        <v>27.24666666666666</v>
+        <v>472344.8815217009</v>
       </c>
       <c r="H99" t="n">
-        <v>26.86833333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,36 +4165,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C100" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D100" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E100" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F100" t="n">
-        <v>68508.31623483147</v>
+        <v>48090.4541</v>
       </c>
       <c r="G100" t="n">
-        <v>27.19333333333333</v>
+        <v>472344.8815217009</v>
       </c>
       <c r="H100" t="n">
-        <v>26.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,36 +4206,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C101" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="D101" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="E101" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F101" t="n">
-        <v>158182.946</v>
+        <v>176186.1855</v>
       </c>
       <c r="G101" t="n">
-        <v>27.12666666666666</v>
+        <v>648531.0670217009</v>
       </c>
       <c r="H101" t="n">
-        <v>26.90166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,36 +4247,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="C102" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="D102" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="E102" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="F102" t="n">
-        <v>2046.1067</v>
+        <v>86177.1131</v>
       </c>
       <c r="G102" t="n">
-        <v>27.05333333333333</v>
+        <v>734708.1801217009</v>
       </c>
       <c r="H102" t="n">
-        <v>26.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,36 +4288,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="C103" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D103" t="n">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="E103" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="F103" t="n">
-        <v>208494.5103</v>
+        <v>169623.9086058394</v>
       </c>
       <c r="G103" t="n">
-        <v>26.95999999999999</v>
+        <v>904332.0887275402</v>
       </c>
       <c r="H103" t="n">
-        <v>26.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,36 +4329,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="C104" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="D104" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="E104" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="F104" t="n">
-        <v>263070.7756</v>
+        <v>58886.8515</v>
       </c>
       <c r="G104" t="n">
-        <v>26.85333333333332</v>
+        <v>963218.9402275402</v>
       </c>
       <c r="H104" t="n">
-        <v>26.90833333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,36 +4370,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="C105" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="D105" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="E105" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="F105" t="n">
-        <v>221620.8026</v>
+        <v>39330.8242</v>
       </c>
       <c r="G105" t="n">
-        <v>26.77999999999999</v>
+        <v>963218.9402275402</v>
       </c>
       <c r="H105" t="n">
-        <v>26.90166666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,36 +4411,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="C106" t="n">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="D106" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="E106" t="n">
-        <v>25.7</v>
+        <v>27.4</v>
       </c>
       <c r="F106" t="n">
-        <v>74672.425</v>
+        <v>27344.3093</v>
       </c>
       <c r="G106" t="n">
-        <v>26.70666666666666</v>
+        <v>935874.6309275402</v>
       </c>
       <c r="H106" t="n">
-        <v>26.89500000000001</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,36 +4452,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="C107" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="D107" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="E107" t="n">
-        <v>25.8</v>
+        <v>27.4</v>
       </c>
       <c r="F107" t="n">
-        <v>75154.0756</v>
+        <v>66841.0012</v>
       </c>
       <c r="G107" t="n">
-        <v>26.58666666666666</v>
+        <v>1002715.63212754</v>
       </c>
       <c r="H107" t="n">
-        <v>26.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,36 +4493,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.8</v>
+        <v>27.5</v>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="D108" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E108" t="n">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="F108" t="n">
-        <v>196376.6532</v>
+        <v>198171.8585</v>
       </c>
       <c r="G108" t="n">
-        <v>26.48666666666666</v>
+        <v>1200887.49062754</v>
       </c>
       <c r="H108" t="n">
-        <v>26.88000000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,36 +4534,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="C109" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="D109" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="E109" t="n">
-        <v>25.8</v>
+        <v>27.7</v>
       </c>
       <c r="F109" t="n">
-        <v>104700.243</v>
+        <v>104022.6504</v>
       </c>
       <c r="G109" t="n">
-        <v>26.39333333333332</v>
+        <v>1304910.14102754</v>
       </c>
       <c r="H109" t="n">
-        <v>26.87666666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,37 +4575,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="C110" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="D110" t="n">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="E110" t="n">
-        <v>26</v>
+        <v>27.7</v>
       </c>
       <c r="F110" t="n">
-        <v>320430.7782</v>
+        <v>209221.5673</v>
       </c>
       <c r="G110" t="n">
-        <v>26.31999999999999</v>
+        <v>1095688.57372754</v>
       </c>
       <c r="H110" t="n">
-        <v>26.87333333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1.093039215686275</v>
       </c>
     </row>
     <row r="111">
@@ -4964,36 +4616,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="C111" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="E111" t="n">
-        <v>25.9</v>
+        <v>28</v>
       </c>
       <c r="F111" t="n">
-        <v>555429.3594</v>
+        <v>493243.7988</v>
       </c>
       <c r="G111" t="n">
-        <v>26.27999999999999</v>
+        <v>1095688.57372754</v>
       </c>
       <c r="H111" t="n">
-        <v>26.87</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,36 +4651,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="C112" t="n">
-        <v>25.8</v>
+        <v>27.7</v>
       </c>
       <c r="D112" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="E112" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="F112" t="n">
-        <v>87078.05869999999</v>
+        <v>192148.3723</v>
       </c>
       <c r="G112" t="n">
-        <v>26.20666666666666</v>
+        <v>903540.2014275403</v>
       </c>
       <c r="H112" t="n">
-        <v>26.86</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,36 +4686,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.8</v>
+        <v>27.7</v>
       </c>
       <c r="C113" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="D113" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="E113" t="n">
-        <v>25.7</v>
+        <v>27.3</v>
       </c>
       <c r="F113" t="n">
-        <v>99457.40360000001</v>
+        <v>105027.5005</v>
       </c>
       <c r="G113" t="n">
-        <v>26.15999999999999</v>
+        <v>798512.7009275403</v>
       </c>
       <c r="H113" t="n">
-        <v>26.855</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,36 +4721,1048 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="C114" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="D114" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="E114" t="n">
-        <v>25.5</v>
+        <v>27.3</v>
       </c>
       <c r="F114" t="n">
-        <v>85394.4172</v>
+        <v>166468.7267</v>
       </c>
       <c r="G114" t="n">
-        <v>26.10666666666666</v>
+        <v>964981.4276275403</v>
       </c>
       <c r="H114" t="n">
-        <v>26.855</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9236.759099999999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>964981.4276275403</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>37938.2087</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1002919.63632754</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>87021.2583</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1002919.63632754</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4211.3366</v>
+      </c>
+      <c r="G118" t="n">
+        <v>998708.2997275402</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>29193.9967</v>
+      </c>
+      <c r="G119" t="n">
+        <v>969514.3030275402</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>27</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>27</v>
+      </c>
+      <c r="F120" t="n">
+        <v>13655.0632</v>
+      </c>
+      <c r="G120" t="n">
+        <v>983169.3662275402</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>110968.1933</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1094137.55952754</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21203.8696</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1072933.68992754</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>38224.9275</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1034708.76242754</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>26425.4738</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1008283.28862754</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>411811.9223</v>
+      </c>
+      <c r="G125" t="n">
+        <v>596471.36632754</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>23326.5074</v>
+      </c>
+      <c r="G126" t="n">
+        <v>619797.87372754</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27</v>
+      </c>
+      <c r="C127" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>27</v>
+      </c>
+      <c r="E127" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>40.6214</v>
+      </c>
+      <c r="G127" t="n">
+        <v>619757.2523275401</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>167729.1756</v>
+      </c>
+      <c r="G128" t="n">
+        <v>452028.0767275401</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>68508.31623483147</v>
+      </c>
+      <c r="G129" t="n">
+        <v>452028.0767275401</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>158182.946</v>
+      </c>
+      <c r="G130" t="n">
+        <v>293845.1307275401</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2046.1067</v>
+      </c>
+      <c r="G131" t="n">
+        <v>293845.1307275401</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>208494.5103</v>
+      </c>
+      <c r="G132" t="n">
+        <v>85350.62042754013</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>263070.7756</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-177720.1551724599</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>221620.8026</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-399340.9577724598</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>74672.425</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-324668.5327724598</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>75154.0756</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-324668.5327724598</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>26</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>196376.6532</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-128291.8795724598</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26</v>
+      </c>
+      <c r="C138" t="n">
+        <v>26</v>
+      </c>
+      <c r="D138" t="n">
+        <v>26</v>
+      </c>
+      <c r="E138" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>104700.243</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-128291.8795724598</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>26</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26</v>
+      </c>
+      <c r="F139" t="n">
+        <v>320430.7782</v>
+      </c>
+      <c r="G139" t="n">
+        <v>192138.8986275402</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>555429.3594</v>
+      </c>
+      <c r="G140" t="n">
+        <v>192138.8986275402</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>87078.05869999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>105060.8399275402</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>99457.40360000001</v>
+      </c>
+      <c r="G142" t="n">
+        <v>204518.2435275402</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>85394.4172</v>
+      </c>
+      <c r="G143" t="n">
+        <v>119123.8263275402</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2321,6 +2379,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2364,6 +2423,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2407,6 +2467,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2450,6 +2511,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2493,6 +2555,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2536,6 +2599,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2579,6 +2643,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2622,6 +2687,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2665,6 +2731,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,6 +2775,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2751,6 +2819,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2794,6 +2863,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2837,6 +2907,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2880,6 +2951,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2923,6 +2995,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2966,6 +3039,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3009,6 +3083,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3052,6 +3127,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3093,6 +3169,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3134,6 +3211,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3175,6 +3253,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3216,6 +3295,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3257,6 +3337,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3298,6 +3379,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3339,6 +3421,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3380,6 +3463,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3421,6 +3505,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3462,6 +3547,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3503,6 +3589,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3544,6 +3631,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3585,6 +3673,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3626,6 +3715,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3667,6 +3757,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3708,6 +3799,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3749,6 +3841,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3790,6 +3883,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3831,6 +3925,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3872,6 +3967,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3913,6 +4009,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3954,6 +4051,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3995,6 +4093,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4036,6 +4135,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4077,6 +4177,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4118,6 +4219,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4159,6 +4261,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4200,6 +4303,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4241,6 +4345,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4282,6 +4387,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4323,6 +4429,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4364,6 +4471,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4405,6 +4513,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4446,6 +4555,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4487,6 +4597,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4528,6 +4639,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4555,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
@@ -4563,11 +4675,14 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>1.096960784313726</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.079166666666667</v>
       </c>
     </row>
     <row r="110">
@@ -4599,17 +4714,12 @@
         <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>1.093039215686275</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4645,6 +4755,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4680,6 +4791,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4715,6 +4827,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4742,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4750,6 +4863,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4777,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4785,6 +4899,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4812,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4820,6 +4935,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4847,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4855,6 +4971,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4890,6 +5007,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4917,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4925,6 +5043,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4952,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4960,6 +5079,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4987,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4995,6 +5115,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5022,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5030,6 +5151,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5057,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5065,6 +5187,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5100,6 +5223,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5127,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5135,6 +5259,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5162,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5170,6 +5295,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5205,6 +5331,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5240,6 +5367,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5275,6 +5403,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5310,6 +5439,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5345,6 +5475,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5380,6 +5511,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5415,6 +5547,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5450,6 +5583,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5485,6 +5619,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5520,6 +5655,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5555,6 +5691,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5590,6 +5727,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5625,6 +5763,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5660,6 +5799,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5695,6 +5835,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5730,6 +5871,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5765,6 +5907,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="C2" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="D2" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="E2" t="n">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="F2" t="n">
-        <v>121600</v>
+        <v>8000</v>
       </c>
       <c r="G2" t="n">
-        <v>249449.2491136752</v>
+        <v>22416.20881367519</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="C3" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F3" t="n">
-        <v>168544.4928</v>
+        <v>8500</v>
       </c>
       <c r="G3" t="n">
-        <v>249449.2491136752</v>
+        <v>30916.20881367519</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23.6</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="E4" t="n">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="F4" t="n">
-        <v>90000</v>
+        <v>16500</v>
       </c>
       <c r="G4" t="n">
-        <v>159449.2491136752</v>
+        <v>30916.20881367519</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="C5" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="D5" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="E5" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="F5" t="n">
-        <v>6893.6553</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="n">
-        <v>166342.9044136752</v>
+        <v>30916.20881367519</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="C6" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="E6" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="F6" t="n">
-        <v>15163.9344</v>
+        <v>6000</v>
       </c>
       <c r="G6" t="n">
-        <v>166342.9044136752</v>
+        <v>24916.20881367519</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="C7" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="D7" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="E7" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2500</v>
+        <v>163</v>
       </c>
       <c r="G7" t="n">
-        <v>166342.9044136752</v>
+        <v>25079.20881367519</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="C8" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="E8" t="n">
-        <v>24.7</v>
+        <v>23.4</v>
       </c>
       <c r="F8" t="n">
-        <v>9672.380800000001</v>
+        <v>163</v>
       </c>
       <c r="G8" t="n">
-        <v>176015.2852136752</v>
+        <v>24916.20881367519</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="F9" t="n">
-        <v>2974</v>
+        <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>178989.2852136752</v>
+        <v>25079.20881367519</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +778,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="D10" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="E10" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="F10" t="n">
-        <v>40011.8234</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>138977.4618136752</v>
+        <v>25101.20881367519</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +822,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="C11" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="D11" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="E11" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="F11" t="n">
-        <v>40160.65</v>
+        <v>22879.8305</v>
       </c>
       <c r="G11" t="n">
-        <v>138977.4618136752</v>
+        <v>25101.20881367519</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +866,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="D12" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="E12" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="F12" t="n">
-        <v>395.8661</v>
+        <v>39400</v>
       </c>
       <c r="G12" t="n">
-        <v>138581.5957136752</v>
+        <v>64501.20881367519</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +910,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="D13" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E13" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="F13" t="n">
-        <v>40011.8234</v>
+        <v>2612.1646</v>
       </c>
       <c r="G13" t="n">
-        <v>98569.77231367523</v>
+        <v>67113.37341367519</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +954,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>90495.8661</v>
+        <v>833.333</v>
       </c>
       <c r="G14" t="n">
-        <v>189065.6384136752</v>
+        <v>67946.70641367519</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +998,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>29637.1339</v>
+        <v>166.667</v>
       </c>
       <c r="G15" t="n">
-        <v>189065.6384136752</v>
+        <v>67946.70641367519</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1042,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="D16" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="F16" t="n">
-        <v>44900</v>
+        <v>13800</v>
       </c>
       <c r="G16" t="n">
-        <v>233965.6384136752</v>
+        <v>81746.70641367519</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>24</v>
+      </c>
+      <c r="K16" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1086,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="D17" t="n">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="E17" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="F17" t="n">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G17" t="n">
-        <v>273965.6384136752</v>
+        <v>137746.7064136752</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1130,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="F18" t="n">
-        <v>6223.6082</v>
+        <v>49682.9118</v>
       </c>
       <c r="G18" t="n">
-        <v>267742.0302136752</v>
+        <v>187429.6182136752</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1172,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="C19" t="n">
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="D19" t="n">
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="E19" t="n">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="F19" t="n">
-        <v>43828.024</v>
+        <v>72672.2686</v>
       </c>
       <c r="G19" t="n">
-        <v>311570.0542136752</v>
+        <v>187429.6182136752</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1196,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1214,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="D20" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="E20" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="F20" t="n">
-        <v>21600</v>
+        <v>5780.6621</v>
       </c>
       <c r="G20" t="n">
-        <v>333170.0542136752</v>
+        <v>181648.9561136752</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1256,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="C21" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D21" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E21" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="F21" t="n">
-        <v>1462.5499</v>
+        <v>72.8856</v>
       </c>
       <c r="G21" t="n">
-        <v>331707.5043136752</v>
+        <v>181721.8417136752</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1280,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1298,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="C22" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="D22" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="F22" t="n">
-        <v>10788.0599</v>
+        <v>2387.0122</v>
       </c>
       <c r="G22" t="n">
-        <v>331707.5043136752</v>
+        <v>179334.8295136752</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1322,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="C23" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="E23" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>7080.875</v>
+        <v>52.5126</v>
       </c>
       <c r="G23" t="n">
-        <v>331707.5043136752</v>
+        <v>179282.3169136752</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1364,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1382,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="F24" t="n">
-        <v>97001.82826047431</v>
+        <v>853.1858999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>428709.3325741495</v>
+        <v>179282.3169136752</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1406,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1424,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>5195.041039525691</v>
+        <v>76938.38370000001</v>
       </c>
       <c r="G25" t="n">
-        <v>433904.3736136752</v>
+        <v>179282.3169136752</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1448,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1466,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25.4</v>
+        <v>24.3</v>
       </c>
       <c r="D26" t="n">
-        <v>25.4</v>
+        <v>24.3</v>
       </c>
       <c r="E26" t="n">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>44870.6078</v>
+        <v>121</v>
       </c>
       <c r="G26" t="n">
-        <v>433904.3736136752</v>
+        <v>179403.3169136752</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1490,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1508,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.5</v>
+        <v>24.1</v>
       </c>
       <c r="C27" t="n">
-        <v>25.5</v>
+        <v>24.1</v>
       </c>
       <c r="D27" t="n">
-        <v>25.5</v>
+        <v>24.1</v>
       </c>
       <c r="E27" t="n">
-        <v>25.5</v>
+        <v>24.1</v>
       </c>
       <c r="F27" t="n">
-        <v>8787.000099999999</v>
+        <v>50000</v>
       </c>
       <c r="G27" t="n">
-        <v>442691.3737136752</v>
+        <v>129403.3169136752</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1532,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1550,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.5</v>
+        <v>24.3</v>
       </c>
       <c r="C28" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="D28" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="E28" t="n">
-        <v>25.5</v>
+        <v>24.3</v>
       </c>
       <c r="F28" t="n">
-        <v>11766.8588</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>454458.2325136752</v>
+        <v>129424.3169136752</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1574,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1592,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.6</v>
+        <v>23.9</v>
       </c>
       <c r="C29" t="n">
-        <v>25.8</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>25.8</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>25.6</v>
+        <v>23.9</v>
       </c>
       <c r="F29" t="n">
-        <v>1357.4453</v>
+        <v>1596.0678</v>
       </c>
       <c r="G29" t="n">
-        <v>455815.6778136753</v>
+        <v>127828.2491136752</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1616,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1634,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="C30" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="D30" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="E30" t="n">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="F30" t="n">
-        <v>19950</v>
+        <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>475765.6778136753</v>
+        <v>127849.2491136752</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1658,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1676,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.9</v>
+        <v>24.3</v>
       </c>
       <c r="C31" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D31" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E31" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="F31" t="n">
-        <v>9775.2271</v>
+        <v>121600</v>
       </c>
       <c r="G31" t="n">
-        <v>475765.6778136753</v>
+        <v>249449.2491136752</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1718,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="C32" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D32" t="n">
-        <v>25.9</v>
+        <v>24.5</v>
       </c>
       <c r="E32" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>168544.4928</v>
       </c>
       <c r="G32" t="n">
-        <v>475765.6778136753</v>
+        <v>249449.2491136752</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1742,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1760,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="C33" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="D33" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="E33" t="n">
-        <v>25.9</v>
+        <v>24.1</v>
       </c>
       <c r="F33" t="n">
-        <v>1102.8429</v>
+        <v>90000</v>
       </c>
       <c r="G33" t="n">
-        <v>475765.6778136753</v>
+        <v>159449.2491136752</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1802,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="C34" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D34" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E34" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="F34" t="n">
-        <v>196.427</v>
+        <v>6893.6553</v>
       </c>
       <c r="G34" t="n">
-        <v>475765.6778136753</v>
+        <v>166342.9044136752</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1826,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1844,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="C35" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D35" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E35" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="F35" t="n">
-        <v>3877.2124</v>
+        <v>15163.9344</v>
       </c>
       <c r="G35" t="n">
-        <v>475765.6778136753</v>
+        <v>166342.9044136752</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1868,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1886,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="C36" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="D36" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="E36" t="n">
-        <v>25.9</v>
+        <v>24.4</v>
       </c>
       <c r="F36" t="n">
-        <v>33764.3955</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>475765.6778136753</v>
+        <v>166342.9044136752</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1910,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1928,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="C37" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="D37" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="E37" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="F37" t="n">
-        <v>27425.4494</v>
+        <v>9672.380800000001</v>
       </c>
       <c r="G37" t="n">
-        <v>448340.2284136753</v>
+        <v>176015.2852136752</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1952,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1970,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>60</v>
+        <v>2974</v>
       </c>
       <c r="G38" t="n">
-        <v>448280.2284136753</v>
+        <v>178989.2852136752</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1994,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +2012,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="C39" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="D39" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="E39" t="n">
-        <v>25.9</v>
+        <v>24.9</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>40011.8234</v>
       </c>
       <c r="G39" t="n">
-        <v>448300.2284136753</v>
+        <v>138977.4618136752</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2036,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2054,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="C40" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="D40" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="E40" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>40160.65</v>
       </c>
       <c r="G40" t="n">
-        <v>448280.2284136753</v>
+        <v>138977.4618136752</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2078,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2096,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="C41" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="D41" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="E41" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="F41" t="n">
-        <v>33764.3955</v>
+        <v>395.8661</v>
       </c>
       <c r="G41" t="n">
-        <v>414515.8329136753</v>
+        <v>138581.5957136752</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2120,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2138,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="C42" t="n">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="D42" t="n">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="E42" t="n">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="F42" t="n">
-        <v>12665.9323</v>
+        <v>40011.8234</v>
       </c>
       <c r="G42" t="n">
-        <v>427181.7652136753</v>
+        <v>98569.77231367523</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2162,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2180,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.6</v>
+        <v>24.7</v>
       </c>
       <c r="C43" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="E43" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="F43" t="n">
-        <v>10000</v>
+        <v>90495.8661</v>
       </c>
       <c r="G43" t="n">
-        <v>417181.7652136753</v>
+        <v>189065.6384136752</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2204,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2222,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>20000</v>
+        <v>29637.1339</v>
       </c>
       <c r="G44" t="n">
-        <v>397181.7652136753</v>
+        <v>189065.6384136752</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2264,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="D45" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E45" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>1087.0166</v>
+        <v>44900</v>
       </c>
       <c r="G45" t="n">
-        <v>397181.7652136753</v>
+        <v>233965.6384136752</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2288,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2306,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="C46" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D46" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E46" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F46" t="n">
-        <v>12665.9323</v>
+        <v>40000</v>
       </c>
       <c r="G46" t="n">
-        <v>384515.8329136753</v>
+        <v>273965.6384136752</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2348,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E47" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>18000</v>
+        <v>6223.6082</v>
       </c>
       <c r="G47" t="n">
-        <v>402515.8329136753</v>
+        <v>267742.0302136752</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2372,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2390,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C48" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D48" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E48" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F48" t="n">
-        <v>49800</v>
+        <v>43828.024</v>
       </c>
       <c r="G48" t="n">
-        <v>352715.8329136753</v>
+        <v>311570.0542136752</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2142,10 +2444,10 @@
         <v>25.3</v>
       </c>
       <c r="F49" t="n">
-        <v>2018.4217</v>
+        <v>21600</v>
       </c>
       <c r="G49" t="n">
-        <v>352715.8329136753</v>
+        <v>333170.0542136752</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2456,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2474,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C50" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="D50" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="E50" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>1462.5499</v>
       </c>
       <c r="G50" t="n">
-        <v>352715.8329136753</v>
+        <v>331707.5043136752</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2498,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2516,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D51" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E51" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>50000</v>
+        <v>10788.0599</v>
       </c>
       <c r="G51" t="n">
-        <v>302715.8329136753</v>
+        <v>331707.5043136752</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2540,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2558,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C52" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D52" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E52" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F52" t="n">
-        <v>803.0874</v>
+        <v>7080.875</v>
       </c>
       <c r="G52" t="n">
-        <v>302715.8329136753</v>
+        <v>331707.5043136752</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2582,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2600,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C53" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="D53" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="E53" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="F53" t="n">
-        <v>62887.0232</v>
+        <v>97001.82826047431</v>
       </c>
       <c r="G53" t="n">
-        <v>365602.8561136753</v>
+        <v>428709.3325741495</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2624,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2642,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C54" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D54" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E54" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="F54" t="n">
-        <v>7962.5288</v>
+        <v>5195.041039525691</v>
       </c>
       <c r="G54" t="n">
-        <v>365602.8561136753</v>
+        <v>433904.3736136752</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2666,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,36 +2684,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="C55" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D55" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="E55" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="F55" t="n">
-        <v>23379.0523</v>
+        <v>44870.6078</v>
       </c>
       <c r="G55" t="n">
-        <v>388981.9084136753</v>
+        <v>433904.3736136752</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2386,38 +2726,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C56" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="D56" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E56" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="F56" t="n">
-        <v>62887.0232</v>
+        <v>8787.000099999999</v>
       </c>
       <c r="G56" t="n">
-        <v>326094.8852136753</v>
+        <v>442691.3737136752</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -2430,34 +2768,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="C57" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D57" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E57" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="F57" t="n">
-        <v>92.4926</v>
+        <v>11766.8588</v>
       </c>
       <c r="G57" t="n">
-        <v>326094.8852136753</v>
+        <v>454458.2325136752</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2474,34 +2810,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="C58" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="D58" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="E58" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="F58" t="n">
-        <v>212.7</v>
+        <v>1357.4453</v>
       </c>
       <c r="G58" t="n">
-        <v>326307.5852136753</v>
+        <v>455815.6778136753</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2518,34 +2852,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="C59" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="D59" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="E59" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="F59" t="n">
-        <v>606.1598</v>
+        <v>19950</v>
       </c>
       <c r="G59" t="n">
-        <v>326913.7450136753</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>25.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2562,34 +2894,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C60" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D60" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="E60" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F60" t="n">
-        <v>8103.5106</v>
+        <v>9775.2271</v>
       </c>
       <c r="G60" t="n">
-        <v>335017.2556136753</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2606,34 +2936,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C61" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D61" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="E61" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F61" t="n">
-        <v>803.1153</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="n">
-        <v>335017.2556136753</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2650,34 +2978,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="C62" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="D62" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="E62" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="F62" t="n">
-        <v>45104.8687</v>
+        <v>1102.8429</v>
       </c>
       <c r="G62" t="n">
-        <v>289912.3869136753</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2694,34 +3020,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C63" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D63" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="E63" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F63" t="n">
-        <v>49800</v>
+        <v>196.427</v>
       </c>
       <c r="G63" t="n">
-        <v>339712.3869136753</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>25.3</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2738,34 +3062,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C64" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="D64" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="E64" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>3877.2124</v>
       </c>
       <c r="G64" t="n">
-        <v>359712.3869136753</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2782,34 +3104,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="C65" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="D65" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="E65" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="F65" t="n">
-        <v>105272.3993</v>
+        <v>33764.3955</v>
       </c>
       <c r="G65" t="n">
-        <v>359712.3869136753</v>
+        <v>475765.6778136753</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2838,22 +3158,20 @@
         <v>25.8</v>
       </c>
       <c r="F66" t="n">
-        <v>1272.8311</v>
+        <v>27425.4494</v>
       </c>
       <c r="G66" t="n">
-        <v>360985.2180136753</v>
+        <v>448340.2284136753</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2870,34 +3188,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C67" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="D67" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="E67" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F67" t="n">
-        <v>29901.5782</v>
+        <v>60</v>
       </c>
       <c r="G67" t="n">
-        <v>360985.2180136753</v>
+        <v>448280.2284136753</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2914,34 +3230,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C68" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="D68" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E68" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="F68" t="n">
-        <v>52062.0412</v>
+        <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>360985.2180136753</v>
+        <v>448300.2284136753</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2958,34 +3272,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C69" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="D69" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E69" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="F69" t="n">
-        <v>1272.8311</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>359712.3869136753</v>
+        <v>448280.2284136753</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3002,34 +3314,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C70" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D70" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E70" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F70" t="n">
-        <v>500</v>
+        <v>33764.3955</v>
       </c>
       <c r="G70" t="n">
-        <v>359712.3869136753</v>
+        <v>414515.8329136753</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3046,7 +3356,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C71" t="n">
         <v>25.8</v>
@@ -3055,25 +3365,23 @@
         <v>25.8</v>
       </c>
       <c r="E71" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F71" t="n">
-        <v>1247.8126</v>
+        <v>12665.9323</v>
       </c>
       <c r="G71" t="n">
-        <v>360960.1995136753</v>
+        <v>427181.7652136753</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3090,34 +3398,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C72" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="D72" t="n">
-        <v>26.2</v>
+        <v>25.6</v>
       </c>
       <c r="E72" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="F72" t="n">
-        <v>67696.514</v>
+        <v>10000</v>
       </c>
       <c r="G72" t="n">
-        <v>428656.7135136753</v>
+        <v>417181.7652136753</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3134,22 +3440,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="C73" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="D73" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="E73" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="F73" t="n">
-        <v>312.0949</v>
+        <v>20000</v>
       </c>
       <c r="G73" t="n">
-        <v>428656.7135136753</v>
+        <v>397181.7652136753</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3159,7 +3465,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3176,22 +3482,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="C74" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="D74" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="E74" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="F74" t="n">
-        <v>88696.405</v>
+        <v>1087.0166</v>
       </c>
       <c r="G74" t="n">
-        <v>428656.7135136753</v>
+        <v>397181.7652136753</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3201,7 +3507,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3218,22 +3524,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="C75" t="n">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="D75" t="n">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="E75" t="n">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="F75" t="n">
-        <v>18800</v>
+        <v>12665.9323</v>
       </c>
       <c r="G75" t="n">
-        <v>447456.7135136753</v>
+        <v>384515.8329136753</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3243,7 +3549,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3260,22 +3566,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="C76" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="D76" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="E76" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="F76" t="n">
-        <v>45.7564</v>
+        <v>18000</v>
       </c>
       <c r="G76" t="n">
-        <v>447502.4699136753</v>
+        <v>402515.8329136753</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3285,7 +3591,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3302,22 +3608,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="C77" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="D77" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="E77" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="F77" t="n">
-        <v>15491.574</v>
+        <v>49800</v>
       </c>
       <c r="G77" t="n">
-        <v>447502.4699136753</v>
+        <v>352715.8329136753</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3327,7 +3633,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3344,22 +3650,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="C78" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="D78" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="E78" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="F78" t="n">
-        <v>144887.4058</v>
+        <v>2018.4217</v>
       </c>
       <c r="G78" t="n">
-        <v>302615.0641136753</v>
+        <v>352715.8329136753</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3369,7 +3675,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3386,22 +3692,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="C79" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="D79" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="E79" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="F79" t="n">
-        <v>15612.1884</v>
+        <v>4000</v>
       </c>
       <c r="G79" t="n">
-        <v>318227.2525136753</v>
+        <v>352715.8329136753</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3411,7 +3717,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3428,22 +3734,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="C80" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="D80" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="E80" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F80" t="n">
-        <v>60893.0661</v>
+        <v>50000</v>
       </c>
       <c r="G80" t="n">
-        <v>318227.2525136753</v>
+        <v>302715.8329136753</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3453,7 +3759,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3470,22 +3776,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="C81" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="D81" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="E81" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F81" t="n">
-        <v>4844.5439</v>
+        <v>803.0874</v>
       </c>
       <c r="G81" t="n">
-        <v>318227.2525136753</v>
+        <v>302715.8329136753</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3495,7 +3801,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3512,22 +3818,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="C82" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="D82" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="E82" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="F82" t="n">
-        <v>3182.5989</v>
+        <v>62887.0232</v>
       </c>
       <c r="G82" t="n">
-        <v>318227.2525136753</v>
+        <v>365602.8561136753</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3537,7 +3843,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3554,22 +3860,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="C83" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="D83" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="E83" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="F83" t="n">
-        <v>140822.6085</v>
+        <v>7962.5288</v>
       </c>
       <c r="G83" t="n">
-        <v>177404.6440136752</v>
+        <v>365602.8561136753</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3579,7 +3885,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3596,22 +3902,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="C84" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="D84" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="E84" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="F84" t="n">
-        <v>1374.7464</v>
+        <v>23379.0523</v>
       </c>
       <c r="G84" t="n">
-        <v>178779.3904136753</v>
+        <v>388981.9084136753</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3621,7 +3927,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3638,22 +3944,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="C85" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="D85" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="E85" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F85" t="n">
-        <v>44.938</v>
+        <v>62887.0232</v>
       </c>
       <c r="G85" t="n">
-        <v>178824.3284136752</v>
+        <v>326094.8852136753</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3663,7 +3969,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3680,22 +3986,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="C86" t="n">
-        <v>26.5</v>
+        <v>25.2</v>
       </c>
       <c r="D86" t="n">
-        <v>26.5</v>
+        <v>25.2</v>
       </c>
       <c r="E86" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="F86" t="n">
-        <v>4000</v>
+        <v>92.4926</v>
       </c>
       <c r="G86" t="n">
-        <v>182824.3284136752</v>
+        <v>326094.8852136753</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3705,7 +4011,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3722,22 +4028,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="C87" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="D87" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="E87" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="F87" t="n">
-        <v>6940.395</v>
+        <v>212.7</v>
       </c>
       <c r="G87" t="n">
-        <v>182824.3284136752</v>
+        <v>326307.5852136753</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3747,7 +4053,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3764,22 +4070,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="C88" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="D88" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="E88" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="F88" t="n">
-        <v>695.4748</v>
+        <v>606.1598</v>
       </c>
       <c r="G88" t="n">
-        <v>182824.3284136752</v>
+        <v>326913.7450136753</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3789,7 +4095,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3806,22 +4112,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="C89" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D89" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="E89" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>8103.5106</v>
       </c>
       <c r="G89" t="n">
-        <v>182824.3284136752</v>
+        <v>335017.2556136753</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3831,7 +4137,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3848,22 +4154,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="C90" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="D90" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="E90" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="F90" t="n">
-        <v>3090.6944</v>
+        <v>803.1153</v>
       </c>
       <c r="G90" t="n">
-        <v>179733.6340136752</v>
+        <v>335017.2556136753</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3873,7 +4179,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3890,22 +4196,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="C91" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="D91" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="E91" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="F91" t="n">
-        <v>54564.3521</v>
+        <v>45104.8687</v>
       </c>
       <c r="G91" t="n">
-        <v>234297.9861136752</v>
+        <v>289912.3869136753</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3915,7 +4221,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3932,22 +4238,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="C92" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D92" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="E92" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="F92" t="n">
-        <v>84588.0019</v>
+        <v>49800</v>
       </c>
       <c r="G92" t="n">
-        <v>234297.9861136752</v>
+        <v>339712.3869136753</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3957,7 +4263,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3974,22 +4280,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.6</v>
+        <v>25.5</v>
       </c>
       <c r="C93" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="D93" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="E93" t="n">
-        <v>26.6</v>
+        <v>25.5</v>
       </c>
       <c r="F93" t="n">
-        <v>45909.96454285715</v>
+        <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>280207.9506565324</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3999,7 +4305,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4016,22 +4322,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="C94" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="D94" t="n">
-        <v>26.7</v>
+        <v>25.6</v>
       </c>
       <c r="E94" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="F94" t="n">
-        <v>182592.9552348315</v>
+        <v>105272.3993</v>
       </c>
       <c r="G94" t="n">
-        <v>280207.9506565324</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4041,7 +4347,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4058,22 +4364,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="C95" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="D95" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="E95" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="F95" t="n">
-        <v>95669.00716516854</v>
+        <v>1272.8311</v>
       </c>
       <c r="G95" t="n">
-        <v>375876.9578217009</v>
+        <v>360985.2180136753</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4083,7 +4389,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4100,22 +4406,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="C96" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="D96" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="E96" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="F96" t="n">
-        <v>10129.8701</v>
+        <v>29901.5782</v>
       </c>
       <c r="G96" t="n">
-        <v>386006.8279217009</v>
+        <v>360985.2180136753</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4125,7 +4431,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4142,22 +4448,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="C97" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="D97" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="E97" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="F97" t="n">
-        <v>68360.66710000001</v>
+        <v>52062.0412</v>
       </c>
       <c r="G97" t="n">
-        <v>454367.4950217009</v>
+        <v>360985.2180136753</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4167,7 +4473,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4184,22 +4490,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="C98" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="D98" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="E98" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="F98" t="n">
-        <v>22022.6135</v>
+        <v>1272.8311</v>
       </c>
       <c r="G98" t="n">
-        <v>432344.8815217009</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4209,7 +4515,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4226,22 +4532,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="C99" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="D99" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="E99" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="F99" t="n">
-        <v>40000</v>
+        <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>472344.8815217009</v>
+        <v>359712.3869136753</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4251,7 +4557,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4268,22 +4574,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="C100" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="D100" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="E100" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="F100" t="n">
-        <v>48090.4541</v>
+        <v>1247.8126</v>
       </c>
       <c r="G100" t="n">
-        <v>472344.8815217009</v>
+        <v>360960.1995136753</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4293,7 +4599,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4310,22 +4616,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="C101" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="D101" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="E101" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="F101" t="n">
-        <v>176186.1855</v>
+        <v>67696.514</v>
       </c>
       <c r="G101" t="n">
-        <v>648531.0670217009</v>
+        <v>428656.7135136753</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4335,7 +4641,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4352,22 +4658,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="C102" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="D102" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="E102" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="F102" t="n">
-        <v>86177.1131</v>
+        <v>312.0949</v>
       </c>
       <c r="G102" t="n">
-        <v>734708.1801217009</v>
+        <v>428656.7135136753</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4377,7 +4683,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4394,22 +4700,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C103" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D103" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E103" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="F103" t="n">
-        <v>169623.9086058394</v>
+        <v>88696.405</v>
       </c>
       <c r="G103" t="n">
-        <v>904332.0887275402</v>
+        <v>428656.7135136753</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4419,7 +4725,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4436,22 +4742,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="C104" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="D104" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E104" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="F104" t="n">
-        <v>58886.8515</v>
+        <v>18800</v>
       </c>
       <c r="G104" t="n">
-        <v>963218.9402275402</v>
+        <v>447456.7135136753</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4461,7 +4767,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4478,22 +4784,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C105" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="D105" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E105" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="F105" t="n">
-        <v>39330.8242</v>
+        <v>45.7564</v>
       </c>
       <c r="G105" t="n">
-        <v>963218.9402275402</v>
+        <v>447502.4699136753</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4503,7 +4809,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4520,22 +4826,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C106" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="D106" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E106" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="F106" t="n">
-        <v>27344.3093</v>
+        <v>15491.574</v>
       </c>
       <c r="G106" t="n">
-        <v>935874.6309275402</v>
+        <v>447502.4699136753</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4545,7 +4851,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4562,22 +4868,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C107" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D107" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="E107" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F107" t="n">
-        <v>66841.0012</v>
+        <v>144887.4058</v>
       </c>
       <c r="G107" t="n">
-        <v>1002715.63212754</v>
+        <v>302615.0641136753</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4587,7 +4893,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4604,22 +4910,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C108" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="D108" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="E108" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F108" t="n">
-        <v>198171.8585</v>
+        <v>15612.1884</v>
       </c>
       <c r="G108" t="n">
-        <v>1200887.49062754</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4629,7 +4935,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4646,76 +4952,80 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C109" t="n">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="D109" t="n">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="E109" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="F109" t="n">
-        <v>104022.6504</v>
+        <v>60893.0661</v>
       </c>
       <c r="G109" t="n">
-        <v>1304910.14102754</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1.096960784313726</v>
-      </c>
-      <c r="N109" t="n">
-        <v>1.079166666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="D110" t="n">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="E110" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="F110" t="n">
-        <v>209221.5673</v>
+        <v>4844.5439</v>
       </c>
       <c r="G110" t="n">
-        <v>1095688.57372754</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4726,32 +5036,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="C111" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="D111" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="E111" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="F111" t="n">
-        <v>493243.7988</v>
+        <v>3182.5989</v>
       </c>
       <c r="G111" t="n">
-        <v>1095688.57372754</v>
+        <v>318227.2525136753</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4762,32 +5078,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>28</v>
+        <v>26.3</v>
       </c>
       <c r="C112" t="n">
-        <v>27.7</v>
+        <v>25.9</v>
       </c>
       <c r="D112" t="n">
-        <v>28</v>
+        <v>26.3</v>
       </c>
       <c r="E112" t="n">
-        <v>27.6</v>
+        <v>25.9</v>
       </c>
       <c r="F112" t="n">
-        <v>192148.3723</v>
+        <v>140822.6085</v>
       </c>
       <c r="G112" t="n">
-        <v>903540.2014275403</v>
+        <v>177404.6440136752</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4798,32 +5120,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="C113" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="D113" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="E113" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="F113" t="n">
-        <v>105027.5005</v>
+        <v>1374.7464</v>
       </c>
       <c r="G113" t="n">
-        <v>798512.7009275403</v>
+        <v>178779.3904136753</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4834,32 +5162,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="C114" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="D114" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="E114" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="F114" t="n">
-        <v>166468.7267</v>
+        <v>44.938</v>
       </c>
       <c r="G114" t="n">
-        <v>964981.4276275403</v>
+        <v>178824.3284136752</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4870,32 +5204,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C115" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="D115" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="E115" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="F115" t="n">
-        <v>9236.759099999999</v>
+        <v>4000</v>
       </c>
       <c r="G115" t="n">
-        <v>964981.4276275403</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4906,32 +5246,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C116" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D116" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="E116" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="F116" t="n">
-        <v>37938.2087</v>
+        <v>6940.395</v>
       </c>
       <c r="G116" t="n">
-        <v>1002919.63632754</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4942,32 +5288,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="C117" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D117" t="n">
-        <v>27.7</v>
+        <v>26.5</v>
       </c>
       <c r="E117" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="F117" t="n">
-        <v>87021.2583</v>
+        <v>695.4748</v>
       </c>
       <c r="G117" t="n">
-        <v>1002919.63632754</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4978,32 +5330,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="C118" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="D118" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="E118" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="F118" t="n">
-        <v>4211.3366</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>998708.2997275402</v>
+        <v>182824.3284136752</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5014,32 +5372,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="C119" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="D119" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="E119" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F119" t="n">
-        <v>29193.9967</v>
+        <v>3090.6944</v>
       </c>
       <c r="G119" t="n">
-        <v>969514.3030275402</v>
+        <v>179733.6340136752</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5050,32 +5414,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="D120" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="E120" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="F120" t="n">
-        <v>13655.0632</v>
+        <v>54564.3521</v>
       </c>
       <c r="G120" t="n">
-        <v>983169.3662275402</v>
+        <v>234297.9861136752</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5086,32 +5456,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="C121" t="n">
-        <v>27.7</v>
+        <v>26.5</v>
       </c>
       <c r="D121" t="n">
-        <v>27.7</v>
+        <v>26.5</v>
       </c>
       <c r="E121" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="F121" t="n">
-        <v>110968.1933</v>
+        <v>84588.0019</v>
       </c>
       <c r="G121" t="n">
-        <v>1094137.55952754</v>
+        <v>234297.9861136752</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5122,32 +5498,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="C122" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="D122" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="E122" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="F122" t="n">
-        <v>21203.8696</v>
+        <v>45909.96454285715</v>
       </c>
       <c r="G122" t="n">
-        <v>1072933.68992754</v>
+        <v>280207.9506565324</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5158,32 +5540,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="C123" t="n">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="D123" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E123" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="F123" t="n">
-        <v>38224.9275</v>
+        <v>182592.9552348315</v>
       </c>
       <c r="G123" t="n">
-        <v>1034708.76242754</v>
+        <v>280207.9506565324</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5194,32 +5582,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="C124" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D124" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E124" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F124" t="n">
-        <v>26425.4738</v>
+        <v>95669.00716516854</v>
       </c>
       <c r="G124" t="n">
-        <v>1008283.28862754</v>
+        <v>375876.9578217009</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5230,32 +5624,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="C125" t="n">
         <v>26.8</v>
       </c>
       <c r="D125" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="E125" t="n">
         <v>26.8</v>
       </c>
       <c r="F125" t="n">
-        <v>411811.9223</v>
+        <v>10129.8701</v>
       </c>
       <c r="G125" t="n">
-        <v>596471.36632754</v>
+        <v>386006.8279217009</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5266,32 +5666,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C126" t="n">
         <v>26.9</v>
       </c>
       <c r="D126" t="n">
+        <v>27</v>
+      </c>
+      <c r="E126" t="n">
         <v>26.9</v>
       </c>
-      <c r="E126" t="n">
-        <v>26.8</v>
-      </c>
       <c r="F126" t="n">
-        <v>23326.5074</v>
+        <v>68360.66710000001</v>
       </c>
       <c r="G126" t="n">
-        <v>619797.87372754</v>
+        <v>454367.4950217009</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5302,22 +5708,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C127" t="n">
         <v>26.8</v>
       </c>
       <c r="D127" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E127" t="n">
         <v>26.8</v>
       </c>
       <c r="F127" t="n">
-        <v>40.6214</v>
+        <v>22022.6135</v>
       </c>
       <c r="G127" t="n">
-        <v>619757.2523275401</v>
+        <v>432344.8815217009</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5326,8 +5732,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5338,22 +5750,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="C128" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D128" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E128" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F128" t="n">
-        <v>167729.1756</v>
+        <v>40000</v>
       </c>
       <c r="G128" t="n">
-        <v>452028.0767275401</v>
+        <v>472344.8815217009</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5362,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5374,22 +5792,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C129" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D129" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E129" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F129" t="n">
-        <v>68508.31623483147</v>
+        <v>48090.4541</v>
       </c>
       <c r="G129" t="n">
-        <v>452028.0767275401</v>
+        <v>472344.8815217009</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5398,8 +5816,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5410,22 +5834,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C130" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="D130" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="E130" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F130" t="n">
-        <v>158182.946</v>
+        <v>176186.1855</v>
       </c>
       <c r="G130" t="n">
-        <v>293845.1307275401</v>
+        <v>648531.0670217009</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5434,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5446,22 +5876,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="C131" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="D131" t="n">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="E131" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="F131" t="n">
-        <v>2046.1067</v>
+        <v>86177.1131</v>
       </c>
       <c r="G131" t="n">
-        <v>293845.1307275401</v>
+        <v>734708.1801217009</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5470,8 +5900,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5482,22 +5918,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="C132" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D132" t="n">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="E132" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="F132" t="n">
-        <v>208494.5103</v>
+        <v>169623.9086058394</v>
       </c>
       <c r="G132" t="n">
-        <v>85350.62042754013</v>
+        <v>904332.0887275402</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5506,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5518,64 +5960,72 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="C133" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="D133" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="E133" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="F133" t="n">
-        <v>263070.7756</v>
+        <v>58886.8515</v>
       </c>
       <c r="G133" t="n">
-        <v>-177720.1551724599</v>
+        <v>963218.9402275402</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>1.164491525423729</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1.004237288135593</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="C134" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="D134" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="E134" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="F134" t="n">
-        <v>221620.8026</v>
+        <v>39330.8242</v>
       </c>
       <c r="G134" t="n">
-        <v>-399340.9577724598</v>
+        <v>963218.9402275402</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5590,28 +6040,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="C135" t="n">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="D135" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="E135" t="n">
-        <v>25.7</v>
+        <v>27.4</v>
       </c>
       <c r="F135" t="n">
-        <v>74672.425</v>
+        <v>27344.3093</v>
       </c>
       <c r="G135" t="n">
-        <v>-324668.5327724598</v>
+        <v>935874.6309275402</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5626,28 +6076,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="C136" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="D136" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="E136" t="n">
-        <v>25.8</v>
+        <v>27.4</v>
       </c>
       <c r="F136" t="n">
-        <v>75154.0756</v>
+        <v>66841.0012</v>
       </c>
       <c r="G136" t="n">
-        <v>-324668.5327724598</v>
+        <v>1002715.63212754</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5662,28 +6112,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>25.8</v>
+        <v>27.5</v>
       </c>
       <c r="C137" t="n">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="D137" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E137" t="n">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="F137" t="n">
-        <v>196376.6532</v>
+        <v>198171.8585</v>
       </c>
       <c r="G137" t="n">
-        <v>-128291.8795724598</v>
+        <v>1200887.49062754</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5698,28 +6148,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="C138" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="D138" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="E138" t="n">
-        <v>25.8</v>
+        <v>27.7</v>
       </c>
       <c r="F138" t="n">
-        <v>104700.243</v>
+        <v>104022.6504</v>
       </c>
       <c r="G138" t="n">
-        <v>-128291.8795724598</v>
+        <v>1304910.14102754</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5734,28 +6184,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="C139" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="D139" t="n">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="E139" t="n">
-        <v>26</v>
+        <v>27.7</v>
       </c>
       <c r="F139" t="n">
-        <v>320430.7782</v>
+        <v>209221.5673</v>
       </c>
       <c r="G139" t="n">
-        <v>192138.8986275402</v>
+        <v>1095688.57372754</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5770,28 +6220,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="C140" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="D140" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="E140" t="n">
-        <v>25.9</v>
+        <v>28</v>
       </c>
       <c r="F140" t="n">
-        <v>555429.3594</v>
+        <v>493243.7988</v>
       </c>
       <c r="G140" t="n">
-        <v>192138.8986275402</v>
+        <v>1095688.57372754</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5806,28 +6256,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="C141" t="n">
-        <v>25.8</v>
+        <v>27.7</v>
       </c>
       <c r="D141" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="E141" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="F141" t="n">
-        <v>87078.05869999999</v>
+        <v>192148.3723</v>
       </c>
       <c r="G141" t="n">
-        <v>105060.8399275402</v>
+        <v>903540.2014275403</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5842,28 +6292,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>25.8</v>
+        <v>27.7</v>
       </c>
       <c r="C142" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="D142" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="E142" t="n">
-        <v>25.7</v>
+        <v>27.3</v>
       </c>
       <c r="F142" t="n">
-        <v>99457.40360000001</v>
+        <v>105027.5005</v>
       </c>
       <c r="G142" t="n">
-        <v>204518.2435275402</v>
+        <v>798512.7009275403</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5878,28 +6328,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="C143" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="D143" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="E143" t="n">
-        <v>25.5</v>
+        <v>27.3</v>
       </c>
       <c r="F143" t="n">
-        <v>85394.4172</v>
+        <v>166468.7267</v>
       </c>
       <c r="G143" t="n">
-        <v>119123.8263275402</v>
+        <v>964981.4276275403</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5909,6 +6359,1050 @@
       </c>
       <c r="N143" t="inlineStr"/>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9236.759099999999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>964981.4276275403</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>37938.2087</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1002919.63632754</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>87021.2583</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1002919.63632754</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4211.3366</v>
+      </c>
+      <c r="G147" t="n">
+        <v>998708.2997275402</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>29193.9967</v>
+      </c>
+      <c r="G148" t="n">
+        <v>969514.3030275402</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27</v>
+      </c>
+      <c r="F149" t="n">
+        <v>13655.0632</v>
+      </c>
+      <c r="G149" t="n">
+        <v>983169.3662275402</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>110968.1933</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1094137.55952754</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>21203.8696</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1072933.68992754</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>38224.9275</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1034708.76242754</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>26425.4738</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1008283.28862754</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>411811.9223</v>
+      </c>
+      <c r="G154" t="n">
+        <v>596471.36632754</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23326.5074</v>
+      </c>
+      <c r="G155" t="n">
+        <v>619797.87372754</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27</v>
+      </c>
+      <c r="C156" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>40.6214</v>
+      </c>
+      <c r="G156" t="n">
+        <v>619757.2523275401</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>167729.1756</v>
+      </c>
+      <c r="G157" t="n">
+        <v>452028.0767275401</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>68508.31623483147</v>
+      </c>
+      <c r="G158" t="n">
+        <v>452028.0767275401</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>158182.946</v>
+      </c>
+      <c r="G159" t="n">
+        <v>293845.1307275401</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2046.1067</v>
+      </c>
+      <c r="G160" t="n">
+        <v>293845.1307275401</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>208494.5103</v>
+      </c>
+      <c r="G161" t="n">
+        <v>85350.62042754013</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>263070.7756</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-177720.1551724599</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>221620.8026</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-399340.9577724598</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>74672.425</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-324668.5327724598</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>75154.0756</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-324668.5327724598</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>26</v>
+      </c>
+      <c r="D166" t="n">
+        <v>26</v>
+      </c>
+      <c r="E166" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>196376.6532</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-128291.8795724598</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>26</v>
+      </c>
+      <c r="C167" t="n">
+        <v>26</v>
+      </c>
+      <c r="D167" t="n">
+        <v>26</v>
+      </c>
+      <c r="E167" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>104700.243</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-128291.8795724598</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>26</v>
+      </c>
+      <c r="C168" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>26</v>
+      </c>
+      <c r="F168" t="n">
+        <v>320430.7782</v>
+      </c>
+      <c r="G168" t="n">
+        <v>192138.8986275402</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F169" t="n">
+        <v>555429.3594</v>
+      </c>
+      <c r="G169" t="n">
+        <v>192138.8986275402</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>87078.05869999999</v>
+      </c>
+      <c r="G170" t="n">
+        <v>105060.8399275402</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>99457.40360000001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>204518.2435275402</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>85394.4172</v>
+      </c>
+      <c r="G172" t="n">
+        <v>119123.8263275402</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>22416.20881367519</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>30916.20881367519</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="J3" t="n">
         <v>23.6</v>
       </c>
-      <c r="K3" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>30916.20881367519</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J4" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>23.6</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>30916.20881367519</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J5" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>23.6</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>24916.20881367519</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J6" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>23.6</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>25079.20881367519</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="J7" t="n">
         <v>23.6</v>
       </c>
-      <c r="K7" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>24916.20881367519</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J8" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>25079.20881367519</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="J9" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>25101.20881367519</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J10" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>25101.20881367519</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J11" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>64501.20881367519</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J12" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>67113.37341367519</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="J13" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="J14" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +972,23 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>24</v>
-      </c>
-      <c r="K15" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1013,23 @@
         <v>81746.70641367519</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J16" t="n">
-        <v>24</v>
-      </c>
-      <c r="K16" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1054,23 @@
         <v>137746.7064136752</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="J17" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,24 +1095,23 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>24.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1190,24 +1136,23 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>24.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1232,24 +1177,23 @@
         <v>181648.9561136752</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>24.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1276,22 +1220,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1318,22 +1259,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1360,22 +1298,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1400,24 +1335,23 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1444,22 +1378,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1484,24 +1415,21 @@
         <v>179403.3169136752</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1526,24 +1454,21 @@
         <v>129403.3169136752</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1568,24 +1493,21 @@
         <v>129424.3169136752</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1610,24 +1532,21 @@
         <v>127828.2491136752</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1652,24 +1571,23 @@
         <v>127849.2491136752</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="J30" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1696,22 +1614,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1738,22 +1653,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1778,24 +1690,23 @@
         <v>159449.2491136752</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1822,22 +1733,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1864,22 +1772,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1906,22 +1811,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1948,22 +1850,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1990,22 +1889,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2030,24 +1926,21 @@
         <v>138977.4618136752</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2072,24 +1965,21 @@
         <v>138977.4618136752</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2114,24 +2004,21 @@
         <v>138581.5957136752</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2158,22 +2045,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2198,24 +2082,21 @@
         <v>189065.6384136752</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2240,24 +2121,21 @@
         <v>189065.6384136752</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2282,24 +2160,21 @@
         <v>233965.6384136752</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2324,24 +2199,21 @@
         <v>273965.6384136752</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2366,24 +2238,21 @@
         <v>267742.0302136752</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2408,24 +2277,21 @@
         <v>311570.0542136752</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2452,22 +2318,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2494,22 +2357,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2536,22 +2396,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2578,22 +2435,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2620,22 +2474,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2660,24 +2511,21 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2702,24 +2550,21 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2744,24 +2589,21 @@
         <v>442691.3737136752</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2786,24 +2628,21 @@
         <v>454458.2325136752</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2828,24 +2667,21 @@
         <v>455815.6778136753</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2870,24 +2706,21 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2912,24 +2745,21 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2954,24 +2784,21 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2996,24 +2823,21 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3038,24 +2862,21 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3080,24 +2901,21 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3122,24 +2940,21 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3164,24 +2979,21 @@
         <v>448340.2284136753</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3206,24 +3018,21 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3248,24 +3057,21 @@
         <v>448300.2284136753</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3290,24 +3096,21 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3332,24 +3135,21 @@
         <v>414515.8329136753</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3374,24 +3174,21 @@
         <v>427181.7652136753</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3416,24 +3213,21 @@
         <v>417181.7652136753</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3460,22 +3254,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3502,22 +3293,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3544,22 +3332,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3586,22 +3371,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3626,24 +3408,21 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3668,24 +3447,21 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3710,24 +3486,21 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3752,24 +3525,21 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3794,24 +3564,21 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3836,24 +3603,21 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3880,22 +3644,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3922,22 +3683,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3964,22 +3722,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4006,22 +3761,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4048,22 +3800,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4090,22 +3839,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4132,22 +3878,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4174,22 +3917,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4216,22 +3956,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4258,22 +3995,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4300,22 +4034,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4342,22 +4073,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4384,22 +4112,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4426,22 +4151,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4468,22 +4190,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4510,22 +4229,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4552,22 +4268,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4594,22 +4307,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4636,22 +4346,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4678,22 +4385,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4720,22 +4424,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4760,24 +4461,23 @@
         <v>447456.7135136753</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.109406779661017</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>1.004237288135593</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4802,24 +4502,15 @@
         <v>447502.4699136753</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4844,24 +4535,15 @@
         <v>447502.4699136753</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4886,24 +4568,15 @@
         <v>302615.0641136753</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4928,24 +4601,15 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4970,24 +4634,15 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5012,24 +4667,15 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5054,24 +4700,15 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5096,24 +4733,15 @@
         <v>177404.6440136752</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5138,24 +4766,15 @@
         <v>178779.3904136753</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5180,24 +4799,15 @@
         <v>178824.3284136752</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5222,24 +4832,15 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5264,24 +4865,15 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5306,24 +4898,15 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5348,24 +4931,15 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5392,22 +4966,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5434,22 +4999,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5474,24 +5030,15 @@
         <v>234297.9861136752</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5518,22 +5065,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5560,22 +5098,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5602,22 +5131,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5644,22 +5164,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5686,22 +5197,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5728,22 +5230,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5768,24 +5261,15 @@
         <v>472344.8815217009</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5810,24 +5294,15 @@
         <v>472344.8815217009</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5852,24 +5327,15 @@
         <v>648531.0670217009</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5896,22 +5362,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5938,22 +5395,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5980,24 +5428,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1.164491525423729</v>
-      </c>
-      <c r="N133" t="n">
-        <v>1.004237288135593</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6024,16 +5461,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6060,16 +5494,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6096,16 +5527,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6130,18 +5558,15 @@
         <v>1200887.49062754</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6166,18 +5591,15 @@
         <v>1304910.14102754</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6202,18 +5624,15 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6238,18 +5657,15 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6274,18 +5690,15 @@
         <v>903540.2014275403</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6310,18 +5723,15 @@
         <v>798512.7009275403</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6346,18 +5756,15 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6382,18 +5789,15 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6420,16 +5824,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6456,16 +5857,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6492,16 +5890,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6526,18 +5921,15 @@
         <v>969514.3030275402</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6562,18 +5954,15 @@
         <v>983169.3662275402</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6600,16 +5989,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6636,16 +6022,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6672,16 +6055,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6708,16 +6088,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6744,16 +6121,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6780,16 +6154,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6816,16 +6187,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6852,16 +6220,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6888,16 +6253,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6924,16 +6286,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6960,16 +6319,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6996,16 +6352,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7032,16 +6385,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7068,16 +6418,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7104,16 +6451,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7140,16 +6484,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7176,16 +6517,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7212,16 +6550,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7246,18 +6581,15 @@
         <v>192138.8986275402</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7284,16 +6616,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7320,16 +6649,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7356,16 +6682,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7392,18 +6715,15 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>22416.20881367519</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>30916.20881367519</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>23.6</v>
@@ -521,7 +521,7 @@
         <v>30916.20881367519</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>23.7</v>
@@ -562,7 +562,7 @@
         <v>30916.20881367519</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>23.7</v>
@@ -603,7 +603,7 @@
         <v>24916.20881367519</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>23.7</v>
@@ -644,7 +644,7 @@
         <v>25079.20881367519</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>23.6</v>
@@ -685,7 +685,7 @@
         <v>24916.20881367519</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>23.7</v>
@@ -726,7 +726,7 @@
         <v>25079.20881367519</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>23.4</v>
@@ -767,7 +767,7 @@
         <v>25101.20881367519</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>23.5</v>
@@ -808,7 +808,7 @@
         <v>25101.20881367519</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>23.7</v>
@@ -849,7 +849,7 @@
         <v>64501.20881367519</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>23.7</v>
@@ -890,7 +890,7 @@
         <v>67113.37341367519</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>23.8</v>
@@ -931,7 +931,7 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>23.9</v>
@@ -972,7 +972,7 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>24</v>
@@ -1013,7 +1013,7 @@
         <v>81746.70641367519</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>24</v>
@@ -1054,7 +1054,7 @@
         <v>137746.7064136752</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>24.2</v>
@@ -1095,7 +1095,7 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>24.5</v>
@@ -1136,7 +1136,7 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>24.6</v>
@@ -1177,7 +1177,7 @@
         <v>181648.9561136752</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>24.6</v>
@@ -1218,9 +1218,11 @@
         <v>181721.8417136752</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J21" t="n">
         <v>23.6</v>
       </c>
@@ -1257,9 +1259,11 @@
         <v>179334.8295136752</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J22" t="n">
         <v>23.6</v>
       </c>
@@ -1296,9 +1300,11 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J23" t="n">
         <v>23.6</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>24</v>
@@ -1376,9 +1382,11 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24</v>
+      </c>
       <c r="J25" t="n">
         <v>23.6</v>
       </c>
@@ -1417,7 +1425,9 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
       <c r="J26" t="n">
         <v>23.6</v>
       </c>
@@ -1456,7 +1466,9 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J27" t="n">
         <v>23.6</v>
       </c>
@@ -1495,7 +1507,9 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J28" t="n">
         <v>23.6</v>
       </c>
@@ -1534,7 +1548,9 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J29" t="n">
         <v>23.6</v>
       </c>
@@ -1571,7 +1587,7 @@
         <v>127849.2491136752</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>24</v>
@@ -1612,9 +1628,11 @@
         <v>249449.2491136752</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J31" t="n">
         <v>23.6</v>
       </c>
@@ -1651,9 +1669,11 @@
         <v>249449.2491136752</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J32" t="n">
         <v>23.6</v>
       </c>
@@ -1690,7 +1710,7 @@
         <v>159449.2491136752</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>24.4</v>
@@ -1731,9 +1751,11 @@
         <v>166342.9044136752</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J34" t="n">
         <v>23.6</v>
       </c>
@@ -1770,9 +1792,11 @@
         <v>166342.9044136752</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J35" t="n">
         <v>23.6</v>
       </c>
@@ -1809,9 +1833,11 @@
         <v>166342.9044136752</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J36" t="n">
         <v>23.6</v>
       </c>
@@ -1848,9 +1874,11 @@
         <v>176015.2852136752</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J37" t="n">
         <v>23.6</v>
       </c>
@@ -1887,9 +1915,11 @@
         <v>178989.2852136752</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J38" t="n">
         <v>23.6</v>
       </c>
@@ -1926,7 +1956,7 @@
         <v>138977.4618136752</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
@@ -1965,7 +1995,7 @@
         <v>138977.4618136752</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
@@ -2004,7 +2034,7 @@
         <v>138581.5957136752</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -2043,9 +2073,11 @@
         <v>98569.77231367523</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J42" t="n">
         <v>23.6</v>
       </c>
@@ -2084,7 +2116,9 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J43" t="n">
         <v>23.6</v>
       </c>
@@ -2123,7 +2157,9 @@
       <c r="H44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
       <c r="J44" t="n">
         <v>23.6</v>
       </c>
@@ -2162,7 +2198,9 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>25</v>
+      </c>
       <c r="J45" t="n">
         <v>23.6</v>
       </c>
@@ -2199,7 +2237,7 @@
         <v>273965.6384136752</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2238,7 +2276,7 @@
         <v>267742.0302136752</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
@@ -2277,7 +2315,7 @@
         <v>311570.0542136752</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
@@ -2511,7 +2549,7 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2550,7 +2588,7 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
@@ -2589,7 +2627,7 @@
         <v>442691.3737136752</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
@@ -2628,7 +2666,7 @@
         <v>454458.2325136752</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -2667,7 +2705,7 @@
         <v>455815.6778136753</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
@@ -2706,7 +2744,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
@@ -2745,7 +2783,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
@@ -2784,7 +2822,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
@@ -2823,7 +2861,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
@@ -2862,7 +2900,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2901,7 +2939,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
@@ -2940,7 +2978,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
@@ -2979,7 +3017,7 @@
         <v>448340.2284136753</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
@@ -3018,7 +3056,7 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
@@ -3057,7 +3095,7 @@
         <v>448300.2284136753</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
@@ -3096,7 +3134,7 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
@@ -3135,7 +3173,7 @@
         <v>414515.8329136753</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
@@ -3174,7 +3212,7 @@
         <v>427181.7652136753</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
@@ -3213,7 +3251,7 @@
         <v>417181.7652136753</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
@@ -3408,7 +3446,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
@@ -3447,7 +3485,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -3486,7 +3524,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
@@ -3525,7 +3563,7 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
@@ -3564,7 +3602,7 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
@@ -3603,7 +3641,7 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
@@ -4461,7 +4499,7 @@
         <v>447456.7135136753</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
@@ -4469,15 +4507,13 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.109406779661017</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.004237288135593</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4502,11 +4538,17 @@
         <v>447502.4699136753</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4535,11 +4577,17 @@
         <v>447502.4699136753</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4568,11 +4616,17 @@
         <v>302615.0641136753</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +4655,17 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4694,17 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4667,11 +4733,17 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4772,17 @@
         <v>318227.2525136753</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4733,11 +4811,17 @@
         <v>177404.6440136752</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4766,11 +4850,17 @@
         <v>178779.3904136753</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4889,17 @@
         <v>178824.3284136752</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +4928,17 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4865,11 +4967,17 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +5006,17 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +5045,17 @@
         <v>182824.3284136752</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4967,8 +5087,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5000,8 +5126,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +5162,17 @@
         <v>234297.9861136752</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5066,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5099,8 +5243,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5132,8 +5282,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5165,8 +5321,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5198,8 +5360,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5231,8 +5399,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5261,11 +5435,17 @@
         <v>472344.8815217009</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5294,11 +5474,17 @@
         <v>472344.8815217009</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5327,11 +5513,17 @@
         <v>648531.0670217009</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5363,8 +5555,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5396,8 +5594,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5633,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5672,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5495,8 +5711,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5528,8 +5750,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +5786,17 @@
         <v>1200887.49062754</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5591,15 +5825,23 @@
         <v>1304910.14102754</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>1.185677966101695</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.004237288135593</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5624,7 +5866,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5657,7 +5899,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5690,7 +5932,7 @@
         <v>903540.2014275403</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5723,7 +5965,7 @@
         <v>798512.7009275403</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5756,7 +5998,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5789,7 +6031,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5822,7 +6064,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5855,7 +6097,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5888,7 +6130,7 @@
         <v>998708.2997275402</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5921,7 +6163,7 @@
         <v>969514.3030275402</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5954,7 +6196,7 @@
         <v>983169.3662275402</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5987,7 +6229,7 @@
         <v>1094137.55952754</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6020,7 +6262,7 @@
         <v>1072933.68992754</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6053,7 +6295,7 @@
         <v>1034708.76242754</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6086,7 +6328,7 @@
         <v>1008283.28862754</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6119,7 +6361,7 @@
         <v>596471.36632754</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6152,7 +6394,7 @@
         <v>619797.87372754</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6185,7 +6427,7 @@
         <v>619757.2523275401</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6218,7 +6460,7 @@
         <v>452028.0767275401</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6251,7 +6493,7 @@
         <v>452028.0767275401</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6284,7 +6526,7 @@
         <v>293845.1307275401</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6317,7 +6559,7 @@
         <v>293845.1307275401</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6350,7 +6592,7 @@
         <v>85350.62042754013</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6383,7 +6625,7 @@
         <v>-177720.1551724599</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6416,7 +6658,7 @@
         <v>-399340.9577724598</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6482,7 +6724,7 @@
         <v>-324668.5327724598</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6515,7 +6757,7 @@
         <v>-128291.8795724598</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6548,7 +6790,7 @@
         <v>-128291.8795724598</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6581,7 +6823,7 @@
         <v>192138.8986275402</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6614,7 +6856,7 @@
         <v>192138.8986275402</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6647,7 +6889,7 @@
         <v>105060.8399275402</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6680,7 +6922,7 @@
         <v>204518.2435275402</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6713,7 +6955,7 @@
         <v>119123.8263275402</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6724,6 +6966,6 @@
       <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -931,11 +931,9 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>23.6</v>
       </c>
@@ -972,11 +970,9 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>23.6</v>
       </c>
@@ -1013,11 +1009,9 @@
         <v>81746.70641367519</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>23.6</v>
       </c>
@@ -1054,11 +1048,9 @@
         <v>137746.7064136752</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>23.6</v>
       </c>
@@ -1095,11 +1087,9 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>23.6</v>
       </c>
@@ -1136,11 +1126,9 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>23.6</v>
       </c>
@@ -1177,11 +1165,9 @@
         <v>181648.9561136752</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>23.6</v>
       </c>
@@ -1218,11 +1204,9 @@
         <v>181721.8417136752</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>23.6</v>
       </c>
@@ -1259,11 +1243,9 @@
         <v>179334.8295136752</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>23.6</v>
       </c>
@@ -1300,11 +1282,9 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>23.6</v>
       </c>
@@ -1341,11 +1321,9 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>23.6</v>
       </c>
@@ -1382,11 +1360,9 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>23.6</v>
       </c>
@@ -1423,11 +1399,9 @@
         <v>179403.3169136752</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>23.6</v>
       </c>
@@ -1464,11 +1438,9 @@
         <v>129403.3169136752</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>23.6</v>
       </c>
@@ -1505,11 +1477,9 @@
         <v>129424.3169136752</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>23.6</v>
       </c>
@@ -1546,11 +1516,9 @@
         <v>127828.2491136752</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>23.6</v>
       </c>
@@ -1587,11 +1555,9 @@
         <v>127849.2491136752</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>23.6</v>
       </c>
@@ -1628,11 +1594,9 @@
         <v>249449.2491136752</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>23.6</v>
       </c>
@@ -1669,11 +1633,9 @@
         <v>249449.2491136752</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>23.6</v>
       </c>
@@ -1710,11 +1672,9 @@
         <v>159449.2491136752</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>23.6</v>
       </c>
@@ -1751,11 +1711,9 @@
         <v>166342.9044136752</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>23.6</v>
       </c>
@@ -1792,11 +1750,9 @@
         <v>166342.9044136752</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>23.6</v>
       </c>
@@ -1833,11 +1789,9 @@
         <v>166342.9044136752</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>23.6</v>
       </c>
@@ -1874,11 +1828,9 @@
         <v>176015.2852136752</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>23.6</v>
       </c>
@@ -1915,11 +1867,9 @@
         <v>178989.2852136752</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>23.6</v>
       </c>
@@ -2034,7 +1984,7 @@
         <v>138581.5957136752</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -2042,11 +1992,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>1.041610169491525</v>
       </c>
       <c r="M41" t="inlineStr"/>
     </row>
@@ -2073,19 +2023,11 @@
         <v>98569.77231367523</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2114,19 +2056,11 @@
         <v>189065.6384136752</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2155,19 +2089,11 @@
         <v>189065.6384136752</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>25</v>
-      </c>
-      <c r="J44" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2196,19 +2122,11 @@
         <v>233965.6384136752</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>25</v>
-      </c>
-      <c r="J45" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +2158,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2276,17 +2188,11 @@
         <v>267742.0302136752</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2315,17 +2221,11 @@
         <v>311570.0542136752</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2354,17 +2254,11 @@
         <v>333170.0542136752</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2393,17 +2287,11 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2432,17 +2320,11 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2471,17 +2353,11 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2510,17 +2386,11 @@
         <v>428709.3325741495</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2549,17 +2419,11 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2588,17 +2452,11 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2627,17 +2485,11 @@
         <v>442691.3737136752</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2666,17 +2518,11 @@
         <v>454458.2325136752</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2705,17 +2551,11 @@
         <v>455815.6778136753</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2744,17 +2584,11 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2783,17 +2617,11 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2822,17 +2650,11 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2861,17 +2683,11 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2900,17 +2716,11 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2939,17 +2749,11 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2978,17 +2782,11 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3017,17 +2815,11 @@
         <v>448340.2284136753</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3056,17 +2848,11 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3095,17 +2881,11 @@
         <v>448300.2284136753</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3134,17 +2914,11 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3173,17 +2947,11 @@
         <v>414515.8329136753</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3212,17 +2980,11 @@
         <v>427181.7652136753</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3251,17 +3013,11 @@
         <v>417181.7652136753</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3290,17 +3046,11 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3329,17 +3079,11 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3368,17 +3112,11 @@
         <v>384515.8329136753</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3407,17 +3145,11 @@
         <v>402515.8329136753</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3446,17 +3178,11 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3485,17 +3211,11 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3524,17 +3244,11 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3563,17 +3277,11 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3602,17 +3310,11 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3641,17 +3343,11 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3680,17 +3376,11 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3719,17 +3409,11 @@
         <v>388981.9084136753</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3758,17 +3442,11 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3797,17 +3475,11 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3836,17 +3508,11 @@
         <v>326307.5852136753</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3875,17 +3541,11 @@
         <v>326913.7450136753</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3914,17 +3574,11 @@
         <v>335017.2556136753</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3956,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3992,17 +3640,11 @@
         <v>289912.3869136753</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4031,17 +3673,11 @@
         <v>339712.3869136753</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4070,17 +3706,11 @@
         <v>359712.3869136753</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4112,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4151,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4190,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4346,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4385,14 +3973,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4424,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4463,14 +4039,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4502,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4541,14 +4105,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4580,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4619,14 +4171,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4658,14 +4204,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4697,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4736,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4775,14 +4303,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4814,14 +4336,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4853,14 +4369,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4892,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4931,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4970,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5009,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5048,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5087,14 +4567,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +4666,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +4732,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5321,14 +4765,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5360,14 +4798,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5399,14 +4831,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5438,14 +4864,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5477,14 +4897,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +4930,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5555,14 +4963,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5594,14 +4996,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5633,14 +5029,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5672,14 +5062,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5095,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5750,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5789,14 +5161,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5825,23 +5191,15 @@
         <v>1304910.14102754</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>1.185677966101695</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.004237288135593</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5866,7 +5224,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5899,7 +5257,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5932,7 +5290,7 @@
         <v>903540.2014275403</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5965,7 +5323,7 @@
         <v>798512.7009275403</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5998,7 +5356,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6031,7 +5389,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6064,7 +5422,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6097,7 +5455,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6130,7 +5488,7 @@
         <v>998708.2997275402</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6163,7 +5521,7 @@
         <v>969514.3030275402</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6196,7 +5554,7 @@
         <v>983169.3662275402</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6229,7 +5587,7 @@
         <v>1094137.55952754</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6262,7 +5620,7 @@
         <v>1072933.68992754</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6295,7 +5653,7 @@
         <v>1034708.76242754</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6328,7 +5686,7 @@
         <v>1008283.28862754</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6361,7 +5719,7 @@
         <v>596471.36632754</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6394,7 +5752,7 @@
         <v>619797.87372754</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6427,7 +5785,7 @@
         <v>619757.2523275401</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6460,7 +5818,7 @@
         <v>452028.0767275401</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6493,7 +5851,7 @@
         <v>452028.0767275401</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6526,7 +5884,7 @@
         <v>293845.1307275401</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6559,7 +5917,7 @@
         <v>293845.1307275401</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6592,7 +5950,7 @@
         <v>85350.62042754013</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6625,7 +5983,7 @@
         <v>-177720.1551724599</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6658,7 +6016,7 @@
         <v>-399340.9577724598</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6724,7 +6082,7 @@
         <v>-324668.5327724598</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6757,7 +6115,7 @@
         <v>-128291.8795724598</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6790,7 +6148,7 @@
         <v>-128291.8795724598</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6823,7 +6181,7 @@
         <v>192138.8986275402</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6856,7 +6214,7 @@
         <v>192138.8986275402</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6889,7 +6247,7 @@
         <v>105060.8399275402</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6922,7 +6280,7 @@
         <v>204518.2435275402</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6955,7 +6313,7 @@
         <v>119123.8263275402</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6966,6 +6324,6 @@
       <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -931,9 +931,11 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J14" t="n">
         <v>23.6</v>
       </c>
@@ -970,9 +972,11 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24</v>
+      </c>
       <c r="J15" t="n">
         <v>23.6</v>
       </c>
@@ -1009,9 +1013,11 @@
         <v>81746.70641367519</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24</v>
+      </c>
       <c r="J16" t="n">
         <v>23.6</v>
       </c>
@@ -1048,9 +1054,11 @@
         <v>137746.7064136752</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J17" t="n">
         <v>23.6</v>
       </c>
@@ -1087,9 +1095,11 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J18" t="n">
         <v>23.6</v>
       </c>
@@ -1126,9 +1136,11 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J19" t="n">
         <v>23.6</v>
       </c>
@@ -1165,9 +1177,11 @@
         <v>181648.9561136752</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J20" t="n">
         <v>23.6</v>
       </c>
@@ -1321,9 +1335,11 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
       <c r="J24" t="n">
         <v>23.6</v>
       </c>
@@ -1984,7 +2000,7 @@
         <v>138581.5957136752</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -1992,11 +2008,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.041610169491525</v>
+        <v>1</v>
       </c>
       <c r="M41" t="inlineStr"/>
     </row>
@@ -2026,8 +2042,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2059,8 +2081,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2092,8 +2120,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2125,8 +2159,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2158,8 +2198,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2234,17 @@
         <v>267742.0302136752</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2273,17 @@
         <v>311570.0542136752</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2312,17 @@
         <v>333170.0542136752</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2287,11 +2351,17 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2320,11 +2390,17 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2429,17 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2386,11 +2468,17 @@
         <v>428709.3325741495</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2419,11 +2507,17 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2452,11 +2546,17 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2485,11 +2585,17 @@
         <v>442691.3737136752</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2624,17 @@
         <v>454458.2325136752</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2551,11 +2663,17 @@
         <v>455815.6778136753</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2702,17 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,11 +2741,17 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2650,11 +2780,17 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2683,11 +2819,17 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2716,11 +2858,17 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2749,11 +2897,17 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2782,11 +2936,17 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2815,11 +2975,17 @@
         <v>448340.2284136753</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2848,11 +3014,17 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2881,11 +3053,17 @@
         <v>448300.2284136753</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2914,11 +3092,17 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2947,11 +3131,17 @@
         <v>414515.8329136753</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2980,11 +3170,17 @@
         <v>427181.7652136753</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3013,11 +3209,17 @@
         <v>417181.7652136753</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3046,11 +3248,17 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3079,11 +3287,17 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3112,11 +3326,17 @@
         <v>384515.8329136753</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3145,11 +3365,17 @@
         <v>402515.8329136753</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3178,11 +3404,17 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +3443,17 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3244,11 +3482,17 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3277,11 +3521,17 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3310,11 +3560,17 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3343,11 +3599,17 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3638,17 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3409,11 +3677,17 @@
         <v>388981.9084136753</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3442,11 +3716,17 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3475,11 +3755,17 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3508,11 +3794,17 @@
         <v>326307.5852136753</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3541,11 +3833,17 @@
         <v>326913.7450136753</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3574,11 +3872,17 @@
         <v>335017.2556136753</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3610,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3640,11 +3950,17 @@
         <v>289912.3869136753</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3673,11 +3989,17 @@
         <v>339712.3869136753</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3706,11 +4028,17 @@
         <v>359712.3869136753</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3742,8 +4070,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3775,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3808,8 +4148,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3841,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3874,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3907,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3940,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3973,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4006,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4039,8 +4421,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4072,8 +4460,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4105,8 +4499,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4138,8 +4538,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4171,8 +4577,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4204,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4655,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4270,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4303,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4336,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4369,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4402,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4435,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4468,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4501,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4534,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4567,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4600,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4633,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4666,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4732,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4765,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4831,8 +5357,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +5396,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4897,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +5474,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4963,8 +5513,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4996,8 +5552,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5029,8 +5591,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +5630,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5095,8 +5669,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5128,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5158,15 +5744,23 @@
         <v>1200887.49062754</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>1.172966101694915</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.004237288135593</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5191,7 +5785,7 @@
         <v>1304910.14102754</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5224,7 +5818,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5257,7 +5851,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5290,7 +5884,7 @@
         <v>903540.2014275403</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5323,7 +5917,7 @@
         <v>798512.7009275403</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5356,7 +5950,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5422,7 +6016,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5455,7 +6049,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5488,7 +6082,7 @@
         <v>998708.2997275402</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5521,7 +6115,7 @@
         <v>969514.3030275402</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5554,7 +6148,7 @@
         <v>983169.3662275402</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5620,7 +6214,7 @@
         <v>1072933.68992754</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5653,7 +6247,7 @@
         <v>1034708.76242754</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5686,7 +6280,7 @@
         <v>1008283.28862754</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5719,7 +6313,7 @@
         <v>596471.36632754</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5752,7 +6346,7 @@
         <v>619797.87372754</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest LBA.xlsx
+++ b/BackTest/2019-11-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>8000</v>
       </c>
       <c r="G2" t="n">
-        <v>22416.20881367519</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>8500</v>
       </c>
       <c r="G3" t="n">
-        <v>30916.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>23.6</v>
       </c>
       <c r="I3" t="n">
         <v>23.6</v>
       </c>
-      <c r="J3" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>16500</v>
       </c>
       <c r="G4" t="n">
-        <v>30916.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I4" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>23.6</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>12000</v>
       </c>
       <c r="G5" t="n">
-        <v>30916.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I5" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>23.6</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>6000</v>
       </c>
       <c r="G6" t="n">
-        <v>24916.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I6" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>23.6</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>163</v>
       </c>
       <c r="G7" t="n">
-        <v>25079.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>23.6</v>
       </c>
       <c r="I7" t="n">
         <v>23.6</v>
       </c>
-      <c r="J7" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>163</v>
       </c>
       <c r="G8" t="n">
-        <v>24916.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I8" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>25079.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>23.4</v>
       </c>
       <c r="I9" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +735,23 @@
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>25101.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="I10" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +773,23 @@
         <v>22879.8305</v>
       </c>
       <c r="G11" t="n">
-        <v>25101.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I11" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +811,23 @@
         <v>39400</v>
       </c>
       <c r="G12" t="n">
-        <v>64501.20881367519</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I12" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +849,23 @@
         <v>2612.1646</v>
       </c>
       <c r="G13" t="n">
-        <v>67113.37341367519</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>23.8</v>
       </c>
       <c r="I13" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +887,23 @@
         <v>833.333</v>
       </c>
       <c r="G14" t="n">
-        <v>67946.70641367519</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>23.9</v>
       </c>
       <c r="I14" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +925,23 @@
         <v>166.667</v>
       </c>
       <c r="G15" t="n">
-        <v>67946.70641367519</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +963,23 @@
         <v>13800</v>
       </c>
       <c r="G16" t="n">
-        <v>81746.70641367519</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +1001,23 @@
         <v>56000</v>
       </c>
       <c r="G17" t="n">
-        <v>137746.7064136752</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>24.2</v>
       </c>
       <c r="I17" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1039,23 @@
         <v>49682.9118</v>
       </c>
       <c r="G18" t="n">
-        <v>187429.6182136752</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>24.5</v>
       </c>
       <c r="I18" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,26 +1077,23 @@
         <v>72672.2686</v>
       </c>
       <c r="G19" t="n">
-        <v>187429.6182136752</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>24.6</v>
       </c>
       <c r="I19" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,26 +1115,23 @@
         <v>5780.6621</v>
       </c>
       <c r="G20" t="n">
-        <v>181648.9561136752</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>24.6</v>
       </c>
       <c r="I20" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1215,24 +1153,23 @@
         <v>72.8856</v>
       </c>
       <c r="G21" t="n">
-        <v>181721.8417136752</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>24.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1254,24 +1191,23 @@
         <v>2387.0122</v>
       </c>
       <c r="G22" t="n">
-        <v>179334.8295136752</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>24.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,24 +1229,23 @@
         <v>52.5126</v>
       </c>
       <c r="G23" t="n">
-        <v>179282.3169136752</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>24.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1332,26 +1267,23 @@
         <v>853.1858999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>179282.3169136752</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>23.6</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1373,24 +1305,23 @@
         <v>76938.38370000001</v>
       </c>
       <c r="G25" t="n">
-        <v>179282.3169136752</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,24 +1343,23 @@
         <v>121</v>
       </c>
       <c r="G26" t="n">
-        <v>179403.3169136752</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1451,24 +1381,23 @@
         <v>50000</v>
       </c>
       <c r="G27" t="n">
-        <v>129403.3169136752</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>24.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1490,24 +1419,23 @@
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>129424.3169136752</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>24.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1529,24 +1457,23 @@
         <v>1596.0678</v>
       </c>
       <c r="G29" t="n">
-        <v>127828.2491136752</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>24.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1568,24 +1495,23 @@
         <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>127849.2491136752</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1607,24 +1533,23 @@
         <v>121600</v>
       </c>
       <c r="G31" t="n">
-        <v>249449.2491136752</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>24.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1646,24 +1571,23 @@
         <v>168544.4928</v>
       </c>
       <c r="G32" t="n">
-        <v>249449.2491136752</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1685,24 +1609,23 @@
         <v>90000</v>
       </c>
       <c r="G33" t="n">
-        <v>159449.2491136752</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1724,24 +1647,23 @@
         <v>6893.6553</v>
       </c>
       <c r="G34" t="n">
-        <v>166342.9044136752</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>24.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1763,24 +1685,23 @@
         <v>15163.9344</v>
       </c>
       <c r="G35" t="n">
-        <v>166342.9044136752</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1802,24 +1723,23 @@
         <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>166342.9044136752</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1841,24 +1761,23 @@
         <v>9672.380800000001</v>
       </c>
       <c r="G37" t="n">
-        <v>176015.2852136752</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,24 +1799,21 @@
         <v>2974</v>
       </c>
       <c r="G38" t="n">
-        <v>178989.2852136752</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1919,24 +1835,21 @@
         <v>40011.8234</v>
       </c>
       <c r="G39" t="n">
-        <v>138977.4618136752</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1958,24 +1871,21 @@
         <v>40160.65</v>
       </c>
       <c r="G40" t="n">
-        <v>138977.4618136752</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1997,24 +1907,21 @@
         <v>395.8661</v>
       </c>
       <c r="G41" t="n">
-        <v>138581.5957136752</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2036,24 +1943,23 @@
         <v>40011.8234</v>
       </c>
       <c r="G42" t="n">
-        <v>98569.77231367523</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>24.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2075,24 +1981,23 @@
         <v>90495.8661</v>
       </c>
       <c r="G43" t="n">
-        <v>189065.6384136752</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>24.6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,24 +2019,21 @@
         <v>29637.1339</v>
       </c>
       <c r="G44" t="n">
-        <v>189065.6384136752</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2153,24 +2055,21 @@
         <v>44900</v>
       </c>
       <c r="G45" t="n">
-        <v>233965.6384136752</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2192,24 +2091,21 @@
         <v>40000</v>
       </c>
       <c r="G46" t="n">
-        <v>273965.6384136752</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2231,24 +2127,21 @@
         <v>6223.6082</v>
       </c>
       <c r="G47" t="n">
-        <v>267742.0302136752</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,24 +2163,21 @@
         <v>43828.024</v>
       </c>
       <c r="G48" t="n">
-        <v>311570.0542136752</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2309,24 +2199,21 @@
         <v>21600</v>
       </c>
       <c r="G49" t="n">
-        <v>333170.0542136752</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2348,24 +2235,21 @@
         <v>1462.5499</v>
       </c>
       <c r="G50" t="n">
-        <v>331707.5043136752</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2387,24 +2271,21 @@
         <v>10788.0599</v>
       </c>
       <c r="G51" t="n">
-        <v>331707.5043136752</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2426,24 +2307,21 @@
         <v>7080.875</v>
       </c>
       <c r="G52" t="n">
-        <v>331707.5043136752</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2465,24 +2343,21 @@
         <v>97001.82826047431</v>
       </c>
       <c r="G53" t="n">
-        <v>428709.3325741495</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2504,24 +2379,21 @@
         <v>5195.041039525691</v>
       </c>
       <c r="G54" t="n">
-        <v>433904.3736136752</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2543,24 +2415,21 @@
         <v>44870.6078</v>
       </c>
       <c r="G55" t="n">
-        <v>433904.3736136752</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2582,24 +2451,21 @@
         <v>8787.000099999999</v>
       </c>
       <c r="G56" t="n">
-        <v>442691.3737136752</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2621,24 +2487,21 @@
         <v>11766.8588</v>
       </c>
       <c r="G57" t="n">
-        <v>454458.2325136752</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2660,24 +2523,21 @@
         <v>1357.4453</v>
       </c>
       <c r="G58" t="n">
-        <v>455815.6778136753</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2699,24 +2559,21 @@
         <v>19950</v>
       </c>
       <c r="G59" t="n">
-        <v>475765.6778136753</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2738,24 +2595,21 @@
         <v>9775.2271</v>
       </c>
       <c r="G60" t="n">
-        <v>475765.6778136753</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2777,24 +2631,21 @@
         <v>4000</v>
       </c>
       <c r="G61" t="n">
-        <v>475765.6778136753</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2816,24 +2667,21 @@
         <v>1102.8429</v>
       </c>
       <c r="G62" t="n">
-        <v>475765.6778136753</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2855,24 +2703,21 @@
         <v>196.427</v>
       </c>
       <c r="G63" t="n">
-        <v>475765.6778136753</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2894,24 +2739,21 @@
         <v>3877.2124</v>
       </c>
       <c r="G64" t="n">
-        <v>475765.6778136753</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2933,24 +2775,21 @@
         <v>33764.3955</v>
       </c>
       <c r="G65" t="n">
-        <v>475765.6778136753</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2972,24 +2811,21 @@
         <v>27425.4494</v>
       </c>
       <c r="G66" t="n">
-        <v>448340.2284136753</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3011,24 +2847,21 @@
         <v>60</v>
       </c>
       <c r="G67" t="n">
-        <v>448280.2284136753</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3050,24 +2883,21 @@
         <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>448300.2284136753</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3089,24 +2919,21 @@
         <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>448280.2284136753</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3128,24 +2955,21 @@
         <v>33764.3955</v>
       </c>
       <c r="G70" t="n">
-        <v>414515.8329136753</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3167,24 +2991,21 @@
         <v>12665.9323</v>
       </c>
       <c r="G71" t="n">
-        <v>427181.7652136753</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3206,24 +3027,21 @@
         <v>10000</v>
       </c>
       <c r="G72" t="n">
-        <v>417181.7652136753</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3245,24 +3063,21 @@
         <v>20000</v>
       </c>
       <c r="G73" t="n">
-        <v>397181.7652136753</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3284,24 +3099,21 @@
         <v>1087.0166</v>
       </c>
       <c r="G74" t="n">
-        <v>397181.7652136753</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3323,24 +3135,21 @@
         <v>12665.9323</v>
       </c>
       <c r="G75" t="n">
-        <v>384515.8329136753</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3362,24 +3171,21 @@
         <v>18000</v>
       </c>
       <c r="G76" t="n">
-        <v>402515.8329136753</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3401,24 +3207,21 @@
         <v>49800</v>
       </c>
       <c r="G77" t="n">
-        <v>352715.8329136753</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3440,24 +3243,21 @@
         <v>2018.4217</v>
       </c>
       <c r="G78" t="n">
-        <v>352715.8329136753</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3479,24 +3279,21 @@
         <v>4000</v>
       </c>
       <c r="G79" t="n">
-        <v>352715.8329136753</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3518,24 +3315,21 @@
         <v>50000</v>
       </c>
       <c r="G80" t="n">
-        <v>302715.8329136753</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3557,24 +3351,21 @@
         <v>803.0874</v>
       </c>
       <c r="G81" t="n">
-        <v>302715.8329136753</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3596,24 +3387,21 @@
         <v>62887.0232</v>
       </c>
       <c r="G82" t="n">
-        <v>365602.8561136753</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3635,24 +3423,21 @@
         <v>7962.5288</v>
       </c>
       <c r="G83" t="n">
-        <v>365602.8561136753</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3674,24 +3459,21 @@
         <v>23379.0523</v>
       </c>
       <c r="G84" t="n">
-        <v>388981.9084136753</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3713,24 +3495,21 @@
         <v>62887.0232</v>
       </c>
       <c r="G85" t="n">
-        <v>326094.8852136753</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3752,24 +3531,23 @@
         <v>92.4926</v>
       </c>
       <c r="G86" t="n">
-        <v>326094.8852136753</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>25.2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3791,24 +3569,23 @@
         <v>212.7</v>
       </c>
       <c r="G87" t="n">
-        <v>326307.5852136753</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>25.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3830,24 +3607,23 @@
         <v>606.1598</v>
       </c>
       <c r="G88" t="n">
-        <v>326913.7450136753</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>25.3</v>
+      </c>
+      <c r="I88" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3869,24 +3645,23 @@
         <v>8103.5106</v>
       </c>
       <c r="G89" t="n">
-        <v>335017.2556136753</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="I89" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3908,24 +3683,23 @@
         <v>803.1153</v>
       </c>
       <c r="G90" t="n">
-        <v>335017.2556136753</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3947,24 +3721,21 @@
         <v>45104.8687</v>
       </c>
       <c r="G91" t="n">
-        <v>289912.3869136753</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3986,24 +3757,21 @@
         <v>49800</v>
       </c>
       <c r="G92" t="n">
-        <v>339712.3869136753</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4025,24 +3793,21 @@
         <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>359712.3869136753</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4064,24 +3829,21 @@
         <v>105272.3993</v>
       </c>
       <c r="G94" t="n">
-        <v>359712.3869136753</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4103,24 +3865,21 @@
         <v>1272.8311</v>
       </c>
       <c r="G95" t="n">
-        <v>360985.2180136753</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4142,24 +3901,21 @@
         <v>29901.5782</v>
       </c>
       <c r="G96" t="n">
-        <v>360985.2180136753</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4181,24 +3937,21 @@
         <v>52062.0412</v>
       </c>
       <c r="G97" t="n">
-        <v>360985.2180136753</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4220,24 +3973,21 @@
         <v>1272.8311</v>
       </c>
       <c r="G98" t="n">
-        <v>359712.3869136753</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4259,24 +4009,21 @@
         <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>359712.3869136753</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4298,24 +4045,21 @@
         <v>1247.8126</v>
       </c>
       <c r="G100" t="n">
-        <v>360960.1995136753</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4337,24 +4081,21 @@
         <v>67696.514</v>
       </c>
       <c r="G101" t="n">
-        <v>428656.7135136753</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4376,24 +4117,21 @@
         <v>312.0949</v>
       </c>
       <c r="G102" t="n">
-        <v>428656.7135136753</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4415,24 +4153,21 @@
         <v>88696.405</v>
       </c>
       <c r="G103" t="n">
-        <v>428656.7135136753</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4454,24 +4189,21 @@
         <v>18800</v>
       </c>
       <c r="G104" t="n">
-        <v>447456.7135136753</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4493,24 +4225,21 @@
         <v>45.7564</v>
       </c>
       <c r="G105" t="n">
-        <v>447502.4699136753</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4532,24 +4261,21 @@
         <v>15491.574</v>
       </c>
       <c r="G106" t="n">
-        <v>447502.4699136753</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4571,24 +4297,21 @@
         <v>144887.4058</v>
       </c>
       <c r="G107" t="n">
-        <v>302615.0641136753</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4610,24 +4333,21 @@
         <v>15612.1884</v>
       </c>
       <c r="G108" t="n">
-        <v>318227.2525136753</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4649,24 +4369,21 @@
         <v>60893.0661</v>
       </c>
       <c r="G109" t="n">
-        <v>318227.2525136753</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4688,24 +4405,21 @@
         <v>4844.5439</v>
       </c>
       <c r="G110" t="n">
-        <v>318227.2525136753</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4727,24 +4441,21 @@
         <v>3182.5989</v>
       </c>
       <c r="G111" t="n">
-        <v>318227.2525136753</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4766,24 +4477,21 @@
         <v>140822.6085</v>
       </c>
       <c r="G112" t="n">
-        <v>177404.6440136752</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4805,24 +4513,21 @@
         <v>1374.7464</v>
       </c>
       <c r="G113" t="n">
-        <v>178779.3904136753</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4844,24 +4549,21 @@
         <v>44.938</v>
       </c>
       <c r="G114" t="n">
-        <v>178824.3284136752</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4883,24 +4585,21 @@
         <v>4000</v>
       </c>
       <c r="G115" t="n">
-        <v>182824.3284136752</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4922,24 +4621,21 @@
         <v>6940.395</v>
       </c>
       <c r="G116" t="n">
-        <v>182824.3284136752</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4961,24 +4657,21 @@
         <v>695.4748</v>
       </c>
       <c r="G117" t="n">
-        <v>182824.3284136752</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5000,24 +4693,21 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>182824.3284136752</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5039,24 +4729,21 @@
         <v>3090.6944</v>
       </c>
       <c r="G119" t="n">
-        <v>179733.6340136752</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5078,24 +4765,21 @@
         <v>54564.3521</v>
       </c>
       <c r="G120" t="n">
-        <v>234297.9861136752</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5117,24 +4801,21 @@
         <v>84588.0019</v>
       </c>
       <c r="G121" t="n">
-        <v>234297.9861136752</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5156,24 +4837,21 @@
         <v>45909.96454285715</v>
       </c>
       <c r="G122" t="n">
-        <v>280207.9506565324</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5195,24 +4873,21 @@
         <v>182592.9552348315</v>
       </c>
       <c r="G123" t="n">
-        <v>280207.9506565324</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5234,24 +4909,21 @@
         <v>95669.00716516854</v>
       </c>
       <c r="G124" t="n">
-        <v>375876.9578217009</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5273,24 +4945,21 @@
         <v>10129.8701</v>
       </c>
       <c r="G125" t="n">
-        <v>386006.8279217009</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5312,24 +4981,21 @@
         <v>68360.66710000001</v>
       </c>
       <c r="G126" t="n">
-        <v>454367.4950217009</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5351,24 +5017,21 @@
         <v>22022.6135</v>
       </c>
       <c r="G127" t="n">
-        <v>432344.8815217009</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5390,24 +5053,21 @@
         <v>40000</v>
       </c>
       <c r="G128" t="n">
-        <v>472344.8815217009</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5429,24 +5089,21 @@
         <v>48090.4541</v>
       </c>
       <c r="G129" t="n">
-        <v>472344.8815217009</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5468,24 +5125,21 @@
         <v>176186.1855</v>
       </c>
       <c r="G130" t="n">
-        <v>648531.0670217009</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5507,24 +5161,21 @@
         <v>86177.1131</v>
       </c>
       <c r="G131" t="n">
-        <v>734708.1801217009</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5546,24 +5197,21 @@
         <v>169623.9086058394</v>
       </c>
       <c r="G132" t="n">
-        <v>904332.0887275402</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5585,24 +5233,21 @@
         <v>58886.8515</v>
       </c>
       <c r="G133" t="n">
-        <v>963218.9402275402</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5624,24 +5269,21 @@
         <v>39330.8242</v>
       </c>
       <c r="G134" t="n">
-        <v>963218.9402275402</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5663,24 +5305,21 @@
         <v>27344.3093</v>
       </c>
       <c r="G135" t="n">
-        <v>935874.6309275402</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5702,24 +5341,21 @@
         <v>66841.0012</v>
       </c>
       <c r="G136" t="n">
-        <v>1002715.63212754</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5741,26 +5377,21 @@
         <v>198171.8585</v>
       </c>
       <c r="G137" t="n">
-        <v>1200887.49062754</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1.172966101694915</v>
-      </c>
-      <c r="M137" t="n">
-        <v>1.004237288135593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5782,18 +5413,23 @@
         <v>104022.6504</v>
       </c>
       <c r="G138" t="n">
-        <v>1304910.14102754</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1.185677966101695</v>
+      </c>
       <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>1.004237288135593</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5815,18 +5451,15 @@
         <v>209221.5673</v>
       </c>
       <c r="G139" t="n">
-        <v>1095688.57372754</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5848,18 +5481,15 @@
         <v>493243.7988</v>
       </c>
       <c r="G140" t="n">
-        <v>1095688.57372754</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5881,18 +5511,15 @@
         <v>192148.3723</v>
       </c>
       <c r="G141" t="n">
-        <v>903540.2014275403</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5914,18 +5541,15 @@
         <v>105027.5005</v>
       </c>
       <c r="G142" t="n">
-        <v>798512.7009275403</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5947,18 +5571,15 @@
         <v>166468.7267</v>
       </c>
       <c r="G143" t="n">
-        <v>964981.4276275403</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5980,18 +5601,15 @@
         <v>9236.759099999999</v>
       </c>
       <c r="G144" t="n">
-        <v>964981.4276275403</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6013,18 +5631,15 @@
         <v>37938.2087</v>
       </c>
       <c r="G145" t="n">
-        <v>1002919.63632754</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6046,18 +5661,15 @@
         <v>87021.2583</v>
       </c>
       <c r="G146" t="n">
-        <v>1002919.63632754</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6079,18 +5691,15 @@
         <v>4211.3366</v>
       </c>
       <c r="G147" t="n">
-        <v>998708.2997275402</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6112,18 +5721,15 @@
         <v>29193.9967</v>
       </c>
       <c r="G148" t="n">
-        <v>969514.3030275402</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6145,18 +5751,15 @@
         <v>13655.0632</v>
       </c>
       <c r="G149" t="n">
-        <v>983169.3662275402</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6178,18 +5781,15 @@
         <v>110968.1933</v>
       </c>
       <c r="G150" t="n">
-        <v>1094137.55952754</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6211,18 +5811,15 @@
         <v>21203.8696</v>
       </c>
       <c r="G151" t="n">
-        <v>1072933.68992754</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6244,18 +5841,15 @@
         <v>38224.9275</v>
       </c>
       <c r="G152" t="n">
-        <v>1034708.76242754</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6277,18 +5871,15 @@
         <v>26425.4738</v>
       </c>
       <c r="G153" t="n">
-        <v>1008283.28862754</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6310,18 +5901,15 @@
         <v>411811.9223</v>
       </c>
       <c r="G154" t="n">
-        <v>596471.36632754</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6343,18 +5931,15 @@
         <v>23326.5074</v>
       </c>
       <c r="G155" t="n">
-        <v>619797.87372754</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6376,18 +5961,15 @@
         <v>40.6214</v>
       </c>
       <c r="G156" t="n">
-        <v>619757.2523275401</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6409,18 +5991,15 @@
         <v>167729.1756</v>
       </c>
       <c r="G157" t="n">
-        <v>452028.0767275401</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6442,18 +6021,15 @@
         <v>68508.31623483147</v>
       </c>
       <c r="G158" t="n">
-        <v>452028.0767275401</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6475,18 +6051,15 @@
         <v>158182.946</v>
       </c>
       <c r="G159" t="n">
-        <v>293845.1307275401</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6508,18 +6081,15 @@
         <v>2046.1067</v>
       </c>
       <c r="G160" t="n">
-        <v>293845.1307275401</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6541,18 +6111,15 @@
         <v>208494.5103</v>
       </c>
       <c r="G161" t="n">
-        <v>85350.62042754013</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6574,18 +6141,15 @@
         <v>263070.7756</v>
       </c>
       <c r="G162" t="n">
-        <v>-177720.1551724599</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6607,18 +6171,15 @@
         <v>221620.8026</v>
       </c>
       <c r="G163" t="n">
-        <v>-399340.9577724598</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6640,18 +6201,15 @@
         <v>74672.425</v>
       </c>
       <c r="G164" t="n">
-        <v>-324668.5327724598</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6673,18 +6231,15 @@
         <v>75154.0756</v>
       </c>
       <c r="G165" t="n">
-        <v>-324668.5327724598</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6706,18 +6261,15 @@
         <v>196376.6532</v>
       </c>
       <c r="G166" t="n">
-        <v>-128291.8795724598</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6739,18 +6291,15 @@
         <v>104700.243</v>
       </c>
       <c r="G167" t="n">
-        <v>-128291.8795724598</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6772,18 +6321,15 @@
         <v>320430.7782</v>
       </c>
       <c r="G168" t="n">
-        <v>192138.8986275402</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6805,18 +6351,15 @@
         <v>555429.3594</v>
       </c>
       <c r="G169" t="n">
-        <v>192138.8986275402</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6838,18 +6381,15 @@
         <v>87078.05869999999</v>
       </c>
       <c r="G170" t="n">
-        <v>105060.8399275402</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6871,18 +6411,15 @@
         <v>99457.40360000001</v>
       </c>
       <c r="G171" t="n">
-        <v>204518.2435275402</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6904,18 +6441,15 @@
         <v>85394.4172</v>
       </c>
       <c r="G172" t="n">
-        <v>119123.8263275402</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
